--- a/02.팀원관리/01.인사고과평가/2023 상반기 인사고과평가_개발사업부_개발2팀_백지혜.xlsx
+++ b/02.팀원관리/01.인사고과평가/2023 상반기 인사고과평가_개발사업부_개발2팀_백지혜.xlsx
@@ -568,7 +568,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>2023.06.01 ~ 2023.06.30</t>
+    <t>2023.01.02 ~ 2023.06.30</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -2805,89 +2805,368 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="1" fontId="8" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="8" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2901,314 +3180,35 @@
     <xf numFmtId="2" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="9" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="6" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="57" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="53" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="325">
@@ -3843,8 +3843,8 @@
   </sheetPr>
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A70" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L80" sqref="L80"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A10" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="K30" sqref="K30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -3866,55 +3866,55 @@
   <sheetData>
     <row r="1" spans="1:16" ht="8.1" customHeight="1"/>
     <row r="2" spans="1:16" ht="15.9" customHeight="1">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="213" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="89"/>
-      <c r="I2" s="89"/>
-      <c r="J2" s="89"/>
-      <c r="K2" s="89"/>
-      <c r="L2" s="89"/>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
+      <c r="N2" s="214"/>
     </row>
     <row r="3" spans="1:16" ht="8.1" customHeight="1"/>
     <row r="4" spans="1:16" ht="18.75" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="100" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="90"/>
-      <c r="D4" s="90"/>
-      <c r="E4" s="91" t="s">
+      <c r="C4" s="100"/>
+      <c r="D4" s="100"/>
+      <c r="E4" s="215" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="90" t="s">
+      <c r="F4" s="215"/>
+      <c r="G4" s="100" t="s">
         <v>118</v>
       </c>
-      <c r="H4" s="90"/>
-      <c r="I4" s="92" t="s">
+      <c r="H4" s="100"/>
+      <c r="I4" s="216" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="93"/>
+      <c r="J4" s="217"/>
       <c r="K4" s="4" t="s">
         <v>116</v>
       </c>
       <c r="L4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M4" s="90" t="s">
+      <c r="M4" s="100" t="s">
         <v>117</v>
       </c>
-      <c r="N4" s="90"/>
+      <c r="N4" s="100"/>
     </row>
     <row r="5" spans="1:16" s="7" customFormat="1" ht="4.5" customHeight="1">
       <c r="A5" s="5"/>
@@ -3930,74 +3930,74 @@
       <c r="K5" s="6"/>
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1">
-      <c r="A6" s="94" t="s">
+      <c r="A6" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="216" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="95"/>
-      <c r="D6" s="95"/>
-      <c r="E6" s="93"/>
-      <c r="F6" s="92" t="s">
+      <c r="C6" s="219"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="217"/>
+      <c r="F6" s="216" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="95"/>
-      <c r="H6" s="95"/>
-      <c r="I6" s="95"/>
-      <c r="J6" s="93"/>
+      <c r="G6" s="219"/>
+      <c r="H6" s="219"/>
+      <c r="I6" s="219"/>
+      <c r="J6" s="217"/>
     </row>
     <row r="7" spans="1:16" ht="18" customHeight="1">
-      <c r="A7" s="91"/>
-      <c r="B7" s="96" t="s">
+      <c r="A7" s="215"/>
+      <c r="B7" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="C7" s="97"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="98"/>
-      <c r="F7" s="96" t="s">
+      <c r="C7" s="221"/>
+      <c r="D7" s="221"/>
+      <c r="E7" s="222"/>
+      <c r="F7" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="G7" s="97"/>
-      <c r="H7" s="97"/>
-      <c r="I7" s="97"/>
-      <c r="J7" s="98"/>
+      <c r="G7" s="221"/>
+      <c r="H7" s="221"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="222"/>
     </row>
     <row r="8" spans="1:16" ht="8.1" customHeight="1"/>
     <row r="9" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A9" s="99" t="s">
+      <c r="A9" s="203" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="99"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="99"/>
-      <c r="K9" s="99"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="99"/>
-      <c r="N9" s="99"/>
+      <c r="B9" s="203"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
+      <c r="E9" s="203"/>
+      <c r="F9" s="203"/>
+      <c r="G9" s="203"/>
+      <c r="H9" s="203"/>
+      <c r="I9" s="203"/>
+      <c r="J9" s="203"/>
+      <c r="K9" s="203"/>
+      <c r="L9" s="203"/>
+      <c r="M9" s="203"/>
+      <c r="N9" s="203"/>
     </row>
     <row r="10" spans="1:16" ht="16.5" customHeight="1">
-      <c r="A10" s="100" t="s">
+      <c r="A10" s="139" t="s">
         <v>10</v>
       </c>
-      <c r="B10" s="101"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="100" t="s">
+      <c r="B10" s="140"/>
+      <c r="C10" s="140"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="141"/>
+      <c r="F10" s="139" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="101"/>
-      <c r="H10" s="100" t="s">
+      <c r="G10" s="140"/>
+      <c r="H10" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="102"/>
+      <c r="I10" s="141"/>
       <c r="J10" s="8" t="s">
         <v>13</v>
       </c>
@@ -4007,18 +4007,18 @@
       <c r="L10" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="M10" s="103" t="s">
+      <c r="M10" s="204" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="104"/>
+      <c r="N10" s="205"/>
     </row>
     <row r="11" spans="1:16" ht="15" customHeight="1">
-      <c r="A11" s="105" t="s">
+      <c r="A11" s="181" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="106"/>
-      <c r="C11" s="106"/>
-      <c r="D11" s="106"/>
+      <c r="B11" s="182"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
       <c r="E11" s="11">
         <v>0.3</v>
       </c>
@@ -4031,26 +4031,26 @@
       <c r="L11" s="12"/>
       <c r="M11" s="12"/>
       <c r="N11" s="13"/>
-      <c r="P11" s="107" t="s">
+      <c r="P11" s="206" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="15" customHeight="1">
-      <c r="A12" s="109" t="s">
+      <c r="A12" s="183" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="110"/>
-      <c r="C12" s="110"/>
-      <c r="D12" s="110"/>
-      <c r="E12" s="111"/>
-      <c r="F12" s="112">
+      <c r="B12" s="184"/>
+      <c r="C12" s="184"/>
+      <c r="D12" s="184"/>
+      <c r="E12" s="185"/>
+      <c r="F12" s="207">
         <v>30</v>
       </c>
-      <c r="G12" s="112"/>
-      <c r="H12" s="112">
+      <c r="G12" s="207"/>
+      <c r="H12" s="207">
         <v>6</v>
       </c>
-      <c r="I12" s="112"/>
+      <c r="I12" s="207"/>
       <c r="J12" s="14">
         <f>L34</f>
         <v>6</v>
@@ -4059,28 +4059,28 @@
         <f>$J$12*$F$12/$H$12</f>
         <v>30</v>
       </c>
-      <c r="L12" s="114">
+      <c r="L12" s="195">
         <f>IF(SUM(K12:K13)&gt;30, 30, SUM(K12:K13))</f>
         <v>30</v>
       </c>
-      <c r="M12" s="116" t="s">
+      <c r="M12" s="209" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="117"/>
-      <c r="P12" s="108"/>
+      <c r="N12" s="210"/>
+      <c r="P12" s="94"/>
     </row>
     <row r="13" spans="1:16" ht="15" customHeight="1">
-      <c r="A13" s="120" t="s">
+      <c r="A13" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="B13" s="121"/>
-      <c r="C13" s="121"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
+      <c r="B13" s="190"/>
+      <c r="C13" s="190"/>
+      <c r="D13" s="190"/>
+      <c r="E13" s="191"/>
+      <c r="F13" s="208"/>
+      <c r="G13" s="208"/>
+      <c r="H13" s="208"/>
+      <c r="I13" s="208"/>
       <c r="J13" s="16">
         <f>N45</f>
         <v>0</v>
@@ -4089,18 +4089,18 @@
         <f>$J$13*$F$12/$H$12</f>
         <v>0</v>
       </c>
-      <c r="L13" s="115"/>
-      <c r="M13" s="118"/>
-      <c r="N13" s="119"/>
-      <c r="P13" s="108"/>
+      <c r="L13" s="196"/>
+      <c r="M13" s="211"/>
+      <c r="N13" s="212"/>
+      <c r="P13" s="94"/>
     </row>
     <row r="14" spans="1:16" ht="15" customHeight="1">
-      <c r="A14" s="105" t="s">
+      <c r="A14" s="181" t="s">
         <v>22</v>
       </c>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
+      <c r="B14" s="182"/>
+      <c r="C14" s="182"/>
+      <c r="D14" s="182"/>
       <c r="E14" s="11">
         <v>0.5</v>
       </c>
@@ -4115,21 +4115,21 @@
       <c r="N14" s="13"/>
     </row>
     <row r="15" spans="1:16" ht="15" customHeight="1">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="110"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="123">
+      <c r="B15" s="184"/>
+      <c r="C15" s="184"/>
+      <c r="D15" s="184"/>
+      <c r="E15" s="185"/>
+      <c r="F15" s="186">
         <v>20</v>
       </c>
-      <c r="G15" s="123"/>
-      <c r="H15" s="123">
+      <c r="G15" s="186"/>
+      <c r="H15" s="186">
         <v>20</v>
       </c>
-      <c r="I15" s="123"/>
+      <c r="I15" s="186"/>
       <c r="J15" s="18">
         <f>M34</f>
         <v>0</v>
@@ -4138,29 +4138,29 @@
         <f>J15/H15*F15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="114">
+      <c r="L15" s="195">
         <f>SUM(K15:K16)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="124"/>
-      <c r="N15" s="125"/>
+      <c r="M15" s="199"/>
+      <c r="N15" s="200"/>
     </row>
     <row r="16" spans="1:16" ht="15" customHeight="1">
-      <c r="A16" s="120" t="s">
+      <c r="A16" s="189" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="121"/>
-      <c r="C16" s="121"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="122"/>
-      <c r="F16" s="128">
+      <c r="B16" s="190"/>
+      <c r="C16" s="190"/>
+      <c r="D16" s="190"/>
+      <c r="E16" s="191"/>
+      <c r="F16" s="192">
         <v>30</v>
       </c>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128">
+      <c r="G16" s="192"/>
+      <c r="H16" s="192">
         <v>30</v>
       </c>
-      <c r="I16" s="128"/>
+      <c r="I16" s="192"/>
       <c r="J16" s="19">
         <f>N34</f>
         <v>0</v>
@@ -4169,17 +4169,17 @@
         <f>J16/H16*F16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="115"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="127"/>
+      <c r="L16" s="196"/>
+      <c r="M16" s="201"/>
+      <c r="N16" s="202"/>
     </row>
     <row r="17" spans="1:17" ht="15" customHeight="1">
-      <c r="A17" s="105" t="s">
+      <c r="A17" s="181" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="106"/>
-      <c r="C17" s="106"/>
-      <c r="D17" s="106"/>
+      <c r="B17" s="182"/>
+      <c r="C17" s="182"/>
+      <c r="D17" s="182"/>
       <c r="E17" s="11">
         <v>0.2</v>
       </c>
@@ -4194,17 +4194,17 @@
       <c r="N17" s="13"/>
     </row>
     <row r="18" spans="1:17" ht="15" customHeight="1">
-      <c r="A18" s="109" t="s">
+      <c r="A18" s="183" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="110"/>
-      <c r="C18" s="110"/>
-      <c r="D18" s="110"/>
+      <c r="B18" s="184"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
       <c r="E18" s="20"/>
-      <c r="F18" s="123"/>
-      <c r="G18" s="123"/>
-      <c r="H18" s="123"/>
-      <c r="I18" s="123"/>
+      <c r="F18" s="186"/>
+      <c r="G18" s="186"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="186"/>
       <c r="J18" s="21">
         <f>B57+N57</f>
         <v>0</v>
@@ -4213,29 +4213,29 @@
         <f>J18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="114">
+      <c r="L18" s="195">
         <f>K18+K19</f>
         <v>0</v>
       </c>
-      <c r="M18" s="129"/>
-      <c r="N18" s="130"/>
+      <c r="M18" s="187"/>
+      <c r="N18" s="188"/>
     </row>
     <row r="19" spans="1:17" ht="15" customHeight="1">
-      <c r="A19" s="120" t="s">
+      <c r="A19" s="189" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="121"/>
-      <c r="C19" s="121"/>
-      <c r="D19" s="121"/>
+      <c r="B19" s="190"/>
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
       <c r="E19" s="22"/>
-      <c r="F19" s="128">
+      <c r="F19" s="192">
         <v>20</v>
       </c>
-      <c r="G19" s="128"/>
-      <c r="H19" s="128">
+      <c r="G19" s="192"/>
+      <c r="H19" s="192">
         <v>45</v>
       </c>
-      <c r="I19" s="128"/>
+      <c r="I19" s="192"/>
       <c r="J19" s="23">
         <f>M89</f>
         <v>0</v>
@@ -4244,18 +4244,18 @@
         <f>J19*F19/H19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="115"/>
-      <c r="M19" s="131"/>
-      <c r="N19" s="132"/>
+      <c r="L19" s="196"/>
+      <c r="M19" s="197"/>
+      <c r="N19" s="198"/>
     </row>
     <row r="20" spans="1:17" ht="15" customHeight="1">
-      <c r="A20" s="105" t="s">
+      <c r="A20" s="181" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="106"/>
-      <c r="C20" s="106"/>
-      <c r="D20" s="106"/>
-      <c r="E20" s="106"/>
+      <c r="B20" s="182"/>
+      <c r="C20" s="182"/>
+      <c r="D20" s="182"/>
+      <c r="E20" s="182"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
       <c r="H20" s="12"/>
@@ -4267,17 +4267,17 @@
       <c r="N20" s="13"/>
     </row>
     <row r="21" spans="1:17" ht="15" customHeight="1">
-      <c r="A21" s="109" t="s">
+      <c r="A21" s="183" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="110"/>
-      <c r="C21" s="110"/>
-      <c r="D21" s="110"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="123"/>
-      <c r="G21" s="123"/>
-      <c r="H21" s="123"/>
-      <c r="I21" s="123"/>
+      <c r="B21" s="184"/>
+      <c r="C21" s="184"/>
+      <c r="D21" s="184"/>
+      <c r="E21" s="185"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="186"/>
       <c r="J21" s="24">
         <f>K12+K13-L12</f>
         <v>0</v>
@@ -4290,25 +4290,25 @@
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="129"/>
-      <c r="N21" s="130"/>
+      <c r="M21" s="187"/>
+      <c r="N21" s="188"/>
     </row>
     <row r="22" spans="1:17" ht="15" customHeight="1">
-      <c r="A22" s="120" t="s">
+      <c r="A22" s="189" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="121"/>
-      <c r="C22" s="121"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="122"/>
-      <c r="F22" s="128">
+      <c r="B22" s="190"/>
+      <c r="C22" s="190"/>
+      <c r="D22" s="190"/>
+      <c r="E22" s="191"/>
+      <c r="F22" s="192">
         <v>0</v>
       </c>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128">
+      <c r="G22" s="192"/>
+      <c r="H22" s="192">
         <v>0</v>
       </c>
-      <c r="I22" s="128"/>
+      <c r="I22" s="192"/>
       <c r="J22" s="26">
         <v>0</v>
       </c>
@@ -4320,32 +4320,32 @@
         <f>K22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="133"/>
-      <c r="N22" s="134"/>
+      <c r="M22" s="193"/>
+      <c r="N22" s="194"/>
       <c r="P22" s="28" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A23" s="100" t="s">
+      <c r="A23" s="139" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="101"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="101"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="101"/>
+      <c r="B23" s="140"/>
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+      <c r="K23" s="140"/>
       <c r="L23" s="29">
         <f>IF(SUM(L12,L15,L18,L19,L21,L22) &gt; 100, 100, SUM(L12,L15,L18,L19,L21,L22))</f>
         <v>30</v>
       </c>
-      <c r="M23" s="100"/>
-      <c r="N23" s="102"/>
+      <c r="M23" s="139"/>
+      <c r="N23" s="141"/>
     </row>
     <row r="24" spans="1:17" ht="8.1" customHeight="1"/>
     <row r="25" spans="1:17" ht="16.5" customHeight="1">
@@ -4354,60 +4354,60 @@
       </c>
     </row>
     <row r="26" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A26" s="135" t="s">
+      <c r="A26" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="B26" s="135"/>
-      <c r="C26" s="135"/>
-      <c r="D26" s="135"/>
-      <c r="E26" s="135"/>
-      <c r="F26" s="135"/>
-      <c r="G26" s="135"/>
-      <c r="H26" s="135"/>
-      <c r="I26" s="135"/>
-      <c r="J26" s="135"/>
-      <c r="K26" s="135"/>
-      <c r="L26" s="135"/>
-      <c r="M26" s="135"/>
-      <c r="N26" s="135"/>
+      <c r="B26" s="176"/>
+      <c r="C26" s="176"/>
+      <c r="D26" s="176"/>
+      <c r="E26" s="176"/>
+      <c r="F26" s="176"/>
+      <c r="G26" s="176"/>
+      <c r="H26" s="176"/>
+      <c r="I26" s="176"/>
+      <c r="J26" s="176"/>
+      <c r="K26" s="176"/>
+      <c r="L26" s="176"/>
+      <c r="M26" s="176"/>
+      <c r="N26" s="176"/>
     </row>
     <row r="27" spans="1:17" ht="16.5" customHeight="1">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="139" t="s">
         <v>35</v>
       </c>
-      <c r="B27" s="101"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="136" t="s">
+      <c r="B27" s="140"/>
+      <c r="C27" s="140"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="141"/>
+      <c r="K27" s="177" t="s">
         <v>36</v>
       </c>
-      <c r="L27" s="136"/>
-      <c r="M27" s="136" t="s">
+      <c r="L27" s="177"/>
+      <c r="M27" s="177" t="s">
         <v>37</v>
       </c>
-      <c r="N27" s="136"/>
+      <c r="N27" s="177"/>
     </row>
     <row r="28" spans="1:17" ht="26.25" customHeight="1">
-      <c r="A28" s="100" t="s">
+      <c r="A28" s="139" t="s">
         <v>38</v>
       </c>
-      <c r="B28" s="101"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="100" t="s">
+      <c r="B28" s="140"/>
+      <c r="C28" s="140"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="140"/>
+      <c r="F28" s="141"/>
+      <c r="G28" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="H28" s="101"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="102"/>
+      <c r="H28" s="140"/>
+      <c r="I28" s="140"/>
+      <c r="J28" s="141"/>
       <c r="K28" s="8" t="s">
         <v>40</v>
       </c>
@@ -4422,22 +4422,22 @@
       </c>
     </row>
     <row r="29" spans="1:17" ht="15" customHeight="1">
-      <c r="A29" s="137" t="s">
+      <c r="A29" s="151" t="s">
         <v>119</v>
       </c>
-      <c r="B29" s="138"/>
-      <c r="C29" s="138"/>
-      <c r="D29" s="138"/>
-      <c r="E29" s="138"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="140" t="s">
+      <c r="B29" s="152"/>
+      <c r="C29" s="152"/>
+      <c r="D29" s="152"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="178" t="s">
         <v>120</v>
       </c>
-      <c r="H29" s="141"/>
-      <c r="I29" s="141"/>
-      <c r="J29" s="142"/>
+      <c r="H29" s="179"/>
+      <c r="I29" s="179"/>
+      <c r="J29" s="180"/>
       <c r="K29" s="32">
-        <v>6</v>
+        <v>5.81</v>
       </c>
       <c r="L29" s="32">
         <v>6</v>
@@ -4448,16 +4448,16 @@
       <c r="Q29" s="36"/>
     </row>
     <row r="30" spans="1:17" ht="15" customHeight="1">
-      <c r="A30" s="137"/>
-      <c r="B30" s="138"/>
-      <c r="C30" s="138"/>
-      <c r="D30" s="138"/>
-      <c r="E30" s="138"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="143"/>
-      <c r="H30" s="144"/>
-      <c r="I30" s="144"/>
-      <c r="J30" s="145"/>
+      <c r="A30" s="151"/>
+      <c r="B30" s="152"/>
+      <c r="C30" s="152"/>
+      <c r="D30" s="152"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="154"/>
+      <c r="H30" s="155"/>
+      <c r="I30" s="155"/>
+      <c r="J30" s="156"/>
       <c r="K30" s="37"/>
       <c r="L30" s="38"/>
       <c r="M30" s="39"/>
@@ -4466,16 +4466,16 @@
       <c r="Q30" s="36"/>
     </row>
     <row r="31" spans="1:17" ht="15" customHeight="1">
-      <c r="A31" s="137"/>
-      <c r="B31" s="138"/>
-      <c r="C31" s="138"/>
-      <c r="D31" s="138"/>
-      <c r="E31" s="138"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="143"/>
-      <c r="H31" s="144"/>
-      <c r="I31" s="144"/>
-      <c r="J31" s="145"/>
+      <c r="A31" s="151"/>
+      <c r="B31" s="152"/>
+      <c r="C31" s="152"/>
+      <c r="D31" s="152"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="154"/>
+      <c r="H31" s="155"/>
+      <c r="I31" s="155"/>
+      <c r="J31" s="156"/>
       <c r="K31" s="37"/>
       <c r="L31" s="38"/>
       <c r="M31" s="39"/>
@@ -4484,16 +4484,16 @@
       <c r="Q31" s="36"/>
     </row>
     <row r="32" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A32" s="137"/>
-      <c r="B32" s="138"/>
-      <c r="C32" s="138"/>
-      <c r="D32" s="138"/>
-      <c r="E32" s="138"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="143"/>
-      <c r="H32" s="144"/>
-      <c r="I32" s="144"/>
-      <c r="J32" s="145"/>
+      <c r="A32" s="151"/>
+      <c r="B32" s="152"/>
+      <c r="C32" s="152"/>
+      <c r="D32" s="152"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="154"/>
+      <c r="H32" s="155"/>
+      <c r="I32" s="155"/>
+      <c r="J32" s="156"/>
       <c r="K32" s="37"/>
       <c r="L32" s="38"/>
       <c r="M32" s="39"/>
@@ -4502,16 +4502,16 @@
       <c r="Q32" s="36"/>
     </row>
     <row r="33" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A33" s="146"/>
-      <c r="B33" s="147"/>
-      <c r="C33" s="147"/>
-      <c r="D33" s="147"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="148"/>
-      <c r="G33" s="149"/>
-      <c r="H33" s="150"/>
-      <c r="I33" s="150"/>
-      <c r="J33" s="151"/>
+      <c r="A33" s="170"/>
+      <c r="B33" s="171"/>
+      <c r="C33" s="171"/>
+      <c r="D33" s="171"/>
+      <c r="E33" s="171"/>
+      <c r="F33" s="172"/>
+      <c r="G33" s="173"/>
+      <c r="H33" s="174"/>
+      <c r="I33" s="174"/>
+      <c r="J33" s="175"/>
       <c r="K33" s="41"/>
       <c r="L33" s="42"/>
       <c r="M33" s="43"/>
@@ -4520,21 +4520,21 @@
       <c r="Q33" s="36"/>
     </row>
     <row r="34" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A34" s="100" t="s">
+      <c r="A34" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="B34" s="101"/>
-      <c r="C34" s="101"/>
-      <c r="D34" s="101"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="101"/>
-      <c r="G34" s="101"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="102"/>
+      <c r="B34" s="140"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="141"/>
       <c r="K34" s="44">
         <f>SUM(K29:K33)</f>
-        <v>6</v>
+        <v>5.81</v>
       </c>
       <c r="L34" s="45">
         <f>SUM(L29:L33)</f>
@@ -4550,60 +4550,60 @@
       </c>
     </row>
     <row r="35" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A35" s="152" t="s">
+      <c r="A35" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="152"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="152"/>
-      <c r="E35" s="152"/>
-      <c r="F35" s="152"/>
-      <c r="G35" s="152"/>
-      <c r="H35" s="152"/>
-      <c r="I35" s="152"/>
-      <c r="J35" s="152"/>
-      <c r="K35" s="152"/>
-      <c r="L35" s="152"/>
-      <c r="M35" s="152"/>
-      <c r="N35" s="152"/>
+      <c r="B35" s="160"/>
+      <c r="C35" s="160"/>
+      <c r="D35" s="160"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="160"/>
+      <c r="N35" s="160"/>
     </row>
     <row r="36" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A36" s="100" t="s">
+      <c r="A36" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="B36" s="101"/>
-      <c r="C36" s="101"/>
-      <c r="D36" s="101"/>
-      <c r="E36" s="101"/>
-      <c r="F36" s="101"/>
-      <c r="G36" s="101"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="101"/>
-      <c r="K36" s="101"/>
-      <c r="L36" s="100" t="s">
+      <c r="B36" s="140"/>
+      <c r="C36" s="140"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="140"/>
+      <c r="F36" s="140"/>
+      <c r="G36" s="140"/>
+      <c r="H36" s="140"/>
+      <c r="I36" s="140"/>
+      <c r="J36" s="140"/>
+      <c r="K36" s="140"/>
+      <c r="L36" s="139" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="101"/>
-      <c r="N36" s="102"/>
+      <c r="M36" s="140"/>
+      <c r="N36" s="141"/>
     </row>
     <row r="37" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A37" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="B37" s="153" t="s">
+      <c r="B37" s="161" t="s">
         <v>47</v>
       </c>
-      <c r="C37" s="154"/>
-      <c r="D37" s="154"/>
-      <c r="E37" s="154"/>
-      <c r="F37" s="154"/>
-      <c r="G37" s="155"/>
-      <c r="H37" s="156" t="s">
+      <c r="C37" s="162"/>
+      <c r="D37" s="162"/>
+      <c r="E37" s="162"/>
+      <c r="F37" s="162"/>
+      <c r="G37" s="163"/>
+      <c r="H37" s="88" t="s">
         <v>39</v>
       </c>
-      <c r="I37" s="157"/>
-      <c r="J37" s="158"/>
+      <c r="I37" s="89"/>
+      <c r="J37" s="90"/>
       <c r="K37" s="47" t="s">
         <v>48</v>
       </c>
@@ -4621,15 +4621,15 @@
       </c>
     </row>
     <row r="38" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="B38" s="159"/>
-      <c r="C38" s="160"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="160"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="161"/>
-      <c r="H38" s="162"/>
-      <c r="I38" s="163"/>
-      <c r="J38" s="164"/>
+      <c r="B38" s="164"/>
+      <c r="C38" s="165"/>
+      <c r="D38" s="165"/>
+      <c r="E38" s="165"/>
+      <c r="F38" s="165"/>
+      <c r="G38" s="166"/>
+      <c r="H38" s="167"/>
+      <c r="I38" s="168"/>
+      <c r="J38" s="169"/>
       <c r="K38" s="49"/>
       <c r="L38" s="50"/>
       <c r="M38" s="51"/>
@@ -4640,15 +4640,15 @@
     </row>
     <row r="39" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A39" s="53"/>
-      <c r="B39" s="137"/>
-      <c r="C39" s="138"/>
-      <c r="D39" s="138"/>
-      <c r="E39" s="138"/>
-      <c r="F39" s="138"/>
-      <c r="G39" s="139"/>
-      <c r="H39" s="143"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="145"/>
+      <c r="B39" s="151"/>
+      <c r="C39" s="152"/>
+      <c r="D39" s="152"/>
+      <c r="E39" s="152"/>
+      <c r="F39" s="152"/>
+      <c r="G39" s="153"/>
+      <c r="H39" s="154"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="156"/>
       <c r="K39" s="54"/>
       <c r="L39" s="55"/>
       <c r="M39" s="56"/>
@@ -4659,15 +4659,15 @@
     </row>
     <row r="40" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A40" s="53"/>
-      <c r="B40" s="137"/>
-      <c r="C40" s="138"/>
-      <c r="D40" s="138"/>
-      <c r="E40" s="138"/>
-      <c r="F40" s="138"/>
-      <c r="G40" s="139"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="144"/>
-      <c r="J40" s="145"/>
+      <c r="B40" s="151"/>
+      <c r="C40" s="152"/>
+      <c r="D40" s="152"/>
+      <c r="E40" s="152"/>
+      <c r="F40" s="152"/>
+      <c r="G40" s="153"/>
+      <c r="H40" s="154"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="156"/>
       <c r="K40" s="54"/>
       <c r="L40" s="55"/>
       <c r="M40" s="56"/>
@@ -4678,15 +4678,15 @@
     </row>
     <row r="41" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A41" s="53"/>
-      <c r="B41" s="137"/>
-      <c r="C41" s="138"/>
-      <c r="D41" s="138"/>
-      <c r="E41" s="138"/>
-      <c r="F41" s="138"/>
-      <c r="G41" s="139"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="144"/>
-      <c r="J41" s="145"/>
+      <c r="B41" s="151"/>
+      <c r="C41" s="152"/>
+      <c r="D41" s="152"/>
+      <c r="E41" s="152"/>
+      <c r="F41" s="152"/>
+      <c r="G41" s="153"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="156"/>
       <c r="K41" s="54"/>
       <c r="L41" s="55"/>
       <c r="M41" s="56"/>
@@ -4697,15 +4697,15 @@
     </row>
     <row r="42" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A42" s="53"/>
-      <c r="B42" s="137"/>
-      <c r="C42" s="138"/>
-      <c r="D42" s="138"/>
-      <c r="E42" s="138"/>
-      <c r="F42" s="138"/>
-      <c r="G42" s="139"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="144"/>
-      <c r="J42" s="145"/>
+      <c r="B42" s="151"/>
+      <c r="C42" s="152"/>
+      <c r="D42" s="152"/>
+      <c r="E42" s="152"/>
+      <c r="F42" s="152"/>
+      <c r="G42" s="153"/>
+      <c r="H42" s="154"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="156"/>
       <c r="K42" s="54"/>
       <c r="L42" s="55"/>
       <c r="M42" s="56"/>
@@ -4716,15 +4716,15 @@
     </row>
     <row r="43" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A43" s="53"/>
-      <c r="B43" s="137"/>
-      <c r="C43" s="138"/>
-      <c r="D43" s="138"/>
-      <c r="E43" s="138"/>
-      <c r="F43" s="138"/>
-      <c r="G43" s="139"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="144"/>
-      <c r="J43" s="145"/>
+      <c r="B43" s="151"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="152"/>
+      <c r="E43" s="152"/>
+      <c r="F43" s="152"/>
+      <c r="G43" s="153"/>
+      <c r="H43" s="154"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="156"/>
       <c r="K43" s="54"/>
       <c r="L43" s="55"/>
       <c r="M43" s="56"/>
@@ -4735,15 +4735,15 @@
     </row>
     <row r="44" spans="1:17" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A44" s="57"/>
-      <c r="B44" s="137"/>
-      <c r="C44" s="138"/>
-      <c r="D44" s="138"/>
-      <c r="E44" s="138"/>
-      <c r="F44" s="138"/>
-      <c r="G44" s="139"/>
-      <c r="H44" s="165"/>
-      <c r="I44" s="166"/>
-      <c r="J44" s="167"/>
+      <c r="B44" s="151"/>
+      <c r="C44" s="152"/>
+      <c r="D44" s="152"/>
+      <c r="E44" s="152"/>
+      <c r="F44" s="152"/>
+      <c r="G44" s="153"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="158"/>
+      <c r="J44" s="159"/>
       <c r="K44" s="58"/>
       <c r="L44" s="55"/>
       <c r="M44" s="56"/>
@@ -4753,21 +4753,21 @@
       </c>
     </row>
     <row r="45" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="100" t="s">
+      <c r="A45" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="102"/>
+      <c r="B45" s="140"/>
+      <c r="C45" s="140"/>
+      <c r="D45" s="140"/>
+      <c r="E45" s="140"/>
+      <c r="F45" s="140"/>
+      <c r="G45" s="140"/>
+      <c r="H45" s="140"/>
+      <c r="I45" s="140"/>
+      <c r="J45" s="140"/>
+      <c r="K45" s="140"/>
+      <c r="L45" s="140"/>
+      <c r="M45" s="141"/>
       <c r="N45" s="29">
         <f>SUM(H38,H39,H40,H41,H43,H44,N38,N39,N40,N41,N43,N44)</f>
         <v>0</v>
@@ -4780,52 +4780,52 @@
       </c>
     </row>
     <row r="48" spans="1:17" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A48" s="168" t="s">
+      <c r="A48" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="B48" s="168"/>
-      <c r="C48" s="168"/>
-      <c r="D48" s="168"/>
-      <c r="E48" s="168"/>
-      <c r="F48" s="168"/>
-      <c r="G48" s="168"/>
-      <c r="H48" s="168"/>
-      <c r="I48" s="168"/>
-      <c r="J48" s="168"/>
-      <c r="K48" s="168"/>
-      <c r="L48" s="168"/>
-      <c r="M48" s="168"/>
-      <c r="N48" s="168"/>
+      <c r="B48" s="118"/>
+      <c r="C48" s="118"/>
+      <c r="D48" s="118"/>
+      <c r="E48" s="118"/>
+      <c r="F48" s="118"/>
+      <c r="G48" s="118"/>
+      <c r="H48" s="118"/>
+      <c r="I48" s="118"/>
+      <c r="J48" s="118"/>
+      <c r="K48" s="118"/>
+      <c r="L48" s="118"/>
+      <c r="M48" s="118"/>
+      <c r="N48" s="118"/>
     </row>
     <row r="49" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A49" s="169" t="s">
+      <c r="A49" s="142" t="s">
         <v>62</v>
       </c>
-      <c r="B49" s="170"/>
-      <c r="C49" s="171" t="s">
+      <c r="B49" s="143"/>
+      <c r="C49" s="144" t="s">
         <v>63</v>
       </c>
-      <c r="D49" s="171" t="s">
+      <c r="D49" s="144" t="s">
         <v>64</v>
       </c>
-      <c r="E49" s="171" t="s">
+      <c r="E49" s="144" t="s">
         <v>65</v>
       </c>
-      <c r="F49" s="171" t="s">
+      <c r="F49" s="144" t="s">
         <v>66</v>
       </c>
-      <c r="G49" s="173" t="s">
+      <c r="G49" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="H49" s="175" t="s">
+      <c r="H49" s="147" t="s">
         <v>68</v>
       </c>
-      <c r="I49" s="176"/>
-      <c r="J49" s="176"/>
-      <c r="K49" s="176"/>
-      <c r="L49" s="176"/>
-      <c r="M49" s="176"/>
-      <c r="N49" s="177"/>
+      <c r="I49" s="148"/>
+      <c r="J49" s="148"/>
+      <c r="K49" s="148"/>
+      <c r="L49" s="148"/>
+      <c r="M49" s="148"/>
+      <c r="N49" s="149"/>
     </row>
     <row r="50" spans="1:19" s="1" customFormat="1" ht="16.5" customHeight="1">
       <c r="A50" s="61" t="s">
@@ -4834,23 +4834,23 @@
       <c r="B50" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="C50" s="172"/>
-      <c r="D50" s="172"/>
-      <c r="E50" s="172"/>
-      <c r="F50" s="172"/>
-      <c r="G50" s="174"/>
+      <c r="C50" s="101"/>
+      <c r="D50" s="101"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="146"/>
       <c r="H50" s="63" t="s">
         <v>46</v>
       </c>
-      <c r="I50" s="156" t="s">
+      <c r="I50" s="88" t="s">
         <v>71</v>
       </c>
-      <c r="J50" s="157"/>
-      <c r="K50" s="158"/>
-      <c r="L50" s="178" t="s">
+      <c r="J50" s="89"/>
+      <c r="K50" s="90"/>
+      <c r="L50" s="150" t="s">
         <v>72</v>
       </c>
-      <c r="M50" s="178"/>
+      <c r="M50" s="150"/>
       <c r="N50" s="64" t="s">
         <v>73</v>
       </c>
@@ -4864,18 +4864,18 @@
       <c r="D51" s="67"/>
       <c r="E51" s="67"/>
       <c r="F51" s="67"/>
-      <c r="G51" s="179"/>
+      <c r="G51" s="126"/>
       <c r="H51" s="68"/>
-      <c r="I51" s="182"/>
-      <c r="J51" s="182"/>
-      <c r="K51" s="182"/>
-      <c r="L51" s="183"/>
-      <c r="M51" s="184"/>
+      <c r="I51" s="129"/>
+      <c r="J51" s="129"/>
+      <c r="K51" s="129"/>
+      <c r="L51" s="130"/>
+      <c r="M51" s="131"/>
       <c r="N51" s="69"/>
-      <c r="P51" s="185" t="s">
+      <c r="P51" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="Q51" s="108"/>
+      <c r="Q51" s="94"/>
     </row>
     <row r="52" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="65" t="s">
@@ -4886,16 +4886,16 @@
       <c r="D52" s="71"/>
       <c r="E52" s="71"/>
       <c r="F52" s="71"/>
-      <c r="G52" s="180"/>
+      <c r="G52" s="127"/>
       <c r="H52" s="72"/>
-      <c r="I52" s="186"/>
-      <c r="J52" s="186"/>
-      <c r="K52" s="186"/>
-      <c r="L52" s="187"/>
-      <c r="M52" s="188"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="134"/>
+      <c r="M52" s="135"/>
       <c r="N52" s="73"/>
-      <c r="P52" s="108"/>
-      <c r="Q52" s="108"/>
+      <c r="P52" s="94"/>
+      <c r="Q52" s="94"/>
     </row>
     <row r="53" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A53" s="65" t="s">
@@ -4906,16 +4906,16 @@
       <c r="D53" s="71"/>
       <c r="E53" s="71"/>
       <c r="F53" s="71"/>
-      <c r="G53" s="180"/>
+      <c r="G53" s="127"/>
       <c r="H53" s="72"/>
-      <c r="I53" s="186"/>
-      <c r="J53" s="186"/>
-      <c r="K53" s="186"/>
-      <c r="L53" s="187"/>
-      <c r="M53" s="188"/>
+      <c r="I53" s="133"/>
+      <c r="J53" s="133"/>
+      <c r="K53" s="133"/>
+      <c r="L53" s="134"/>
+      <c r="M53" s="135"/>
       <c r="N53" s="73"/>
-      <c r="P53" s="108"/>
-      <c r="Q53" s="108"/>
+      <c r="P53" s="94"/>
+      <c r="Q53" s="94"/>
     </row>
     <row r="54" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A54" s="65" t="s">
@@ -4926,16 +4926,16 @@
       <c r="D54" s="71"/>
       <c r="E54" s="71"/>
       <c r="F54" s="71"/>
-      <c r="G54" s="180"/>
+      <c r="G54" s="127"/>
       <c r="H54" s="72"/>
-      <c r="I54" s="186"/>
-      <c r="J54" s="186"/>
-      <c r="K54" s="186"/>
-      <c r="L54" s="187"/>
-      <c r="M54" s="188"/>
+      <c r="I54" s="133"/>
+      <c r="J54" s="133"/>
+      <c r="K54" s="133"/>
+      <c r="L54" s="134"/>
+      <c r="M54" s="135"/>
       <c r="N54" s="73"/>
-      <c r="P54" s="108"/>
-      <c r="Q54" s="108"/>
+      <c r="P54" s="94"/>
+      <c r="Q54" s="94"/>
     </row>
     <row r="55" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="A55" s="65" t="s">
@@ -4946,16 +4946,16 @@
       <c r="D55" s="71"/>
       <c r="E55" s="71"/>
       <c r="F55" s="71"/>
-      <c r="G55" s="180"/>
+      <c r="G55" s="127"/>
       <c r="H55" s="72"/>
-      <c r="I55" s="186"/>
-      <c r="J55" s="186"/>
-      <c r="K55" s="186"/>
-      <c r="L55" s="187"/>
-      <c r="M55" s="188"/>
+      <c r="I55" s="133"/>
+      <c r="J55" s="133"/>
+      <c r="K55" s="133"/>
+      <c r="L55" s="134"/>
+      <c r="M55" s="135"/>
       <c r="N55" s="73"/>
-      <c r="P55" s="108"/>
-      <c r="Q55" s="108"/>
+      <c r="P55" s="94"/>
+      <c r="Q55" s="94"/>
     </row>
     <row r="56" spans="1:19" s="1" customFormat="1">
       <c r="A56" s="65" t="s">
@@ -4966,16 +4966,16 @@
       <c r="D56" s="71"/>
       <c r="E56" s="71"/>
       <c r="F56" s="71"/>
-      <c r="G56" s="181"/>
+      <c r="G56" s="128"/>
       <c r="H56" s="75"/>
-      <c r="I56" s="189"/>
-      <c r="J56" s="189"/>
-      <c r="K56" s="189"/>
-      <c r="L56" s="190"/>
-      <c r="M56" s="191"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="136"/>
+      <c r="L56" s="137"/>
+      <c r="M56" s="138"/>
       <c r="N56" s="76"/>
-      <c r="P56" s="108"/>
-      <c r="Q56" s="108"/>
+      <c r="P56" s="94"/>
+      <c r="Q56" s="94"/>
     </row>
     <row r="57" spans="1:19" s="1" customFormat="1" ht="14.25" customHeight="1">
       <c r="A57" s="77" t="s">
@@ -5003,16 +5003,16 @@
       <c r="G57" s="79">
         <v>0</v>
       </c>
-      <c r="H57" s="199" t="s">
+      <c r="H57" s="113" t="s">
         <v>82</v>
       </c>
-      <c r="I57" s="200"/>
-      <c r="J57" s="200"/>
-      <c r="K57" s="201"/>
-      <c r="L57" s="202">
+      <c r="I57" s="114"/>
+      <c r="J57" s="114"/>
+      <c r="K57" s="115"/>
+      <c r="L57" s="116">
         <v>0</v>
       </c>
-      <c r="M57" s="203"/>
+      <c r="M57" s="117"/>
       <c r="N57" s="80">
         <f>L57*3</f>
         <v>0</v>
@@ -5020,57 +5020,57 @@
     </row>
     <row r="58" spans="1:19" s="1" customFormat="1"/>
     <row r="59" spans="1:19" s="1" customFormat="1">
-      <c r="A59" s="168" t="s">
+      <c r="A59" s="118" t="s">
         <v>83</v>
       </c>
-      <c r="B59" s="168"/>
-      <c r="C59" s="168"/>
-      <c r="D59" s="168"/>
-      <c r="E59" s="168"/>
-      <c r="F59" s="168"/>
-      <c r="G59" s="168"/>
-      <c r="H59" s="168"/>
-      <c r="I59" s="168"/>
-      <c r="J59" s="168"/>
-      <c r="K59" s="168"/>
-      <c r="L59" s="168"/>
-      <c r="M59" s="168"/>
-      <c r="N59" s="168"/>
+      <c r="B59" s="118"/>
+      <c r="C59" s="118"/>
+      <c r="D59" s="118"/>
+      <c r="E59" s="118"/>
+      <c r="F59" s="118"/>
+      <c r="G59" s="118"/>
+      <c r="H59" s="118"/>
+      <c r="I59" s="118"/>
+      <c r="J59" s="118"/>
+      <c r="K59" s="118"/>
+      <c r="L59" s="118"/>
+      <c r="M59" s="118"/>
+      <c r="N59" s="118"/>
     </row>
     <row r="60" spans="1:19" s="1" customFormat="1">
-      <c r="A60" s="172" t="s">
+      <c r="A60" s="101" t="s">
         <v>84</v>
       </c>
-      <c r="B60" s="204" t="s">
+      <c r="B60" s="119" t="s">
         <v>85</v>
       </c>
-      <c r="C60" s="205"/>
-      <c r="D60" s="205"/>
-      <c r="E60" s="205"/>
-      <c r="F60" s="205"/>
-      <c r="G60" s="205"/>
-      <c r="H60" s="205"/>
-      <c r="I60" s="205"/>
-      <c r="J60" s="205"/>
-      <c r="K60" s="206"/>
-      <c r="L60" s="156" t="s">
+      <c r="C60" s="120"/>
+      <c r="D60" s="120"/>
+      <c r="E60" s="120"/>
+      <c r="F60" s="120"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="120"/>
+      <c r="I60" s="120"/>
+      <c r="J60" s="120"/>
+      <c r="K60" s="121"/>
+      <c r="L60" s="88" t="s">
         <v>86</v>
       </c>
-      <c r="M60" s="157"/>
-      <c r="N60" s="158"/>
+      <c r="M60" s="89"/>
+      <c r="N60" s="90"/>
     </row>
     <row r="61" spans="1:19" s="1" customFormat="1">
-      <c r="A61" s="172"/>
-      <c r="B61" s="207"/>
-      <c r="C61" s="208"/>
-      <c r="D61" s="208"/>
-      <c r="E61" s="208"/>
-      <c r="F61" s="208"/>
-      <c r="G61" s="208"/>
-      <c r="H61" s="208"/>
-      <c r="I61" s="208"/>
-      <c r="J61" s="208"/>
-      <c r="K61" s="209"/>
+      <c r="A61" s="101"/>
+      <c r="B61" s="122"/>
+      <c r="C61" s="123"/>
+      <c r="D61" s="123"/>
+      <c r="E61" s="123"/>
+      <c r="F61" s="123"/>
+      <c r="G61" s="123"/>
+      <c r="H61" s="123"/>
+      <c r="I61" s="123"/>
+      <c r="J61" s="123"/>
+      <c r="K61" s="124"/>
       <c r="L61" s="61" t="s">
         <v>46</v>
       </c>
@@ -5082,697 +5082,827 @@
       </c>
     </row>
     <row r="62" spans="1:19" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A62" s="172" t="s">
+      <c r="A62" s="101" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="210" t="s">
+      <c r="B62" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="C62" s="211"/>
-      <c r="D62" s="211"/>
-      <c r="E62" s="211"/>
-      <c r="F62" s="211"/>
-      <c r="G62" s="211"/>
-      <c r="H62" s="211"/>
-      <c r="I62" s="211"/>
-      <c r="J62" s="211"/>
-      <c r="K62" s="212"/>
+      <c r="C62" s="97"/>
+      <c r="D62" s="97"/>
+      <c r="E62" s="97"/>
+      <c r="F62" s="97"/>
+      <c r="G62" s="97"/>
+      <c r="H62" s="97"/>
+      <c r="I62" s="97"/>
+      <c r="J62" s="97"/>
+      <c r="K62" s="98"/>
       <c r="L62" s="81" t="s">
         <v>91</v>
       </c>
       <c r="M62" s="82"/>
-      <c r="N62" s="214">
+      <c r="N62" s="125">
         <f>IF(ISERROR(AVERAGE(M63:M64)),0,ROUNDUP(AVERAGE(M63:M64), 1))</f>
         <v>0</v>
       </c>
-      <c r="P62" s="198" t="s">
+      <c r="P62" s="93" t="s">
         <v>92</v>
       </c>
-      <c r="Q62" s="108"/>
-      <c r="R62" s="108"/>
-      <c r="S62" s="108"/>
+      <c r="Q62" s="94"/>
+      <c r="R62" s="94"/>
+      <c r="S62" s="94"/>
     </row>
     <row r="63" spans="1:19" s="1" customFormat="1">
-      <c r="A63" s="172"/>
-      <c r="B63" s="213"/>
-      <c r="C63" s="211"/>
-      <c r="D63" s="211"/>
-      <c r="E63" s="211"/>
-      <c r="F63" s="211"/>
-      <c r="G63" s="211"/>
-      <c r="H63" s="211"/>
-      <c r="I63" s="211"/>
-      <c r="J63" s="211"/>
-      <c r="K63" s="212"/>
+      <c r="A63" s="101"/>
+      <c r="B63" s="99"/>
+      <c r="C63" s="97"/>
+      <c r="D63" s="97"/>
+      <c r="E63" s="97"/>
+      <c r="F63" s="97"/>
+      <c r="G63" s="97"/>
+      <c r="H63" s="97"/>
+      <c r="I63" s="97"/>
+      <c r="J63" s="97"/>
+      <c r="K63" s="98"/>
       <c r="L63" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M63" s="84"/>
-      <c r="N63" s="90"/>
-      <c r="P63" s="108"/>
-      <c r="Q63" s="108"/>
-      <c r="R63" s="108"/>
-      <c r="S63" s="108"/>
+      <c r="N63" s="100"/>
+      <c r="P63" s="94"/>
+      <c r="Q63" s="94"/>
+      <c r="R63" s="94"/>
+      <c r="S63" s="94"/>
     </row>
     <row r="64" spans="1:19" s="1" customFormat="1">
-      <c r="A64" s="172"/>
-      <c r="B64" s="213"/>
-      <c r="C64" s="211"/>
-      <c r="D64" s="211"/>
-      <c r="E64" s="211"/>
-      <c r="F64" s="211"/>
-      <c r="G64" s="211"/>
-      <c r="H64" s="211"/>
-      <c r="I64" s="211"/>
-      <c r="J64" s="211"/>
-      <c r="K64" s="212"/>
+      <c r="A64" s="101"/>
+      <c r="B64" s="99"/>
+      <c r="C64" s="97"/>
+      <c r="D64" s="97"/>
+      <c r="E64" s="97"/>
+      <c r="F64" s="97"/>
+      <c r="G64" s="97"/>
+      <c r="H64" s="97"/>
+      <c r="I64" s="97"/>
+      <c r="J64" s="97"/>
+      <c r="K64" s="98"/>
       <c r="L64" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M64" s="86"/>
-      <c r="N64" s="90"/>
-      <c r="P64" s="108"/>
-      <c r="Q64" s="108"/>
-      <c r="R64" s="108"/>
-      <c r="S64" s="108"/>
+      <c r="N64" s="100"/>
+      <c r="P64" s="94"/>
+      <c r="Q64" s="94"/>
+      <c r="R64" s="94"/>
+      <c r="S64" s="94"/>
     </row>
     <row r="65" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A65" s="172"/>
-      <c r="B65" s="210" t="s">
+      <c r="A65" s="101"/>
+      <c r="B65" s="96" t="s">
         <v>95</v>
       </c>
-      <c r="C65" s="211"/>
-      <c r="D65" s="211"/>
-      <c r="E65" s="211"/>
-      <c r="F65" s="211"/>
-      <c r="G65" s="211"/>
-      <c r="H65" s="211"/>
-      <c r="I65" s="211"/>
-      <c r="J65" s="211"/>
-      <c r="K65" s="212"/>
+      <c r="C65" s="97"/>
+      <c r="D65" s="97"/>
+      <c r="E65" s="97"/>
+      <c r="F65" s="97"/>
+      <c r="G65" s="97"/>
+      <c r="H65" s="97"/>
+      <c r="I65" s="97"/>
+      <c r="J65" s="97"/>
+      <c r="K65" s="98"/>
       <c r="L65" s="83" t="s">
         <v>91</v>
       </c>
       <c r="M65" s="82"/>
-      <c r="N65" s="90">
+      <c r="N65" s="100">
         <f>IF(ISERROR(AVERAGE(M66:M67)),0,ROUNDUP(AVERAGE(M66:M67), 1))</f>
         <v>0</v>
       </c>
-      <c r="P65" s="198" t="s">
+      <c r="P65" s="93" t="s">
         <v>96</v>
       </c>
-      <c r="Q65" s="108"/>
-      <c r="R65" s="108"/>
-      <c r="S65" s="217"/>
+      <c r="Q65" s="94"/>
+      <c r="R65" s="94"/>
+      <c r="S65" s="95"/>
     </row>
     <row r="66" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A66" s="172"/>
-      <c r="B66" s="213"/>
-      <c r="C66" s="211"/>
-      <c r="D66" s="211"/>
-      <c r="E66" s="211"/>
-      <c r="F66" s="211"/>
-      <c r="G66" s="211"/>
-      <c r="H66" s="211"/>
-      <c r="I66" s="211"/>
-      <c r="J66" s="211"/>
-      <c r="K66" s="212"/>
+      <c r="A66" s="101"/>
+      <c r="B66" s="99"/>
+      <c r="C66" s="97"/>
+      <c r="D66" s="97"/>
+      <c r="E66" s="97"/>
+      <c r="F66" s="97"/>
+      <c r="G66" s="97"/>
+      <c r="H66" s="97"/>
+      <c r="I66" s="97"/>
+      <c r="J66" s="97"/>
+      <c r="K66" s="98"/>
       <c r="L66" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M66" s="84"/>
-      <c r="N66" s="90"/>
-      <c r="P66" s="108"/>
-      <c r="Q66" s="108"/>
-      <c r="R66" s="108"/>
-      <c r="S66" s="217"/>
+      <c r="N66" s="100"/>
+      <c r="P66" s="94"/>
+      <c r="Q66" s="94"/>
+      <c r="R66" s="94"/>
+      <c r="S66" s="95"/>
     </row>
     <row r="67" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A67" s="172"/>
-      <c r="B67" s="213"/>
-      <c r="C67" s="211"/>
-      <c r="D67" s="211"/>
-      <c r="E67" s="211"/>
-      <c r="F67" s="211"/>
-      <c r="G67" s="211"/>
-      <c r="H67" s="211"/>
-      <c r="I67" s="211"/>
-      <c r="J67" s="211"/>
-      <c r="K67" s="212"/>
+      <c r="A67" s="101"/>
+      <c r="B67" s="99"/>
+      <c r="C67" s="97"/>
+      <c r="D67" s="97"/>
+      <c r="E67" s="97"/>
+      <c r="F67" s="97"/>
+      <c r="G67" s="97"/>
+      <c r="H67" s="97"/>
+      <c r="I67" s="97"/>
+      <c r="J67" s="97"/>
+      <c r="K67" s="98"/>
       <c r="L67" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M67" s="86"/>
-      <c r="N67" s="90"/>
-      <c r="P67" s="108"/>
-      <c r="Q67" s="108"/>
-      <c r="R67" s="108"/>
-      <c r="S67" s="217"/>
+      <c r="N67" s="100"/>
+      <c r="P67" s="94"/>
+      <c r="Q67" s="94"/>
+      <c r="R67" s="94"/>
+      <c r="S67" s="95"/>
     </row>
     <row r="68" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A68" s="172" t="s">
+      <c r="A68" s="101" t="s">
         <v>97</v>
       </c>
-      <c r="B68" s="210" t="s">
+      <c r="B68" s="96" t="s">
         <v>98</v>
       </c>
-      <c r="C68" s="211"/>
-      <c r="D68" s="211"/>
-      <c r="E68" s="211"/>
-      <c r="F68" s="211"/>
-      <c r="G68" s="211"/>
-      <c r="H68" s="211"/>
-      <c r="I68" s="211"/>
-      <c r="J68" s="211"/>
-      <c r="K68" s="212"/>
+      <c r="C68" s="97"/>
+      <c r="D68" s="97"/>
+      <c r="E68" s="97"/>
+      <c r="F68" s="97"/>
+      <c r="G68" s="97"/>
+      <c r="H68" s="97"/>
+      <c r="I68" s="97"/>
+      <c r="J68" s="97"/>
+      <c r="K68" s="98"/>
       <c r="L68" s="81" t="s">
         <v>91</v>
       </c>
       <c r="M68" s="82"/>
-      <c r="N68" s="90">
+      <c r="N68" s="100">
         <f>IF(ISERROR(AVERAGE(M69:M70)),0,ROUNDUP(AVERAGE(M69:M70), 1))</f>
         <v>0</v>
       </c>
-      <c r="P68" s="198" t="s">
+      <c r="P68" s="93" t="s">
         <v>99</v>
       </c>
-      <c r="Q68" s="108"/>
-      <c r="R68" s="108"/>
-      <c r="S68" s="217"/>
+      <c r="Q68" s="94"/>
+      <c r="R68" s="94"/>
+      <c r="S68" s="95"/>
     </row>
     <row r="69" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A69" s="172"/>
-      <c r="B69" s="213"/>
-      <c r="C69" s="211"/>
-      <c r="D69" s="211"/>
-      <c r="E69" s="211"/>
-      <c r="F69" s="211"/>
-      <c r="G69" s="211"/>
-      <c r="H69" s="211"/>
-      <c r="I69" s="211"/>
-      <c r="J69" s="211"/>
-      <c r="K69" s="212"/>
+      <c r="A69" s="101"/>
+      <c r="B69" s="99"/>
+      <c r="C69" s="97"/>
+      <c r="D69" s="97"/>
+      <c r="E69" s="97"/>
+      <c r="F69" s="97"/>
+      <c r="G69" s="97"/>
+      <c r="H69" s="97"/>
+      <c r="I69" s="97"/>
+      <c r="J69" s="97"/>
+      <c r="K69" s="98"/>
       <c r="L69" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M69" s="84"/>
-      <c r="N69" s="90"/>
-      <c r="P69" s="108"/>
-      <c r="Q69" s="108"/>
-      <c r="R69" s="108"/>
-      <c r="S69" s="217"/>
+      <c r="N69" s="100"/>
+      <c r="P69" s="94"/>
+      <c r="Q69" s="94"/>
+      <c r="R69" s="94"/>
+      <c r="S69" s="95"/>
     </row>
     <row r="70" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A70" s="172"/>
-      <c r="B70" s="213"/>
-      <c r="C70" s="211"/>
-      <c r="D70" s="211"/>
-      <c r="E70" s="211"/>
-      <c r="F70" s="211"/>
-      <c r="G70" s="211"/>
-      <c r="H70" s="211"/>
-      <c r="I70" s="211"/>
-      <c r="J70" s="211"/>
-      <c r="K70" s="212"/>
+      <c r="A70" s="101"/>
+      <c r="B70" s="99"/>
+      <c r="C70" s="97"/>
+      <c r="D70" s="97"/>
+      <c r="E70" s="97"/>
+      <c r="F70" s="97"/>
+      <c r="G70" s="97"/>
+      <c r="H70" s="97"/>
+      <c r="I70" s="97"/>
+      <c r="J70" s="97"/>
+      <c r="K70" s="98"/>
       <c r="L70" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M70" s="86"/>
-      <c r="N70" s="90"/>
-      <c r="P70" s="108"/>
-      <c r="Q70" s="108"/>
-      <c r="R70" s="108"/>
-      <c r="S70" s="217"/>
+      <c r="N70" s="100"/>
+      <c r="P70" s="94"/>
+      <c r="Q70" s="94"/>
+      <c r="R70" s="94"/>
+      <c r="S70" s="95"/>
     </row>
     <row r="71" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A71" s="172"/>
-      <c r="B71" s="210" t="s">
+      <c r="A71" s="101"/>
+      <c r="B71" s="96" t="s">
         <v>100</v>
       </c>
-      <c r="C71" s="211"/>
-      <c r="D71" s="211"/>
-      <c r="E71" s="211"/>
-      <c r="F71" s="211"/>
-      <c r="G71" s="211"/>
-      <c r="H71" s="211"/>
-      <c r="I71" s="211"/>
-      <c r="J71" s="211"/>
-      <c r="K71" s="212"/>
+      <c r="C71" s="97"/>
+      <c r="D71" s="97"/>
+      <c r="E71" s="97"/>
+      <c r="F71" s="97"/>
+      <c r="G71" s="97"/>
+      <c r="H71" s="97"/>
+      <c r="I71" s="97"/>
+      <c r="J71" s="97"/>
+      <c r="K71" s="98"/>
       <c r="L71" s="83" t="s">
         <v>91</v>
       </c>
       <c r="M71" s="82"/>
-      <c r="N71" s="90">
+      <c r="N71" s="100">
         <f>IF(ISERROR(AVERAGE(M72:M73)),0,ROUNDUP(AVERAGE(M72:M73), 1))</f>
         <v>0</v>
       </c>
-      <c r="P71" s="198" t="s">
+      <c r="P71" s="93" t="s">
         <v>101</v>
       </c>
-      <c r="Q71" s="108"/>
-      <c r="R71" s="108"/>
-      <c r="S71" s="217"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="95"/>
     </row>
     <row r="72" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A72" s="172"/>
-      <c r="B72" s="213"/>
-      <c r="C72" s="211"/>
-      <c r="D72" s="211"/>
-      <c r="E72" s="211"/>
-      <c r="F72" s="211"/>
-      <c r="G72" s="211"/>
-      <c r="H72" s="211"/>
-      <c r="I72" s="211"/>
-      <c r="J72" s="211"/>
-      <c r="K72" s="212"/>
+      <c r="A72" s="101"/>
+      <c r="B72" s="99"/>
+      <c r="C72" s="97"/>
+      <c r="D72" s="97"/>
+      <c r="E72" s="97"/>
+      <c r="F72" s="97"/>
+      <c r="G72" s="97"/>
+      <c r="H72" s="97"/>
+      <c r="I72" s="97"/>
+      <c r="J72" s="97"/>
+      <c r="K72" s="98"/>
       <c r="L72" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M72" s="84"/>
-      <c r="N72" s="90"/>
-      <c r="P72" s="108"/>
-      <c r="Q72" s="108"/>
-      <c r="R72" s="108"/>
-      <c r="S72" s="217"/>
+      <c r="N72" s="100"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="95"/>
     </row>
     <row r="73" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A73" s="172"/>
-      <c r="B73" s="213"/>
-      <c r="C73" s="211"/>
-      <c r="D73" s="211"/>
-      <c r="E73" s="211"/>
-      <c r="F73" s="211"/>
-      <c r="G73" s="211"/>
-      <c r="H73" s="211"/>
-      <c r="I73" s="211"/>
-      <c r="J73" s="211"/>
-      <c r="K73" s="212"/>
+      <c r="A73" s="101"/>
+      <c r="B73" s="99"/>
+      <c r="C73" s="97"/>
+      <c r="D73" s="97"/>
+      <c r="E73" s="97"/>
+      <c r="F73" s="97"/>
+      <c r="G73" s="97"/>
+      <c r="H73" s="97"/>
+      <c r="I73" s="97"/>
+      <c r="J73" s="97"/>
+      <c r="K73" s="98"/>
       <c r="L73" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M73" s="86"/>
-      <c r="N73" s="90"/>
-      <c r="P73" s="108"/>
-      <c r="Q73" s="108"/>
-      <c r="R73" s="108"/>
-      <c r="S73" s="217"/>
+      <c r="N73" s="100"/>
+      <c r="P73" s="94"/>
+      <c r="Q73" s="94"/>
+      <c r="R73" s="94"/>
+      <c r="S73" s="95"/>
     </row>
     <row r="74" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A74" s="172"/>
-      <c r="B74" s="210" t="s">
+      <c r="A74" s="101"/>
+      <c r="B74" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="C74" s="218"/>
-      <c r="D74" s="218"/>
-      <c r="E74" s="218"/>
-      <c r="F74" s="218"/>
-      <c r="G74" s="218"/>
-      <c r="H74" s="218"/>
-      <c r="I74" s="218"/>
-      <c r="J74" s="218"/>
-      <c r="K74" s="219"/>
+      <c r="C74" s="102"/>
+      <c r="D74" s="102"/>
+      <c r="E74" s="102"/>
+      <c r="F74" s="102"/>
+      <c r="G74" s="102"/>
+      <c r="H74" s="102"/>
+      <c r="I74" s="102"/>
+      <c r="J74" s="102"/>
+      <c r="K74" s="103"/>
       <c r="L74" s="83" t="s">
         <v>91</v>
       </c>
       <c r="M74" s="82"/>
-      <c r="N74" s="90">
+      <c r="N74" s="100">
         <f>IF(ISERROR(AVERAGE(M75:M76)),0,ROUNDUP(AVERAGE(M75:M76), 1))</f>
         <v>0</v>
       </c>
-      <c r="P74" s="198" t="s">
+      <c r="P74" s="93" t="s">
         <v>103</v>
       </c>
-      <c r="Q74" s="108"/>
-      <c r="R74" s="108"/>
-      <c r="S74" s="217"/>
+      <c r="Q74" s="94"/>
+      <c r="R74" s="94"/>
+      <c r="S74" s="95"/>
     </row>
     <row r="75" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A75" s="172"/>
-      <c r="B75" s="220"/>
-      <c r="C75" s="218"/>
-      <c r="D75" s="218"/>
-      <c r="E75" s="218"/>
-      <c r="F75" s="218"/>
-      <c r="G75" s="218"/>
-      <c r="H75" s="218"/>
-      <c r="I75" s="218"/>
-      <c r="J75" s="218"/>
-      <c r="K75" s="219"/>
+      <c r="A75" s="101"/>
+      <c r="B75" s="104"/>
+      <c r="C75" s="102"/>
+      <c r="D75" s="102"/>
+      <c r="E75" s="102"/>
+      <c r="F75" s="102"/>
+      <c r="G75" s="102"/>
+      <c r="H75" s="102"/>
+      <c r="I75" s="102"/>
+      <c r="J75" s="102"/>
+      <c r="K75" s="103"/>
       <c r="L75" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M75" s="84"/>
-      <c r="N75" s="90"/>
-      <c r="P75" s="108"/>
-      <c r="Q75" s="108"/>
-      <c r="R75" s="108"/>
-      <c r="S75" s="217"/>
+      <c r="N75" s="100"/>
+      <c r="P75" s="94"/>
+      <c r="Q75" s="94"/>
+      <c r="R75" s="94"/>
+      <c r="S75" s="95"/>
     </row>
     <row r="76" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A76" s="172"/>
-      <c r="B76" s="220"/>
-      <c r="C76" s="218"/>
-      <c r="D76" s="218"/>
-      <c r="E76" s="218"/>
-      <c r="F76" s="218"/>
-      <c r="G76" s="218"/>
-      <c r="H76" s="218"/>
-      <c r="I76" s="218"/>
-      <c r="J76" s="218"/>
-      <c r="K76" s="219"/>
+      <c r="A76" s="101"/>
+      <c r="B76" s="104"/>
+      <c r="C76" s="102"/>
+      <c r="D76" s="102"/>
+      <c r="E76" s="102"/>
+      <c r="F76" s="102"/>
+      <c r="G76" s="102"/>
+      <c r="H76" s="102"/>
+      <c r="I76" s="102"/>
+      <c r="J76" s="102"/>
+      <c r="K76" s="103"/>
       <c r="L76" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M76" s="86"/>
-      <c r="N76" s="90"/>
-      <c r="P76" s="108"/>
-      <c r="Q76" s="108"/>
-      <c r="R76" s="108"/>
-      <c r="S76" s="217"/>
+      <c r="N76" s="100"/>
+      <c r="P76" s="94"/>
+      <c r="Q76" s="94"/>
+      <c r="R76" s="94"/>
+      <c r="S76" s="95"/>
     </row>
     <row r="77" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A77" s="221" t="s">
+      <c r="A77" s="105" t="s">
         <v>104</v>
       </c>
-      <c r="B77" s="192" t="s">
+      <c r="B77" s="107" t="s">
         <v>105</v>
       </c>
-      <c r="C77" s="108"/>
-      <c r="D77" s="108"/>
-      <c r="E77" s="108"/>
-      <c r="F77" s="108"/>
-      <c r="G77" s="108"/>
-      <c r="H77" s="108"/>
-      <c r="I77" s="108"/>
-      <c r="J77" s="108"/>
-      <c r="K77" s="193"/>
+      <c r="C77" s="94"/>
+      <c r="D77" s="94"/>
+      <c r="E77" s="94"/>
+      <c r="F77" s="94"/>
+      <c r="G77" s="94"/>
+      <c r="H77" s="94"/>
+      <c r="I77" s="94"/>
+      <c r="J77" s="94"/>
+      <c r="K77" s="108"/>
       <c r="L77" s="87" t="s">
         <v>91</v>
       </c>
       <c r="M77" s="49"/>
-      <c r="N77" s="90">
+      <c r="N77" s="100">
         <f>IF(ISERROR(AVERAGE(M78:M79)),0,ROUNDUP(AVERAGE(M78:M79), 1))</f>
         <v>0</v>
       </c>
-      <c r="P77" s="198" t="s">
+      <c r="P77" s="93" t="s">
         <v>106</v>
       </c>
-      <c r="Q77" s="108"/>
-      <c r="R77" s="108"/>
-      <c r="S77" s="108"/>
+      <c r="Q77" s="94"/>
+      <c r="R77" s="94"/>
+      <c r="S77" s="94"/>
     </row>
     <row r="78" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A78" s="221"/>
-      <c r="B78" s="194"/>
-      <c r="C78" s="108"/>
-      <c r="D78" s="108"/>
-      <c r="E78" s="108"/>
-      <c r="F78" s="108"/>
-      <c r="G78" s="108"/>
-      <c r="H78" s="108"/>
-      <c r="I78" s="108"/>
-      <c r="J78" s="108"/>
-      <c r="K78" s="193"/>
+      <c r="A78" s="105"/>
+      <c r="B78" s="109"/>
+      <c r="C78" s="94"/>
+      <c r="D78" s="94"/>
+      <c r="E78" s="94"/>
+      <c r="F78" s="94"/>
+      <c r="G78" s="94"/>
+      <c r="H78" s="94"/>
+      <c r="I78" s="94"/>
+      <c r="J78" s="94"/>
+      <c r="K78" s="108"/>
       <c r="L78" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M78" s="84"/>
-      <c r="N78" s="90"/>
-      <c r="P78" s="108"/>
-      <c r="Q78" s="108"/>
-      <c r="R78" s="108"/>
-      <c r="S78" s="108"/>
+      <c r="N78" s="100"/>
+      <c r="P78" s="94"/>
+      <c r="Q78" s="94"/>
+      <c r="R78" s="94"/>
+      <c r="S78" s="94"/>
     </row>
     <row r="79" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A79" s="221"/>
-      <c r="B79" s="195"/>
-      <c r="C79" s="196"/>
-      <c r="D79" s="196"/>
-      <c r="E79" s="196"/>
-      <c r="F79" s="196"/>
-      <c r="G79" s="196"/>
-      <c r="H79" s="196"/>
-      <c r="I79" s="196"/>
-      <c r="J79" s="196"/>
-      <c r="K79" s="197"/>
+      <c r="A79" s="105"/>
+      <c r="B79" s="110"/>
+      <c r="C79" s="111"/>
+      <c r="D79" s="111"/>
+      <c r="E79" s="111"/>
+      <c r="F79" s="111"/>
+      <c r="G79" s="111"/>
+      <c r="H79" s="111"/>
+      <c r="I79" s="111"/>
+      <c r="J79" s="111"/>
+      <c r="K79" s="112"/>
       <c r="L79" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M79" s="86"/>
-      <c r="N79" s="90"/>
-      <c r="P79" s="108"/>
-      <c r="Q79" s="108"/>
-      <c r="R79" s="108"/>
-      <c r="S79" s="108"/>
+      <c r="N79" s="100"/>
+      <c r="P79" s="94"/>
+      <c r="Q79" s="94"/>
+      <c r="R79" s="94"/>
+      <c r="S79" s="94"/>
     </row>
     <row r="80" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A80" s="221"/>
-      <c r="B80" s="192" t="s">
+      <c r="A80" s="105"/>
+      <c r="B80" s="107" t="s">
         <v>107</v>
       </c>
-      <c r="C80" s="108"/>
-      <c r="D80" s="108"/>
-      <c r="E80" s="108"/>
-      <c r="F80" s="108"/>
-      <c r="G80" s="108"/>
-      <c r="H80" s="108"/>
-      <c r="I80" s="108"/>
-      <c r="J80" s="108"/>
-      <c r="K80" s="193"/>
+      <c r="C80" s="94"/>
+      <c r="D80" s="94"/>
+      <c r="E80" s="94"/>
+      <c r="F80" s="94"/>
+      <c r="G80" s="94"/>
+      <c r="H80" s="94"/>
+      <c r="I80" s="94"/>
+      <c r="J80" s="94"/>
+      <c r="K80" s="108"/>
       <c r="L80" s="87" t="s">
         <v>91</v>
       </c>
       <c r="M80" s="49"/>
-      <c r="N80" s="90">
+      <c r="N80" s="100">
         <f>IF(ISERROR(AVERAGE(M81:M82)),0,ROUNDUP(AVERAGE(M81:M82), 1))</f>
         <v>0</v>
       </c>
-      <c r="P80" s="198" t="s">
+      <c r="P80" s="93" t="s">
         <v>108</v>
       </c>
-      <c r="Q80" s="108"/>
-      <c r="R80" s="108"/>
-      <c r="S80" s="108"/>
+      <c r="Q80" s="94"/>
+      <c r="R80" s="94"/>
+      <c r="S80" s="94"/>
     </row>
     <row r="81" spans="1:19" s="1" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A81" s="221"/>
-      <c r="B81" s="194"/>
-      <c r="C81" s="108"/>
-      <c r="D81" s="108"/>
-      <c r="E81" s="108"/>
-      <c r="F81" s="108"/>
-      <c r="G81" s="108"/>
-      <c r="H81" s="108"/>
-      <c r="I81" s="108"/>
-      <c r="J81" s="108"/>
-      <c r="K81" s="193"/>
+      <c r="A81" s="105"/>
+      <c r="B81" s="109"/>
+      <c r="C81" s="94"/>
+      <c r="D81" s="94"/>
+      <c r="E81" s="94"/>
+      <c r="F81" s="94"/>
+      <c r="G81" s="94"/>
+      <c r="H81" s="94"/>
+      <c r="I81" s="94"/>
+      <c r="J81" s="94"/>
+      <c r="K81" s="108"/>
       <c r="L81" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M81" s="84"/>
-      <c r="N81" s="90"/>
-      <c r="P81" s="108"/>
-      <c r="Q81" s="108"/>
-      <c r="R81" s="108"/>
-      <c r="S81" s="108"/>
+      <c r="N81" s="100"/>
+      <c r="P81" s="94"/>
+      <c r="Q81" s="94"/>
+      <c r="R81" s="94"/>
+      <c r="S81" s="94"/>
     </row>
     <row r="82" spans="1:19" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A82" s="221"/>
-      <c r="B82" s="195"/>
-      <c r="C82" s="196"/>
-      <c r="D82" s="196"/>
-      <c r="E82" s="196"/>
-      <c r="F82" s="196"/>
-      <c r="G82" s="196"/>
-      <c r="H82" s="196"/>
-      <c r="I82" s="196"/>
-      <c r="J82" s="196"/>
-      <c r="K82" s="197"/>
+      <c r="A82" s="105"/>
+      <c r="B82" s="110"/>
+      <c r="C82" s="111"/>
+      <c r="D82" s="111"/>
+      <c r="E82" s="111"/>
+      <c r="F82" s="111"/>
+      <c r="G82" s="111"/>
+      <c r="H82" s="111"/>
+      <c r="I82" s="111"/>
+      <c r="J82" s="111"/>
+      <c r="K82" s="112"/>
       <c r="L82" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M82" s="86"/>
-      <c r="N82" s="90"/>
-      <c r="P82" s="108"/>
-      <c r="Q82" s="108"/>
-      <c r="R82" s="108"/>
-      <c r="S82" s="108"/>
+      <c r="N82" s="100"/>
+      <c r="P82" s="94"/>
+      <c r="Q82" s="94"/>
+      <c r="R82" s="94"/>
+      <c r="S82" s="94"/>
     </row>
     <row r="83" spans="1:19" s="1" customFormat="1" ht="13.5" customHeight="1">
-      <c r="A83" s="221"/>
-      <c r="B83" s="192" t="s">
+      <c r="A83" s="105"/>
+      <c r="B83" s="107" t="s">
         <v>109</v>
       </c>
-      <c r="C83" s="108"/>
-      <c r="D83" s="108"/>
-      <c r="E83" s="108"/>
-      <c r="F83" s="108"/>
-      <c r="G83" s="108"/>
-      <c r="H83" s="108"/>
-      <c r="I83" s="108"/>
-      <c r="J83" s="108"/>
-      <c r="K83" s="193"/>
+      <c r="C83" s="94"/>
+      <c r="D83" s="94"/>
+      <c r="E83" s="94"/>
+      <c r="F83" s="94"/>
+      <c r="G83" s="94"/>
+      <c r="H83" s="94"/>
+      <c r="I83" s="94"/>
+      <c r="J83" s="94"/>
+      <c r="K83" s="108"/>
       <c r="L83" s="87" t="s">
         <v>91</v>
       </c>
       <c r="M83" s="49"/>
-      <c r="N83" s="90">
+      <c r="N83" s="100">
         <f>IF(ISERROR(AVERAGE(M84:M85)),0,ROUNDUP(AVERAGE(M84:M85), 1))</f>
         <v>0</v>
       </c>
-      <c r="P83" s="198" t="s">
+      <c r="P83" s="93" t="s">
         <v>110</v>
       </c>
-      <c r="Q83" s="108"/>
-      <c r="R83" s="108"/>
-      <c r="S83" s="108"/>
+      <c r="Q83" s="94"/>
+      <c r="R83" s="94"/>
+      <c r="S83" s="94"/>
     </row>
     <row r="84" spans="1:19" s="1" customFormat="1">
-      <c r="A84" s="221"/>
-      <c r="B84" s="194"/>
-      <c r="C84" s="108"/>
-      <c r="D84" s="108"/>
-      <c r="E84" s="108"/>
-      <c r="F84" s="108"/>
-      <c r="G84" s="108"/>
-      <c r="H84" s="108"/>
-      <c r="I84" s="108"/>
-      <c r="J84" s="108"/>
-      <c r="K84" s="193"/>
+      <c r="A84" s="105"/>
+      <c r="B84" s="109"/>
+      <c r="C84" s="94"/>
+      <c r="D84" s="94"/>
+      <c r="E84" s="94"/>
+      <c r="F84" s="94"/>
+      <c r="G84" s="94"/>
+      <c r="H84" s="94"/>
+      <c r="I84" s="94"/>
+      <c r="J84" s="94"/>
+      <c r="K84" s="108"/>
       <c r="L84" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M84" s="84"/>
-      <c r="N84" s="90"/>
-      <c r="P84" s="108"/>
-      <c r="Q84" s="108"/>
-      <c r="R84" s="108"/>
-      <c r="S84" s="108"/>
+      <c r="N84" s="100"/>
+      <c r="P84" s="94"/>
+      <c r="Q84" s="94"/>
+      <c r="R84" s="94"/>
+      <c r="S84" s="94"/>
     </row>
     <row r="85" spans="1:19" s="1" customFormat="1">
-      <c r="A85" s="221"/>
-      <c r="B85" s="195"/>
-      <c r="C85" s="196"/>
-      <c r="D85" s="196"/>
-      <c r="E85" s="196"/>
-      <c r="F85" s="196"/>
-      <c r="G85" s="196"/>
-      <c r="H85" s="196"/>
-      <c r="I85" s="196"/>
-      <c r="J85" s="196"/>
-      <c r="K85" s="197"/>
+      <c r="A85" s="105"/>
+      <c r="B85" s="110"/>
+      <c r="C85" s="111"/>
+      <c r="D85" s="111"/>
+      <c r="E85" s="111"/>
+      <c r="F85" s="111"/>
+      <c r="G85" s="111"/>
+      <c r="H85" s="111"/>
+      <c r="I85" s="111"/>
+      <c r="J85" s="111"/>
+      <c r="K85" s="112"/>
       <c r="L85" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M85" s="86"/>
-      <c r="N85" s="90"/>
-      <c r="P85" s="108"/>
-      <c r="Q85" s="108"/>
-      <c r="R85" s="108"/>
-      <c r="S85" s="108"/>
+      <c r="N85" s="100"/>
+      <c r="P85" s="94"/>
+      <c r="Q85" s="94"/>
+      <c r="R85" s="94"/>
+      <c r="S85" s="94"/>
     </row>
     <row r="86" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A86" s="221"/>
-      <c r="B86" s="192" t="s">
+      <c r="A86" s="105"/>
+      <c r="B86" s="107" t="s">
         <v>111</v>
       </c>
-      <c r="C86" s="108"/>
-      <c r="D86" s="108"/>
-      <c r="E86" s="108"/>
-      <c r="F86" s="108"/>
-      <c r="G86" s="108"/>
-      <c r="H86" s="108"/>
-      <c r="I86" s="108"/>
-      <c r="J86" s="108"/>
-      <c r="K86" s="193"/>
+      <c r="C86" s="94"/>
+      <c r="D86" s="94"/>
+      <c r="E86" s="94"/>
+      <c r="F86" s="94"/>
+      <c r="G86" s="94"/>
+      <c r="H86" s="94"/>
+      <c r="I86" s="94"/>
+      <c r="J86" s="94"/>
+      <c r="K86" s="108"/>
       <c r="L86" s="81" t="s">
         <v>91</v>
       </c>
       <c r="M86" s="82"/>
-      <c r="N86" s="90">
+      <c r="N86" s="100">
         <f>IF(ISERROR(AVERAGE(M87:M88)),0,ROUNDUP(AVERAGE(M87:M88), 1))</f>
         <v>0</v>
       </c>
-      <c r="P86" s="198" t="s">
+      <c r="P86" s="93" t="s">
         <v>112</v>
       </c>
-      <c r="Q86" s="108"/>
-      <c r="R86" s="108"/>
-      <c r="S86" s="108"/>
+      <c r="Q86" s="94"/>
+      <c r="R86" s="94"/>
+      <c r="S86" s="94"/>
     </row>
     <row r="87" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A87" s="221"/>
-      <c r="B87" s="194"/>
-      <c r="C87" s="108"/>
-      <c r="D87" s="108"/>
-      <c r="E87" s="108"/>
-      <c r="F87" s="108"/>
-      <c r="G87" s="108"/>
-      <c r="H87" s="108"/>
-      <c r="I87" s="108"/>
-      <c r="J87" s="108"/>
-      <c r="K87" s="193"/>
+      <c r="A87" s="105"/>
+      <c r="B87" s="109"/>
+      <c r="C87" s="94"/>
+      <c r="D87" s="94"/>
+      <c r="E87" s="94"/>
+      <c r="F87" s="94"/>
+      <c r="G87" s="94"/>
+      <c r="H87" s="94"/>
+      <c r="I87" s="94"/>
+      <c r="J87" s="94"/>
+      <c r="K87" s="108"/>
       <c r="L87" s="83" t="s">
         <v>93</v>
       </c>
       <c r="M87" s="84"/>
-      <c r="N87" s="90"/>
-      <c r="P87" s="108"/>
-      <c r="Q87" s="108"/>
-      <c r="R87" s="108"/>
-      <c r="S87" s="108"/>
+      <c r="N87" s="100"/>
+      <c r="P87" s="94"/>
+      <c r="Q87" s="94"/>
+      <c r="R87" s="94"/>
+      <c r="S87" s="94"/>
     </row>
     <row r="88" spans="1:19" s="1" customFormat="1" ht="15" customHeight="1">
-      <c r="A88" s="222"/>
-      <c r="B88" s="195"/>
-      <c r="C88" s="196"/>
-      <c r="D88" s="196"/>
-      <c r="E88" s="196"/>
-      <c r="F88" s="196"/>
-      <c r="G88" s="196"/>
-      <c r="H88" s="196"/>
-      <c r="I88" s="196"/>
-      <c r="J88" s="196"/>
-      <c r="K88" s="197"/>
+      <c r="A88" s="106"/>
+      <c r="B88" s="110"/>
+      <c r="C88" s="111"/>
+      <c r="D88" s="111"/>
+      <c r="E88" s="111"/>
+      <c r="F88" s="111"/>
+      <c r="G88" s="111"/>
+      <c r="H88" s="111"/>
+      <c r="I88" s="111"/>
+      <c r="J88" s="111"/>
+      <c r="K88" s="112"/>
       <c r="L88" s="85" t="s">
         <v>94</v>
       </c>
       <c r="M88" s="84"/>
-      <c r="N88" s="90"/>
-      <c r="P88" s="108"/>
-      <c r="Q88" s="108"/>
-      <c r="R88" s="108"/>
-      <c r="S88" s="108"/>
+      <c r="N88" s="100"/>
+      <c r="P88" s="94"/>
+      <c r="Q88" s="94"/>
+      <c r="R88" s="94"/>
+      <c r="S88" s="94"/>
     </row>
     <row r="89" spans="1:19" s="1" customFormat="1">
       <c r="A89" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="B89" s="156" t="s">
+      <c r="B89" s="88" t="s">
         <v>81</v>
       </c>
-      <c r="C89" s="157"/>
-      <c r="D89" s="157"/>
-      <c r="E89" s="157"/>
-      <c r="F89" s="157"/>
-      <c r="G89" s="157"/>
-      <c r="H89" s="157"/>
-      <c r="I89" s="157"/>
-      <c r="J89" s="157"/>
-      <c r="K89" s="158"/>
+      <c r="C89" s="89"/>
+      <c r="D89" s="89"/>
+      <c r="E89" s="89"/>
+      <c r="F89" s="89"/>
+      <c r="G89" s="89"/>
+      <c r="H89" s="89"/>
+      <c r="I89" s="89"/>
+      <c r="J89" s="89"/>
+      <c r="K89" s="90"/>
       <c r="L89" s="61" t="s">
         <v>13</v>
       </c>
-      <c r="M89" s="215">
+      <c r="M89" s="91">
         <f>SUM(N62:N88)</f>
         <v>0</v>
       </c>
-      <c r="N89" s="216"/>
-      <c r="R89" s="108"/>
-      <c r="S89" s="108"/>
+      <c r="N89" s="92"/>
+      <c r="R89" s="94"/>
+      <c r="S89" s="94"/>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q56"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B83:K85"/>
+    <mergeCell ref="N83:N85"/>
+    <mergeCell ref="P83:Q85"/>
+    <mergeCell ref="B86:K88"/>
+    <mergeCell ref="N86:N88"/>
+    <mergeCell ref="P86:Q88"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:K61"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:K64"/>
+    <mergeCell ref="N62:N64"/>
     <mergeCell ref="B89:K89"/>
     <mergeCell ref="M89:N89"/>
     <mergeCell ref="P62:Q64"/>
@@ -5797,136 +5927,6 @@
     <mergeCell ref="B80:K82"/>
     <mergeCell ref="N80:N82"/>
     <mergeCell ref="P80:Q82"/>
-    <mergeCell ref="B83:K85"/>
-    <mergeCell ref="N83:N85"/>
-    <mergeCell ref="P83:Q85"/>
-    <mergeCell ref="B86:K88"/>
-    <mergeCell ref="N86:N88"/>
-    <mergeCell ref="P86:Q88"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:K61"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:K64"/>
-    <mergeCell ref="N62:N64"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q56"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:N49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="A26:N26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="46" type="noConversion"/>
   <dataValidations count="1">

--- a/02.팀원관리/01.인사고과평가/2023 상반기 인사고과평가_개발사업부_개발2팀_백지혜.xlsx
+++ b/02.팀원관리/01.인사고과평가/2023 상반기 인사고과평가_개발사업부_개발2팀_백지혜.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DevEnv\02.팀원관리\01.인사고과평가\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8604"/>
   </bookViews>
   <sheets>
-    <sheet name="한상우" sheetId="1" r:id="rId4"/>
+    <sheet name="백지혜" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="123">
   <si>
     <t>인사 고과 평가</t>
   </si>
@@ -249,6 +257,8 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">멘토
 </t>
@@ -258,6 +268,8 @@
         <sz val="8"/>
         <color indexed="8"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>(+/-0.5)</t>
     </r>
@@ -272,15 +284,19 @@
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t xml:space="preserve">자격증        </t>
     </r>
     <r>
       <rPr>
-        <i val="1"/>
+        <i/>
         <sz val="9"/>
         <color indexed="8"/>
         <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
       </rPr>
       <t>* 업무 관련 자격증 취득시 가점 (+3)</t>
     </r>
@@ -440,89 +456,106 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="0" formatCode="General"/>
-    <numFmt numFmtId="59" formatCode="0.0&quot; &quot;"/>
-    <numFmt numFmtId="60" formatCode="0.0"/>
-    <numFmt numFmtId="61" formatCode="0.00&quot; &quot;"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="3">
+    <numFmt numFmtId="176" formatCode="0.0&quot; &quot;"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
+    <numFmt numFmtId="178" formatCode="0.00&quot; &quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="한양해서"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="HY견고딕"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="9"/>
       <color indexed="13"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="9"/>
       <color indexed="15"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="17"/>
       <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="17"/>
       <name val="바탕체"/>
+      <family val="1"/>
+      <charset val="129"/>
     </font>
     <font>
       <sz val="8"/>
       <color indexed="18"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <i val="1"/>
+      <i/>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
       <sz val="8"/>
       <color indexed="18"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="돋움"/>
+      <family val="3"/>
+      <charset val="129"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1449,762 +1482,845 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="239">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+  <cellXfs count="249">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="6" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="4" borderId="18" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="23" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="25" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="32" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="33" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="22" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="5" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="27" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="8" fillId="2" borderId="29" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="20" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="21" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="28" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="5" fillId="6" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="61" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="4" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="18" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="61" fontId="5" fillId="6" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="61" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="61" fontId="5" fillId="6" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="61" fontId="5" fillId="6" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="61" fontId="5" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="37" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="38" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="39" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="40" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="41" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="42" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="44" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="45" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="46" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="47" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="48" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="49" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="50" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="34" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="5" fillId="6" borderId="17" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="19" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="51" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="52" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="53" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="24" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="20" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="22" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="54" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="55" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="56" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="31" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="27" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="29" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="57" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="4" borderId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="4" fillId="4" borderId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="4" fillId="4" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="4" borderId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="4" fillId="4" borderId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="64" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="65" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="24" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="31" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="4" borderId="68" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="66" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="67" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="35" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="69" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="32" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="33" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="30" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" fillId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="70" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffbfbfbf"/>
-      <rgbColor rgb="ffd8d8d8"/>
-      <rgbColor rgb="ff3f3f3f"/>
-      <rgbColor rgb="fff2f2f2"/>
-      <rgbColor rgb="ff7f7f7f"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ff0070c0"/>
-      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FFBFBFBF"/>
+      <rgbColor rgb="FFD8D8D8"/>
+      <rgbColor rgb="FF3F3F3F"/>
+      <rgbColor rgb="FFF2F2F2"/>
+      <rgbColor rgb="FF7F7F7F"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FF0070C0"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office 테마">
       <a:dk1>
@@ -2330,7 +2446,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2339,7 +2455,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -2348,7 +2464,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+            <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -2422,7 +2538,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="23000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="23000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="35000"/>
             </a:srgbClr>
@@ -2430,7 +2546,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2448,7 +2564,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2477,7 +2593,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2502,7 +2618,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2527,7 +2643,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2552,7 +2668,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2577,7 +2693,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2602,7 +2718,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2627,7 +2743,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2652,7 +2768,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2677,7 +2793,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2690,9 +2806,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2707,7 +2829,7 @@
           <a:round/>
         </a:ln>
         <a:effectLst>
-          <a:outerShdw sx="100000" sy="100000" kx="0" ky="0" algn="b" rotWithShape="0" blurRad="38100" dist="20000" dir="5400000">
+          <a:outerShdw blurRad="38100" dist="20000" dir="5400000" rotWithShape="0">
             <a:srgbClr val="000000">
               <a:alpha val="38000"/>
             </a:srgbClr>
@@ -2715,7 +2837,7 @@
         </a:effectLst>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2733,7 +2855,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2758,7 +2880,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2783,7 +2905,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2808,7 +2930,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2833,7 +2955,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2858,7 +2980,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2883,7 +3005,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2908,7 +3030,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2933,7 +3055,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2958,7 +3080,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2971,9 +3093,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2987,7 +3115,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -3005,7 +3133,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3034,7 +3162,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3059,7 +3187,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3084,7 +3212,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3109,7 +3237,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3134,7 +3262,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3159,7 +3287,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3184,7 +3312,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3209,7 +3337,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3234,7 +3362,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3247,43 +3375,52 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12:G13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.67188" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" style="1" customWidth="1"/>
     <col min="3" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.17188" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.17188" style="1" customWidth="1"/>
-    <col min="8" max="9" width="4.67188" style="1" customWidth="1"/>
-    <col min="10" max="14" width="8.67188" style="1" customWidth="1"/>
-    <col min="15" max="15" width="2.67188" style="1" customWidth="1"/>
-    <col min="16" max="16" width="40.6719" style="1" customWidth="1"/>
-    <col min="17" max="17" width="68.5" style="1" customWidth="1"/>
-    <col min="18" max="19" width="9" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.1796875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.453125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.1796875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="4.6328125" style="1" customWidth="1"/>
+    <col min="10" max="14" width="8.6328125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.6328125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="40.6328125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="68.453125" style="1" customWidth="1"/>
+    <col min="18" max="20" width="9" style="1" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:19" ht="8.1" customHeight="1">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3304,2481 +3441,2351 @@
       <c r="R1" s="3"/>
       <c r="S1" s="4"/>
     </row>
-    <row r="2" ht="15.9" customHeight="1">
-      <c r="A2" t="s" s="5">
+    <row r="2" spans="1:19" ht="15.9" customHeight="1">
+      <c r="A2" s="101" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-      <c r="N2" s="6"/>
-      <c r="O2" s="6"/>
-      <c r="P2" s="6"/>
-      <c r="Q2" s="6"/>
-      <c r="R2" s="6"/>
-      <c r="S2" s="7"/>
-    </row>
-    <row r="3" ht="8.1" customHeight="1">
-      <c r="A3" s="8"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9"/>
-      <c r="K3" s="9"/>
-      <c r="L3" s="9"/>
-      <c r="M3" s="9"/>
-      <c r="N3" s="9"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="7"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1">
-      <c r="A4" t="s" s="10">
+      <c r="B2" s="102"/>
+      <c r="C2" s="102"/>
+      <c r="D2" s="102"/>
+      <c r="E2" s="102"/>
+      <c r="F2" s="102"/>
+      <c r="G2" s="102"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="102"/>
+      <c r="J2" s="102"/>
+      <c r="K2" s="102"/>
+      <c r="L2" s="102"/>
+      <c r="M2" s="102"/>
+      <c r="N2" s="102"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="S2" s="6"/>
+    </row>
+    <row r="3" spans="1:19" ht="8.1" customHeight="1">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="M3" s="8"/>
+      <c r="N3" s="8"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" t="s" s="11">
+      <c r="B4" s="103" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" t="s" s="10">
+      <c r="C4" s="104"/>
+      <c r="D4" s="104"/>
+      <c r="E4" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="13"/>
-      <c r="G4" t="s" s="11">
+      <c r="F4" s="106"/>
+      <c r="G4" s="103" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="12"/>
-      <c r="I4" t="s" s="14">
+      <c r="H4" s="104"/>
+      <c r="I4" s="107" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" t="s" s="11">
+      <c r="J4" s="108"/>
+      <c r="K4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="L4" t="s" s="10">
+      <c r="L4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M4" t="s" s="11">
+      <c r="M4" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" ht="8" customHeight="1">
-      <c r="A5" s="17"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="20"/>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="7"/>
-    </row>
-    <row r="6" ht="18.75" customHeight="1">
-      <c r="A6" t="s" s="21">
+      <c r="N4" s="104"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="6"/>
+    </row>
+    <row r="5" spans="1:19" ht="7.95" customHeight="1">
+      <c r="A5" s="12"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
+      <c r="R5" s="5"/>
+      <c r="S5" s="6"/>
+    </row>
+    <row r="6" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A6" s="109" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s" s="14">
+      <c r="B6" s="107" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="15"/>
-      <c r="F6" t="s" s="14">
+      <c r="C6" s="110"/>
+      <c r="D6" s="110"/>
+      <c r="E6" s="108"/>
+      <c r="F6" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" ht="18" customHeight="1">
-      <c r="A7" s="13"/>
-      <c r="B7" t="s" s="23">
+      <c r="G6" s="110"/>
+      <c r="H6" s="110"/>
+      <c r="I6" s="110"/>
+      <c r="J6" s="108"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
+      <c r="R6" s="5"/>
+      <c r="S6" s="6"/>
+    </row>
+    <row r="7" spans="1:19" ht="18" customHeight="1">
+      <c r="A7" s="106"/>
+      <c r="B7" s="111" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="24"/>
-      <c r="F7" t="s" s="23">
+      <c r="C7" s="112"/>
+      <c r="D7" s="112"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="7"/>
-    </row>
-    <row r="8" ht="8.1" customHeight="1">
-      <c r="A8" s="25"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" ht="16.5" customHeight="1">
-      <c r="A9" t="s" s="26">
+      <c r="G7" s="112"/>
+      <c r="H7" s="112"/>
+      <c r="I7" s="112"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
+      <c r="R7" s="5"/>
+      <c r="S7" s="6"/>
+    </row>
+    <row r="8" spans="1:19" ht="8.1" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="5"/>
+      <c r="M8" s="5"/>
+      <c r="N8" s="5"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="5"/>
+      <c r="Q8" s="5"/>
+      <c r="R8" s="5"/>
+      <c r="S8" s="6"/>
+    </row>
+    <row r="9" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A9" s="114" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="27"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="H9" s="27"/>
-      <c r="I9" s="27"/>
-      <c r="J9" s="27"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
-      <c r="O9" s="6"/>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="7"/>
-    </row>
-    <row r="10" ht="16.5" customHeight="1">
-      <c r="A10" t="s" s="28">
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
+      <c r="O9" s="5"/>
+      <c r="P9" s="5"/>
+      <c r="Q9" s="5"/>
+      <c r="R9" s="5"/>
+      <c r="S9" s="6"/>
+    </row>
+    <row r="10" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A10" s="116" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" t="s" s="28">
+      <c r="B10" s="117"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="118"/>
+      <c r="F10" s="116" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="30"/>
-      <c r="H10" t="s" s="28">
+      <c r="G10" s="118"/>
+      <c r="H10" s="116" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="30"/>
-      <c r="J10" t="s" s="31">
+      <c r="I10" s="118"/>
+      <c r="J10" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="K10" t="s" s="31">
+      <c r="K10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="L10" t="s" s="32">
+      <c r="L10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M10" t="s" s="33">
+      <c r="M10" s="119" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="34"/>
-      <c r="O10" s="16"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" ht="15" customHeight="1">
-      <c r="A11" t="s" s="35">
+      <c r="N10" s="120"/>
+      <c r="O10" s="11"/>
+      <c r="P10" s="5"/>
+      <c r="Q10" s="5"/>
+      <c r="R10" s="5"/>
+      <c r="S10" s="6"/>
+    </row>
+    <row r="11" spans="1:19" ht="15" customHeight="1">
+      <c r="A11" s="121" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37">
+      <c r="B11" s="122"/>
+      <c r="C11" s="122"/>
+      <c r="D11" s="122"/>
+      <c r="E11" s="19">
         <v>0.3</v>
       </c>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="38"/>
-      <c r="N11" s="39"/>
-      <c r="O11" s="16"/>
-      <c r="P11" t="s" s="40">
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="21"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="123" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="7"/>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="s" s="41">
+      <c r="Q11" s="5"/>
+      <c r="R11" s="5"/>
+      <c r="S11" s="6"/>
+    </row>
+    <row r="12" spans="1:19" ht="15" customHeight="1">
+      <c r="A12" s="124" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="42"/>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="44">
+      <c r="B12" s="125"/>
+      <c r="C12" s="125"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="127">
         <v>30</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44">
+      <c r="G12" s="127"/>
+      <c r="H12" s="127">
         <v>6</v>
       </c>
-      <c r="I12" s="44"/>
-      <c r="J12" s="45">
+      <c r="I12" s="127"/>
+      <c r="J12" s="22">
         <f>L34</f>
         <v>6</v>
       </c>
-      <c r="K12" s="46">
+      <c r="K12" s="23">
         <f>$J$12*$F$12/$H$12</f>
         <v>30</v>
       </c>
-      <c r="L12" s="47">
+      <c r="L12" s="129">
         <f>IF(SUM(K12:K13)&gt;30,30,SUM(K12:K13))</f>
         <v>30</v>
       </c>
-      <c r="M12" t="s" s="48">
+      <c r="M12" s="131" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="49"/>
-      <c r="O12" s="16"/>
-      <c r="P12" s="6"/>
-      <c r="Q12" s="6"/>
-      <c r="R12" s="6"/>
-      <c r="S12" s="7"/>
-    </row>
-    <row r="13" ht="15" customHeight="1">
-      <c r="A13" t="s" s="50">
+      <c r="N12" s="132"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="102"/>
+      <c r="Q12" s="5"/>
+      <c r="R12" s="5"/>
+      <c r="S12" s="6"/>
+    </row>
+    <row r="13" spans="1:19" ht="15" customHeight="1">
+      <c r="A13" s="135" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="54">
+      <c r="B13" s="136"/>
+      <c r="C13" s="136"/>
+      <c r="D13" s="136"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="128"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="24">
         <f>N45</f>
         <v>0</v>
       </c>
-      <c r="K13" s="55">
+      <c r="K13" s="25">
         <f>$J$13*$F$12/$H$12</f>
         <v>0</v>
       </c>
-      <c r="L13" s="56"/>
-      <c r="M13" s="57"/>
-      <c r="N13" s="58"/>
-      <c r="O13" s="16"/>
-      <c r="P13" s="6"/>
-      <c r="Q13" s="6"/>
-      <c r="R13" s="6"/>
-      <c r="S13" s="7"/>
-    </row>
-    <row r="14" ht="15" customHeight="1">
-      <c r="A14" t="s" s="35">
+      <c r="L13" s="130"/>
+      <c r="M13" s="133"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="102"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="6"/>
+    </row>
+    <row r="14" spans="1:19" ht="15" customHeight="1">
+      <c r="A14" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="36"/>
-      <c r="C14" s="36"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="37">
+      <c r="B14" s="122"/>
+      <c r="C14" s="122"/>
+      <c r="D14" s="122"/>
+      <c r="E14" s="19">
         <v>0.5</v>
       </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="38"/>
-      <c r="N14" s="39"/>
-      <c r="O14" s="16"/>
-      <c r="P14" s="6"/>
-      <c r="Q14" s="6"/>
-      <c r="R14" s="6"/>
-      <c r="S14" s="7"/>
-    </row>
-    <row r="15" ht="15" customHeight="1">
-      <c r="A15" t="s" s="41">
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="5"/>
+      <c r="Q14" s="5"/>
+      <c r="R14" s="5"/>
+      <c r="S14" s="6"/>
+    </row>
+    <row r="15" spans="1:19" ht="15" customHeight="1">
+      <c r="A15" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="42"/>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="59">
+      <c r="B15" s="125"/>
+      <c r="C15" s="125"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="138">
         <v>20</v>
       </c>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59">
+      <c r="G15" s="138"/>
+      <c r="H15" s="138">
         <v>20</v>
       </c>
-      <c r="I15" s="59"/>
-      <c r="J15" s="60">
+      <c r="I15" s="138"/>
+      <c r="J15" s="26">
         <f>M34</f>
         <v>0</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="23">
         <f>J15/H15*F15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="47">
+      <c r="L15" s="129">
         <f>SUM(K15:K16)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="61"/>
-      <c r="N15" s="62"/>
-      <c r="O15" s="16"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-      <c r="R15" s="6"/>
-      <c r="S15" s="7"/>
-    </row>
-    <row r="16" ht="15" customHeight="1">
-      <c r="A16" t="s" s="50">
+      <c r="M15" s="139"/>
+      <c r="N15" s="140"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="5"/>
+      <c r="Q15" s="5"/>
+      <c r="R15" s="5"/>
+      <c r="S15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" ht="15" customHeight="1">
+      <c r="A16" s="135" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="63">
+      <c r="B16" s="136"/>
+      <c r="C16" s="136"/>
+      <c r="D16" s="136"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="143">
         <v>30</v>
       </c>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63">
+      <c r="G16" s="143"/>
+      <c r="H16" s="143">
         <v>30</v>
       </c>
-      <c r="I16" s="63"/>
-      <c r="J16" s="64">
+      <c r="I16" s="143"/>
+      <c r="J16" s="27">
         <f>N34</f>
         <v>0</v>
       </c>
-      <c r="K16" s="55">
+      <c r="K16" s="25">
         <f>J16/H16*F16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="56"/>
-      <c r="M16" s="65"/>
-      <c r="N16" s="66"/>
-      <c r="O16" s="16"/>
-      <c r="P16" s="6"/>
-      <c r="Q16" s="6"/>
-      <c r="R16" s="6"/>
-      <c r="S16" s="7"/>
-    </row>
-    <row r="17" ht="15" customHeight="1">
-      <c r="A17" t="s" s="35">
+      <c r="L16" s="130"/>
+      <c r="M16" s="141"/>
+      <c r="N16" s="142"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="5"/>
+      <c r="Q16" s="5"/>
+      <c r="R16" s="5"/>
+      <c r="S16" s="6"/>
+    </row>
+    <row r="17" spans="1:19" ht="15" customHeight="1">
+      <c r="A17" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="37">
+      <c r="B17" s="122"/>
+      <c r="C17" s="122"/>
+      <c r="D17" s="122"/>
+      <c r="E17" s="19">
         <v>0.2</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="38"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="39"/>
-      <c r="O17" s="16"/>
-      <c r="P17" s="6"/>
-      <c r="Q17" s="6"/>
-      <c r="R17" s="6"/>
-      <c r="S17" s="7"/>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="s" s="41">
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="21"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="5"/>
+      <c r="Q17" s="5"/>
+      <c r="R17" s="5"/>
+      <c r="S17" s="6"/>
+    </row>
+    <row r="18" spans="1:19" ht="15" customHeight="1">
+      <c r="A18" s="124" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="68">
+      <c r="B18" s="125"/>
+      <c r="C18" s="125"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="138"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="138"/>
+      <c r="I18" s="138"/>
+      <c r="J18" s="29">
         <f>B57+N57</f>
         <v>0</v>
       </c>
-      <c r="K18" s="46">
+      <c r="K18" s="23">
         <f>J18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="47">
+      <c r="L18" s="129">
         <f>K18+K19</f>
         <v>0</v>
       </c>
-      <c r="M18" s="69"/>
-      <c r="N18" s="70"/>
-      <c r="O18" s="16"/>
-      <c r="P18" s="6"/>
-      <c r="Q18" s="6"/>
-      <c r="R18" s="6"/>
-      <c r="S18" s="7"/>
-    </row>
-    <row r="19" ht="15" customHeight="1">
-      <c r="A19" t="s" s="50">
+      <c r="M18" s="144"/>
+      <c r="N18" s="145"/>
+      <c r="O18" s="11"/>
+      <c r="P18" s="5"/>
+      <c r="Q18" s="5"/>
+      <c r="R18" s="5"/>
+      <c r="S18" s="6"/>
+    </row>
+    <row r="19" spans="1:19" ht="15" customHeight="1">
+      <c r="A19" s="135" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="71"/>
-      <c r="F19" s="63">
+      <c r="B19" s="136"/>
+      <c r="C19" s="136"/>
+      <c r="D19" s="136"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="143">
         <v>20</v>
       </c>
-      <c r="G19" s="63"/>
-      <c r="H19" s="63">
+      <c r="G19" s="143"/>
+      <c r="H19" s="143">
         <v>45</v>
       </c>
-      <c r="I19" s="63"/>
-      <c r="J19" s="72">
+      <c r="I19" s="143"/>
+      <c r="J19" s="31">
         <f>M89</f>
         <v>0</v>
       </c>
-      <c r="K19" s="55">
+      <c r="K19" s="25">
         <f>J19*F19/H19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="56"/>
-      <c r="M19" s="73"/>
-      <c r="N19" s="74"/>
-      <c r="O19" s="16"/>
-      <c r="P19" s="6"/>
-      <c r="Q19" s="6"/>
-      <c r="R19" s="6"/>
-      <c r="S19" s="7"/>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="s" s="35">
+      <c r="L19" s="130"/>
+      <c r="M19" s="146"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="11"/>
+      <c r="P19" s="5"/>
+      <c r="Q19" s="5"/>
+      <c r="R19" s="5"/>
+      <c r="S19" s="6"/>
+    </row>
+    <row r="20" spans="1:19" ht="15" customHeight="1">
+      <c r="A20" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="36"/>
-      <c r="C20" s="36"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="39"/>
-      <c r="O20" s="16"/>
-      <c r="P20" s="6"/>
-      <c r="Q20" s="6"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="7"/>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="s" s="41">
+      <c r="B20" s="122"/>
+      <c r="C20" s="122"/>
+      <c r="D20" s="122"/>
+      <c r="E20" s="122"/>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20"/>
+      <c r="H20" s="20"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+      <c r="K20" s="20"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="20"/>
+      <c r="N20" s="21"/>
+      <c r="O20" s="11"/>
+      <c r="P20" s="5"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="5"/>
+      <c r="S20" s="6"/>
+    </row>
+    <row r="21" spans="1:19" ht="15" customHeight="1">
+      <c r="A21" s="124" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="75">
+      <c r="B21" s="125"/>
+      <c r="C21" s="125"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="138"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="138"/>
+      <c r="I21" s="138"/>
+      <c r="J21" s="32">
         <f>K12+K13-L12</f>
         <v>0</v>
       </c>
-      <c r="K21" s="46">
+      <c r="K21" s="23">
         <f>J21</f>
         <v>0</v>
       </c>
-      <c r="L21" s="76">
+      <c r="L21" s="33">
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="69"/>
-      <c r="N21" s="70"/>
-      <c r="O21" s="16"/>
-      <c r="P21" s="6"/>
-      <c r="Q21" s="6"/>
-      <c r="R21" s="6"/>
-      <c r="S21" s="7"/>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="s" s="50">
+      <c r="M21" s="144"/>
+      <c r="N21" s="145"/>
+      <c r="O21" s="11"/>
+      <c r="P21" s="5"/>
+      <c r="Q21" s="5"/>
+      <c r="R21" s="5"/>
+      <c r="S21" s="6"/>
+    </row>
+    <row r="22" spans="1:19" ht="15" customHeight="1">
+      <c r="A22" s="135" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="63">
+      <c r="B22" s="136"/>
+      <c r="C22" s="136"/>
+      <c r="D22" s="136"/>
+      <c r="E22" s="137"/>
+      <c r="F22" s="143">
         <v>0</v>
       </c>
-      <c r="G22" s="63"/>
-      <c r="H22" s="63">
+      <c r="G22" s="143"/>
+      <c r="H22" s="143">
         <v>0</v>
       </c>
-      <c r="I22" s="63"/>
-      <c r="J22" s="77">
+      <c r="I22" s="143"/>
+      <c r="J22" s="34">
         <v>0</v>
       </c>
-      <c r="K22" s="55">
+      <c r="K22" s="25">
         <f>IF(ABS(J22)&gt;20,IF(J22&gt;0,20,-20),J22)</f>
         <v>0</v>
       </c>
-      <c r="L22" s="78">
+      <c r="L22" s="35">
         <f>K22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="79"/>
-      <c r="N22" s="80"/>
-      <c r="O22" s="16"/>
-      <c r="P22" t="s" s="81">
+      <c r="M22" s="148"/>
+      <c r="N22" s="149"/>
+      <c r="O22" s="11"/>
+      <c r="P22" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="Q22" s="6"/>
-      <c r="R22" s="6"/>
-      <c r="S22" s="7"/>
-    </row>
-    <row r="23" ht="16.5" customHeight="1">
-      <c r="A23" t="s" s="28">
+      <c r="Q22" s="5"/>
+      <c r="R22" s="5"/>
+      <c r="S22" s="6"/>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A23" s="116" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-      <c r="L23" s="82">
+      <c r="B23" s="117"/>
+      <c r="C23" s="117"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="117"/>
+      <c r="F23" s="117"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
+      <c r="I23" s="117"/>
+      <c r="J23" s="117"/>
+      <c r="K23" s="118"/>
+      <c r="L23" s="37">
         <f>IF(SUM(L12,L15,L18,L19,L21,L22)&gt;100,100,SUM(L12,L15,L18,L19,L21,L22))</f>
         <v>30</v>
       </c>
-      <c r="M23" s="83"/>
-      <c r="N23" s="30"/>
-      <c r="O23" s="16"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="7"/>
-    </row>
-    <row r="24" ht="8.1" customHeight="1">
-      <c r="A24" s="25"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="20"/>
-      <c r="J24" s="20"/>
-      <c r="K24" s="20"/>
-      <c r="L24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="6"/>
-      <c r="P24" s="6"/>
-      <c r="Q24" s="6"/>
-      <c r="R24" s="6"/>
-      <c r="S24" s="7"/>
-    </row>
-    <row r="25" ht="16.5" customHeight="1">
-      <c r="A25" t="s" s="84">
+      <c r="M23" s="150"/>
+      <c r="N23" s="118"/>
+      <c r="O23" s="11"/>
+      <c r="P23" s="5"/>
+      <c r="Q23" s="5"/>
+      <c r="R23" s="5"/>
+      <c r="S23" s="6"/>
+    </row>
+    <row r="24" spans="1:19" ht="8.1" customHeight="1">
+      <c r="A24" s="16"/>
+      <c r="B24" s="15"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="15"/>
+      <c r="H24" s="15"/>
+      <c r="I24" s="15"/>
+      <c r="J24" s="15"/>
+      <c r="K24" s="15"/>
+      <c r="L24" s="15"/>
+      <c r="M24" s="15"/>
+      <c r="N24" s="15"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="S24" s="6"/>
+    </row>
+    <row r="25" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A25" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="6"/>
-      <c r="L25" s="6"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="6"/>
-      <c r="O25" s="6"/>
-      <c r="P25" s="6"/>
-      <c r="Q25" s="6"/>
-      <c r="R25" s="6"/>
-      <c r="S25" s="7"/>
-    </row>
-    <row r="26" ht="16.5" customHeight="1">
-      <c r="A26" t="s" s="85">
+      <c r="B25" s="5"/>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+      <c r="O25" s="5"/>
+      <c r="P25" s="5"/>
+      <c r="Q25" s="5"/>
+      <c r="R25" s="5"/>
+      <c r="S25" s="6"/>
+    </row>
+    <row r="26" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A26" s="151" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="86"/>
-      <c r="C26" s="86"/>
-      <c r="D26" s="86"/>
-      <c r="E26" s="86"/>
-      <c r="F26" s="86"/>
-      <c r="G26" s="86"/>
-      <c r="H26" s="86"/>
-      <c r="I26" s="86"/>
-      <c r="J26" s="86"/>
-      <c r="K26" s="86"/>
-      <c r="L26" s="86"/>
-      <c r="M26" s="86"/>
-      <c r="N26" s="86"/>
-      <c r="O26" s="6"/>
-      <c r="P26" s="6"/>
-      <c r="Q26" s="6"/>
-      <c r="R26" s="6"/>
-      <c r="S26" s="7"/>
-    </row>
-    <row r="27" ht="16.5" customHeight="1">
-      <c r="A27" t="s" s="28">
+      <c r="B26" s="152"/>
+      <c r="C26" s="152"/>
+      <c r="D26" s="152"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="152"/>
+      <c r="H26" s="152"/>
+      <c r="I26" s="152"/>
+      <c r="J26" s="152"/>
+      <c r="K26" s="152"/>
+      <c r="L26" s="152"/>
+      <c r="M26" s="152"/>
+      <c r="N26" s="152"/>
+      <c r="O26" s="5"/>
+      <c r="P26" s="5"/>
+      <c r="Q26" s="5"/>
+      <c r="R26" s="5"/>
+      <c r="S26" s="6"/>
+    </row>
+    <row r="27" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A27" s="116" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="30"/>
-      <c r="K27" t="s" s="32">
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="117"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="117"/>
+      <c r="I27" s="117"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="153" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="87"/>
-      <c r="M27" t="s" s="32">
+      <c r="L27" s="154"/>
+      <c r="M27" s="153" t="s">
         <v>42</v>
       </c>
-      <c r="N27" s="87"/>
-      <c r="O27" s="16"/>
-      <c r="P27" s="6"/>
-      <c r="Q27" s="6"/>
-      <c r="R27" s="6"/>
-      <c r="S27" s="7"/>
-    </row>
-    <row r="28" ht="26.25" customHeight="1">
-      <c r="A28" t="s" s="88">
+      <c r="N27" s="154"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="5"/>
+      <c r="Q27" s="5"/>
+      <c r="R27" s="5"/>
+      <c r="S27" s="6"/>
+    </row>
+    <row r="28" spans="1:19" ht="26.25" customHeight="1">
+      <c r="A28" s="155" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="89"/>
-      <c r="E28" s="89"/>
-      <c r="F28" s="90"/>
-      <c r="G28" t="s" s="28">
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="157"/>
+      <c r="G28" s="116" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="30"/>
-      <c r="K28" t="s" s="31">
+      <c r="H28" s="117"/>
+      <c r="I28" s="117"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="L28" t="s" s="31">
+      <c r="L28" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="M28" t="s" s="32">
+      <c r="M28" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="N28" t="s" s="31">
+      <c r="N28" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="O28" s="16"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="6"/>
-      <c r="S28" s="7"/>
-    </row>
-    <row r="29" ht="15" customHeight="1">
-      <c r="A29" t="s" s="91">
+      <c r="O28" s="11"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="5"/>
+      <c r="S28" s="6"/>
+    </row>
+    <row r="29" spans="1:19" ht="15" customHeight="1">
+      <c r="A29" s="158" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
-      <c r="D29" s="92"/>
-      <c r="E29" s="92"/>
-      <c r="F29" s="93"/>
-      <c r="G29" t="s" s="94">
+      <c r="B29" s="159"/>
+      <c r="C29" s="159"/>
+      <c r="D29" s="159"/>
+      <c r="E29" s="159"/>
+      <c r="F29" s="160"/>
+      <c r="G29" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="95"/>
-      <c r="I29" s="95"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="97">
+      <c r="H29" s="162"/>
+      <c r="I29" s="162"/>
+      <c r="J29" s="163"/>
+      <c r="K29" s="39">
         <v>5.81</v>
       </c>
-      <c r="L29" s="97">
+      <c r="L29" s="39">
         <v>6</v>
       </c>
-      <c r="M29" s="98"/>
-      <c r="N29" s="99"/>
-      <c r="O29" s="100"/>
-      <c r="P29" s="101"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="16"/>
-      <c r="S29" s="7"/>
-    </row>
-    <row r="30" ht="15" customHeight="1">
-      <c r="A30" s="103"/>
-      <c r="B30" s="92"/>
-      <c r="C30" s="92"/>
-      <c r="D30" s="92"/>
-      <c r="E30" s="92"/>
-      <c r="F30" s="93"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="107"/>
-      <c r="L30" s="108"/>
-      <c r="M30" s="109"/>
-      <c r="N30" s="109"/>
-      <c r="O30" s="100"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="16"/>
-      <c r="S30" s="7"/>
-    </row>
-    <row r="31" ht="15" customHeight="1">
-      <c r="A31" s="103"/>
-      <c r="B31" s="92"/>
-      <c r="C31" s="92"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="92"/>
-      <c r="F31" s="93"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="107"/>
-      <c r="L31" s="108"/>
-      <c r="M31" s="109"/>
-      <c r="N31" s="109"/>
-      <c r="O31" s="100"/>
-      <c r="P31" s="101"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="16"/>
-      <c r="S31" s="7"/>
-    </row>
-    <row r="32" ht="15" customHeight="1">
-      <c r="A32" s="103"/>
-      <c r="B32" s="92"/>
-      <c r="C32" s="92"/>
-      <c r="D32" s="92"/>
-      <c r="E32" s="92"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="107"/>
-      <c r="L32" s="108"/>
-      <c r="M32" s="109"/>
-      <c r="N32" s="109"/>
-      <c r="O32" s="100"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="16"/>
-      <c r="S32" s="7"/>
-    </row>
-    <row r="33" ht="15" customHeight="1">
-      <c r="A33" s="110"/>
-      <c r="B33" s="111"/>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="112"/>
-      <c r="G33" s="113"/>
-      <c r="H33" s="114"/>
-      <c r="I33" s="114"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
-      <c r="M33" s="118"/>
-      <c r="N33" s="118"/>
-      <c r="O33" s="100"/>
-      <c r="P33" s="101"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="16"/>
-      <c r="S33" s="7"/>
-    </row>
-    <row r="34" ht="16.5" customHeight="1">
-      <c r="A34" t="s" s="28">
+      <c r="M29" s="40"/>
+      <c r="N29" s="41"/>
+      <c r="O29" s="42"/>
+      <c r="P29" s="43"/>
+      <c r="Q29" s="44"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="6"/>
+    </row>
+    <row r="30" spans="1:19" ht="15" customHeight="1">
+      <c r="A30" s="164"/>
+      <c r="B30" s="159"/>
+      <c r="C30" s="159"/>
+      <c r="D30" s="159"/>
+      <c r="E30" s="159"/>
+      <c r="F30" s="160"/>
+      <c r="G30" s="165"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="167"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="42"/>
+      <c r="P30" s="44"/>
+      <c r="Q30" s="44"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="6"/>
+    </row>
+    <row r="31" spans="1:19" ht="15" customHeight="1">
+      <c r="A31" s="164"/>
+      <c r="B31" s="159"/>
+      <c r="C31" s="159"/>
+      <c r="D31" s="159"/>
+      <c r="E31" s="159"/>
+      <c r="F31" s="160"/>
+      <c r="G31" s="165"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="167"/>
+      <c r="K31" s="45"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="42"/>
+      <c r="P31" s="43"/>
+      <c r="Q31" s="44"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="6"/>
+    </row>
+    <row r="32" spans="1:19" ht="15" customHeight="1">
+      <c r="A32" s="164"/>
+      <c r="B32" s="159"/>
+      <c r="C32" s="159"/>
+      <c r="D32" s="159"/>
+      <c r="E32" s="159"/>
+      <c r="F32" s="160"/>
+      <c r="G32" s="165"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="167"/>
+      <c r="K32" s="45"/>
+      <c r="L32" s="46"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="42"/>
+      <c r="P32" s="44"/>
+      <c r="Q32" s="44"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="6"/>
+    </row>
+    <row r="33" spans="1:19" ht="15" customHeight="1">
+      <c r="A33" s="168"/>
+      <c r="B33" s="169"/>
+      <c r="C33" s="169"/>
+      <c r="D33" s="169"/>
+      <c r="E33" s="169"/>
+      <c r="F33" s="170"/>
+      <c r="G33" s="171"/>
+      <c r="H33" s="172"/>
+      <c r="I33" s="172"/>
+      <c r="J33" s="173"/>
+      <c r="K33" s="48"/>
+      <c r="L33" s="49"/>
+      <c r="M33" s="50"/>
+      <c r="N33" s="50"/>
+      <c r="O33" s="42"/>
+      <c r="P33" s="43"/>
+      <c r="Q33" s="44"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="6"/>
+    </row>
+    <row r="34" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A34" s="116" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="29"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="29"/>
-      <c r="E34" s="29"/>
-      <c r="F34" s="29"/>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="30"/>
-      <c r="K34" s="119">
+      <c r="B34" s="117"/>
+      <c r="C34" s="117"/>
+      <c r="D34" s="117"/>
+      <c r="E34" s="117"/>
+      <c r="F34" s="117"/>
+      <c r="G34" s="117"/>
+      <c r="H34" s="117"/>
+      <c r="I34" s="117"/>
+      <c r="J34" s="118"/>
+      <c r="K34" s="51">
         <f>SUM(K29:K33)</f>
         <v>5.81</v>
       </c>
-      <c r="L34" s="120">
+      <c r="L34" s="52">
         <f>SUM(L29:L33)</f>
         <v>6</v>
       </c>
-      <c r="M34" s="120">
-        <f>_xlfn.IFERROR(AVERAGE(M29:M33),0)</f>
+      <c r="M34" s="52">
+        <f>IFERROR(AVERAGE(M29:M33),0)</f>
         <v>0</v>
       </c>
-      <c r="N34" s="120">
-        <f>_xlfn.IFERROR(AVERAGE(N29:N33),0)</f>
+      <c r="N34" s="52">
+        <f>IFERROR(AVERAGE(N29:N33),0)</f>
         <v>0</v>
       </c>
-      <c r="O34" s="16"/>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="7"/>
-    </row>
-    <row r="35" ht="16.5" customHeight="1">
-      <c r="A35" t="s" s="121">
+      <c r="O34" s="11"/>
+      <c r="P34" s="15"/>
+      <c r="Q34" s="15"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="6"/>
+    </row>
+    <row r="35" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A35" s="174" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="122"/>
-      <c r="C35" s="122"/>
-      <c r="D35" s="122"/>
-      <c r="E35" s="122"/>
-      <c r="F35" s="122"/>
-      <c r="G35" s="122"/>
-      <c r="H35" s="122"/>
-      <c r="I35" s="122"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="122"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="122"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="7"/>
-    </row>
-    <row r="36" ht="16.5" customHeight="1">
-      <c r="A36" t="s" s="28">
+      <c r="B35" s="175"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
+      <c r="E35" s="175"/>
+      <c r="F35" s="175"/>
+      <c r="G35" s="175"/>
+      <c r="H35" s="175"/>
+      <c r="I35" s="175"/>
+      <c r="J35" s="175"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="175"/>
+      <c r="M35" s="175"/>
+      <c r="N35" s="175"/>
+      <c r="O35" s="5"/>
+      <c r="P35" s="5"/>
+      <c r="Q35" s="5"/>
+      <c r="R35" s="5"/>
+      <c r="S35" s="6"/>
+    </row>
+    <row r="36" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A36" s="116" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="29"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-      <c r="F36" s="29"/>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="30"/>
-      <c r="L36" t="s" s="28">
+      <c r="B36" s="117"/>
+      <c r="C36" s="117"/>
+      <c r="D36" s="117"/>
+      <c r="E36" s="117"/>
+      <c r="F36" s="117"/>
+      <c r="G36" s="117"/>
+      <c r="H36" s="117"/>
+      <c r="I36" s="117"/>
+      <c r="J36" s="117"/>
+      <c r="K36" s="118"/>
+      <c r="L36" s="116" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="29"/>
-      <c r="N36" s="30"/>
-      <c r="O36" s="16"/>
-      <c r="P36" s="6"/>
-      <c r="Q36" s="6"/>
-      <c r="R36" s="6"/>
-      <c r="S36" s="7"/>
-    </row>
-    <row r="37" ht="16.5" customHeight="1">
-      <c r="A37" t="s" s="123">
+      <c r="M36" s="117"/>
+      <c r="N36" s="118"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="5"/>
+      <c r="Q36" s="5"/>
+      <c r="R36" s="5"/>
+      <c r="S36" s="6"/>
+    </row>
+    <row r="37" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A37" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B37" t="s" s="124">
+      <c r="B37" s="176" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="126"/>
-      <c r="H37" t="s" s="127">
+      <c r="C37" s="177"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
+      <c r="F37" s="177"/>
+      <c r="G37" s="178"/>
+      <c r="H37" s="179" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="128"/>
-      <c r="J37" s="129"/>
-      <c r="K37" t="s" s="130">
+      <c r="I37" s="180"/>
+      <c r="J37" s="181"/>
+      <c r="K37" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="L37" t="s" s="130">
+      <c r="L37" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="M37" t="s" s="130">
+      <c r="M37" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="N37" t="s" s="131">
+      <c r="N37" s="55" t="s">
         <v>58</v>
       </c>
-      <c r="O37" s="16"/>
-      <c r="P37" t="s" s="132">
+      <c r="O37" s="11"/>
+      <c r="P37" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="Q37" s="6"/>
-      <c r="R37" s="6"/>
-      <c r="S37" s="7"/>
-    </row>
-    <row r="38" ht="15" customHeight="1">
-      <c r="A38" s="133">
+      <c r="Q37" s="5"/>
+      <c r="R37" s="5"/>
+      <c r="S37" s="6"/>
+    </row>
+    <row r="38" spans="1:19" ht="15" customHeight="1">
+      <c r="A38" s="57">
         <v>7</v>
       </c>
-      <c r="B38" t="s" s="134">
+      <c r="B38" s="182" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="135"/>
-      <c r="D38" s="135"/>
-      <c r="E38" s="135"/>
-      <c r="F38" s="135"/>
-      <c r="G38" s="136"/>
-      <c r="H38" t="s" s="94">
+      <c r="C38" s="183"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="184"/>
+      <c r="H38" s="161" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="95"/>
-      <c r="J38" s="96"/>
-      <c r="K38" s="137">
+      <c r="I38" s="162"/>
+      <c r="J38" s="163"/>
+      <c r="K38" s="58">
         <v>4</v>
       </c>
-      <c r="L38" s="138">
+      <c r="L38" s="59">
         <v>0.2</v>
       </c>
-      <c r="M38" s="139"/>
-      <c r="N38" s="140"/>
-      <c r="O38" s="16"/>
-      <c r="P38" t="s" s="132">
+      <c r="M38" s="60"/>
+      <c r="N38" s="61"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="7"/>
-    </row>
-    <row r="39" ht="15" customHeight="1">
-      <c r="A39" s="141"/>
-      <c r="B39" s="103"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="92"/>
-      <c r="E39" s="92"/>
-      <c r="F39" s="92"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="104"/>
-      <c r="I39" s="105"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="142"/>
-      <c r="L39" s="143"/>
-      <c r="M39" s="144"/>
-      <c r="N39" s="140"/>
-      <c r="O39" s="16"/>
-      <c r="P39" t="s" s="132">
+      <c r="Q38" s="5"/>
+      <c r="R38" s="5"/>
+      <c r="S38" s="6"/>
+    </row>
+    <row r="39" spans="1:19" ht="15" customHeight="1">
+      <c r="A39" s="62"/>
+      <c r="B39" s="164"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="160"/>
+      <c r="H39" s="165"/>
+      <c r="I39" s="166"/>
+      <c r="J39" s="167"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="65"/>
+      <c r="N39" s="61"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="Q39" s="6"/>
-      <c r="R39" s="6"/>
-      <c r="S39" s="7"/>
-    </row>
-    <row r="40" ht="15" customHeight="1">
-      <c r="A40" s="141"/>
-      <c r="B40" s="103"/>
-      <c r="C40" s="92"/>
-      <c r="D40" s="92"/>
-      <c r="E40" s="92"/>
-      <c r="F40" s="92"/>
-      <c r="G40" s="93"/>
-      <c r="H40" s="104"/>
-      <c r="I40" s="105"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="142"/>
-      <c r="L40" s="143"/>
-      <c r="M40" s="144"/>
-      <c r="N40" s="140"/>
-      <c r="O40" s="16"/>
-      <c r="P40" t="s" s="132">
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="6"/>
+    </row>
+    <row r="40" spans="1:19" ht="15" customHeight="1">
+      <c r="A40" s="62"/>
+      <c r="B40" s="164"/>
+      <c r="C40" s="159"/>
+      <c r="D40" s="159"/>
+      <c r="E40" s="159"/>
+      <c r="F40" s="159"/>
+      <c r="G40" s="160"/>
+      <c r="H40" s="165"/>
+      <c r="I40" s="166"/>
+      <c r="J40" s="167"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="64"/>
+      <c r="M40" s="65"/>
+      <c r="N40" s="61"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="7"/>
-    </row>
-    <row r="41" ht="15" customHeight="1">
-      <c r="A41" s="141"/>
-      <c r="B41" s="103"/>
-      <c r="C41" s="92"/>
-      <c r="D41" s="92"/>
-      <c r="E41" s="92"/>
-      <c r="F41" s="92"/>
-      <c r="G41" s="93"/>
-      <c r="H41" s="104"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="106"/>
-      <c r="K41" s="142"/>
-      <c r="L41" s="143"/>
-      <c r="M41" s="144"/>
-      <c r="N41" s="140"/>
-      <c r="O41" s="16"/>
-      <c r="P41" t="s" s="132">
+      <c r="Q40" s="5"/>
+      <c r="R40" s="5"/>
+      <c r="S40" s="6"/>
+    </row>
+    <row r="41" spans="1:19" ht="15" customHeight="1">
+      <c r="A41" s="62"/>
+      <c r="B41" s="164"/>
+      <c r="C41" s="159"/>
+      <c r="D41" s="159"/>
+      <c r="E41" s="159"/>
+      <c r="F41" s="159"/>
+      <c r="G41" s="160"/>
+      <c r="H41" s="165"/>
+      <c r="I41" s="166"/>
+      <c r="J41" s="167"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="64"/>
+      <c r="M41" s="65"/>
+      <c r="N41" s="61"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="Q41" s="6"/>
-      <c r="R41" s="6"/>
-      <c r="S41" s="7"/>
-    </row>
-    <row r="42" ht="15" customHeight="1">
-      <c r="A42" s="141"/>
-      <c r="B42" s="103"/>
-      <c r="C42" s="92"/>
-      <c r="D42" s="92"/>
-      <c r="E42" s="92"/>
-      <c r="F42" s="92"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="104"/>
-      <c r="I42" s="105"/>
-      <c r="J42" s="106"/>
-      <c r="K42" s="142"/>
-      <c r="L42" s="143"/>
-      <c r="M42" s="144"/>
-      <c r="N42" s="140"/>
-      <c r="O42" s="16"/>
-      <c r="P42" t="s" s="132">
+      <c r="Q41" s="5"/>
+      <c r="R41" s="5"/>
+      <c r="S41" s="6"/>
+    </row>
+    <row r="42" spans="1:19" ht="15" customHeight="1">
+      <c r="A42" s="62"/>
+      <c r="B42" s="164"/>
+      <c r="C42" s="159"/>
+      <c r="D42" s="159"/>
+      <c r="E42" s="159"/>
+      <c r="F42" s="159"/>
+      <c r="G42" s="160"/>
+      <c r="H42" s="165"/>
+      <c r="I42" s="166"/>
+      <c r="J42" s="167"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="64"/>
+      <c r="M42" s="65"/>
+      <c r="N42" s="61"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="Q42" s="6"/>
-      <c r="R42" s="6"/>
-      <c r="S42" s="7"/>
-    </row>
-    <row r="43" ht="15" customHeight="1">
-      <c r="A43" s="141"/>
-      <c r="B43" s="103"/>
-      <c r="C43" s="92"/>
-      <c r="D43" s="92"/>
-      <c r="E43" s="92"/>
-      <c r="F43" s="92"/>
-      <c r="G43" s="93"/>
-      <c r="H43" s="104"/>
-      <c r="I43" s="105"/>
-      <c r="J43" s="106"/>
-      <c r="K43" s="142"/>
-      <c r="L43" s="143"/>
-      <c r="M43" s="144"/>
-      <c r="N43" s="140"/>
-      <c r="O43" s="16"/>
-      <c r="P43" t="s" s="132">
+      <c r="Q42" s="5"/>
+      <c r="R42" s="5"/>
+      <c r="S42" s="6"/>
+    </row>
+    <row r="43" spans="1:19" ht="15" customHeight="1">
+      <c r="A43" s="62"/>
+      <c r="B43" s="164"/>
+      <c r="C43" s="159"/>
+      <c r="D43" s="159"/>
+      <c r="E43" s="159"/>
+      <c r="F43" s="159"/>
+      <c r="G43" s="160"/>
+      <c r="H43" s="165"/>
+      <c r="I43" s="166"/>
+      <c r="J43" s="167"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="64"/>
+      <c r="M43" s="65"/>
+      <c r="N43" s="61"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="Q43" s="6"/>
-      <c r="R43" s="6"/>
-      <c r="S43" s="7"/>
-    </row>
-    <row r="44" ht="15" customHeight="1">
-      <c r="A44" s="145"/>
-      <c r="B44" s="110"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="112"/>
-      <c r="H44" s="113"/>
-      <c r="I44" s="114"/>
-      <c r="J44" s="115"/>
-      <c r="K44" s="146"/>
-      <c r="L44" s="147"/>
-      <c r="M44" s="148"/>
-      <c r="N44" s="149"/>
-      <c r="O44" s="16"/>
-      <c r="P44" t="s" s="132">
+      <c r="Q43" s="5"/>
+      <c r="R43" s="5"/>
+      <c r="S43" s="6"/>
+    </row>
+    <row r="44" spans="1:19" ht="15" customHeight="1">
+      <c r="A44" s="66"/>
+      <c r="B44" s="168"/>
+      <c r="C44" s="169"/>
+      <c r="D44" s="169"/>
+      <c r="E44" s="169"/>
+      <c r="F44" s="169"/>
+      <c r="G44" s="170"/>
+      <c r="H44" s="171"/>
+      <c r="I44" s="172"/>
+      <c r="J44" s="173"/>
+      <c r="K44" s="67"/>
+      <c r="L44" s="68"/>
+      <c r="M44" s="69"/>
+      <c r="N44" s="70"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="Q44" s="6"/>
-      <c r="R44" s="6"/>
-      <c r="S44" s="7"/>
-    </row>
-    <row r="45" ht="16.5" customHeight="1">
-      <c r="A45" t="s" s="28">
+      <c r="Q44" s="5"/>
+      <c r="R44" s="5"/>
+      <c r="S44" s="6"/>
+    </row>
+    <row r="45" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A45" s="116" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="29"/>
-      <c r="C45" s="29"/>
-      <c r="D45" s="29"/>
-      <c r="E45" s="29"/>
-      <c r="F45" s="29"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="29"/>
-      <c r="I45" s="29"/>
-      <c r="J45" s="29"/>
-      <c r="K45" s="29"/>
-      <c r="L45" s="29"/>
-      <c r="M45" s="30"/>
-      <c r="N45" s="82">
+      <c r="B45" s="117"/>
+      <c r="C45" s="117"/>
+      <c r="D45" s="117"/>
+      <c r="E45" s="117"/>
+      <c r="F45" s="117"/>
+      <c r="G45" s="117"/>
+      <c r="H45" s="117"/>
+      <c r="I45" s="117"/>
+      <c r="J45" s="117"/>
+      <c r="K45" s="117"/>
+      <c r="L45" s="117"/>
+      <c r="M45" s="118"/>
+      <c r="N45" s="37">
         <f>SUM(H38,H39,H40,H41,H43,H44,N38,N39,N40,N41,N43,N44)</f>
         <v>0</v>
       </c>
-      <c r="O45" s="16"/>
-      <c r="P45" s="6"/>
-      <c r="Q45" s="6"/>
-      <c r="R45" s="6"/>
-      <c r="S45" s="7"/>
-    </row>
-    <row r="46" ht="14.4" customHeight="1">
-      <c r="A46" s="25"/>
-      <c r="B46" s="20"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20"/>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="20"/>
-      <c r="M46" s="20"/>
-      <c r="N46" s="20"/>
-      <c r="O46" s="6"/>
-      <c r="P46" s="6"/>
-      <c r="Q46" s="6"/>
-      <c r="R46" s="6"/>
-      <c r="S46" s="7"/>
-    </row>
-    <row r="47" ht="14.4" customHeight="1">
-      <c r="A47" t="s" s="150">
+      <c r="O45" s="11"/>
+      <c r="P45" s="5"/>
+      <c r="Q45" s="5"/>
+      <c r="R45" s="5"/>
+      <c r="S45" s="6"/>
+    </row>
+    <row r="46" spans="1:19" ht="14.4" customHeight="1">
+      <c r="A46" s="16"/>
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+      <c r="J46" s="15"/>
+      <c r="K46" s="15"/>
+      <c r="L46" s="15"/>
+      <c r="M46" s="15"/>
+      <c r="N46" s="15"/>
+      <c r="O46" s="5"/>
+      <c r="P46" s="5"/>
+      <c r="Q46" s="5"/>
+      <c r="R46" s="5"/>
+      <c r="S46" s="6"/>
+    </row>
+    <row r="47" spans="1:19" ht="14.4" customHeight="1">
+      <c r="A47" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="6"/>
-      <c r="H47" s="6"/>
-      <c r="I47" s="6"/>
-      <c r="J47" s="6"/>
-      <c r="K47" s="6"/>
-      <c r="L47" s="6"/>
-      <c r="M47" s="6"/>
-      <c r="N47" s="6"/>
-      <c r="O47" s="6"/>
-      <c r="P47" s="6"/>
-      <c r="Q47" s="6"/>
-      <c r="R47" s="6"/>
-      <c r="S47" s="7"/>
-    </row>
-    <row r="48" ht="16.5" customHeight="1">
-      <c r="A48" t="s" s="151">
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="5"/>
+      <c r="M47" s="5"/>
+      <c r="N47" s="5"/>
+      <c r="O47" s="5"/>
+      <c r="P47" s="5"/>
+      <c r="Q47" s="5"/>
+      <c r="R47" s="5"/>
+      <c r="S47" s="6"/>
+    </row>
+    <row r="48" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A48" s="185" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="152"/>
-      <c r="C48" s="152"/>
-      <c r="D48" s="152"/>
-      <c r="E48" s="152"/>
-      <c r="F48" s="152"/>
-      <c r="G48" s="152"/>
-      <c r="H48" s="152"/>
-      <c r="I48" s="152"/>
-      <c r="J48" s="152"/>
-      <c r="K48" s="152"/>
-      <c r="L48" s="152"/>
-      <c r="M48" s="152"/>
-      <c r="N48" s="152"/>
-      <c r="O48" s="6"/>
-      <c r="P48" s="6"/>
-      <c r="Q48" s="6"/>
-      <c r="R48" s="6"/>
-      <c r="S48" s="7"/>
-    </row>
-    <row r="49" ht="16.5" customHeight="1">
-      <c r="A49" t="s" s="153">
+      <c r="B48" s="186"/>
+      <c r="C48" s="186"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="H48" s="186"/>
+      <c r="I48" s="186"/>
+      <c r="J48" s="186"/>
+      <c r="K48" s="186"/>
+      <c r="L48" s="186"/>
+      <c r="M48" s="186"/>
+      <c r="N48" s="186"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="6"/>
+    </row>
+    <row r="49" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A49" s="187" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="154"/>
-      <c r="C49" t="s" s="155">
+      <c r="B49" s="188"/>
+      <c r="C49" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="D49" t="s" s="155">
+      <c r="D49" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="E49" t="s" s="155">
+      <c r="E49" s="189" t="s">
         <v>74</v>
       </c>
-      <c r="F49" t="s" s="155">
+      <c r="F49" s="189" t="s">
         <v>75</v>
       </c>
-      <c r="G49" t="s" s="156">
+      <c r="G49" s="191" t="s">
         <v>76</v>
       </c>
-      <c r="H49" t="s" s="157">
+      <c r="H49" s="193" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="158"/>
-      <c r="J49" s="158"/>
-      <c r="K49" s="158"/>
-      <c r="L49" s="158"/>
-      <c r="M49" s="158"/>
-      <c r="N49" s="159"/>
-      <c r="O49" s="160"/>
-      <c r="P49" s="6"/>
-      <c r="Q49" s="6"/>
-      <c r="R49" s="6"/>
-      <c r="S49" s="7"/>
-    </row>
-    <row r="50" ht="16.5" customHeight="1">
-      <c r="A50" t="s" s="123">
+      <c r="I49" s="194"/>
+      <c r="J49" s="194"/>
+      <c r="K49" s="194"/>
+      <c r="L49" s="194"/>
+      <c r="M49" s="194"/>
+      <c r="N49" s="195"/>
+      <c r="O49" s="72"/>
+      <c r="P49" s="5"/>
+      <c r="Q49" s="5"/>
+      <c r="R49" s="5"/>
+      <c r="S49" s="6"/>
+    </row>
+    <row r="50" spans="1:19" ht="16.5" customHeight="1">
+      <c r="A50" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="B50" t="s" s="123">
+      <c r="B50" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="161"/>
-      <c r="D50" s="161"/>
-      <c r="E50" s="161"/>
-      <c r="F50" s="161"/>
-      <c r="G50" s="162"/>
-      <c r="H50" t="s" s="163">
+      <c r="C50" s="190"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="190"/>
+      <c r="G50" s="192"/>
+      <c r="H50" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="I50" t="s" s="127">
+      <c r="I50" s="179" t="s">
         <v>80</v>
       </c>
-      <c r="J50" s="128"/>
-      <c r="K50" s="129"/>
-      <c r="L50" t="s" s="130">
+      <c r="J50" s="180"/>
+      <c r="K50" s="181"/>
+      <c r="L50" s="196" t="s">
         <v>81</v>
       </c>
-      <c r="M50" s="164"/>
-      <c r="N50" t="s" s="165">
+      <c r="M50" s="197"/>
+      <c r="N50" s="74" t="s">
         <v>82</v>
       </c>
-      <c r="O50" s="160"/>
-      <c r="P50" s="6"/>
-      <c r="Q50" s="6"/>
-      <c r="R50" s="6"/>
-      <c r="S50" s="7"/>
-    </row>
-    <row r="51" ht="15" customHeight="1">
-      <c r="A51" t="s" s="166">
+      <c r="O50" s="72"/>
+      <c r="P50" s="5"/>
+      <c r="Q50" s="5"/>
+      <c r="R50" s="5"/>
+      <c r="S50" s="6"/>
+    </row>
+    <row r="51" spans="1:19" ht="15" customHeight="1">
+      <c r="A51" s="75" t="s">
         <v>83</v>
       </c>
-      <c r="B51" s="167"/>
-      <c r="C51" s="168"/>
-      <c r="D51" s="168"/>
-      <c r="E51" s="168"/>
-      <c r="F51" s="168"/>
-      <c r="G51" s="169"/>
-      <c r="H51" s="170"/>
-      <c r="I51" s="171"/>
-      <c r="J51" s="171"/>
-      <c r="K51" s="171"/>
-      <c r="L51" s="172"/>
-      <c r="M51" s="173"/>
-      <c r="N51" s="174"/>
-      <c r="O51" s="160"/>
-      <c r="P51" t="s" s="175">
+      <c r="B51" s="76"/>
+      <c r="C51" s="77"/>
+      <c r="D51" s="77"/>
+      <c r="E51" s="77"/>
+      <c r="F51" s="77"/>
+      <c r="G51" s="198"/>
+      <c r="H51" s="78"/>
+      <c r="I51" s="201"/>
+      <c r="J51" s="201"/>
+      <c r="K51" s="201"/>
+      <c r="L51" s="202"/>
+      <c r="M51" s="203"/>
+      <c r="N51" s="79"/>
+      <c r="O51" s="72"/>
+      <c r="P51" s="204" t="s">
         <v>84</v>
       </c>
-      <c r="Q51" s="6"/>
-      <c r="R51" s="6"/>
-      <c r="S51" s="7"/>
-    </row>
-    <row r="52" ht="15" customHeight="1">
-      <c r="A52" t="s" s="176">
+      <c r="Q51" s="102"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="6"/>
+    </row>
+    <row r="52" spans="1:19" ht="15" customHeight="1">
+      <c r="A52" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="B52" s="177"/>
-      <c r="C52" s="178"/>
-      <c r="D52" s="178"/>
-      <c r="E52" s="178"/>
-      <c r="F52" s="178"/>
-      <c r="G52" s="179"/>
-      <c r="H52" s="180"/>
-      <c r="I52" s="181"/>
-      <c r="J52" s="181"/>
-      <c r="K52" s="181"/>
-      <c r="L52" s="182"/>
-      <c r="M52" s="183"/>
-      <c r="N52" s="184"/>
-      <c r="O52" s="160"/>
-      <c r="P52" s="6"/>
-      <c r="Q52" s="6"/>
-      <c r="R52" s="6"/>
-      <c r="S52" s="7"/>
-    </row>
-    <row r="53" ht="15" customHeight="1">
-      <c r="A53" t="s" s="176">
+      <c r="B52" s="81"/>
+      <c r="C52" s="82"/>
+      <c r="D52" s="82"/>
+      <c r="E52" s="82"/>
+      <c r="F52" s="82"/>
+      <c r="G52" s="199"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="205"/>
+      <c r="J52" s="205"/>
+      <c r="K52" s="205"/>
+      <c r="L52" s="206"/>
+      <c r="M52" s="207"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="72"/>
+      <c r="P52" s="102"/>
+      <c r="Q52" s="102"/>
+      <c r="R52" s="5"/>
+      <c r="S52" s="6"/>
+    </row>
+    <row r="53" spans="1:19" ht="15" customHeight="1">
+      <c r="A53" s="80" t="s">
         <v>86</v>
       </c>
-      <c r="B53" s="177"/>
-      <c r="C53" s="178"/>
-      <c r="D53" s="178"/>
-      <c r="E53" s="178"/>
-      <c r="F53" s="178"/>
-      <c r="G53" s="179"/>
-      <c r="H53" s="180"/>
-      <c r="I53" s="181"/>
-      <c r="J53" s="181"/>
-      <c r="K53" s="181"/>
-      <c r="L53" s="182"/>
-      <c r="M53" s="183"/>
-      <c r="N53" s="184"/>
-      <c r="O53" s="160"/>
-      <c r="P53" s="6"/>
-      <c r="Q53" s="6"/>
-      <c r="R53" s="6"/>
-      <c r="S53" s="7"/>
-    </row>
-    <row r="54" ht="15" customHeight="1">
-      <c r="A54" t="s" s="176">
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="82"/>
+      <c r="E53" s="82"/>
+      <c r="F53" s="82"/>
+      <c r="G53" s="199"/>
+      <c r="H53" s="83"/>
+      <c r="I53" s="205"/>
+      <c r="J53" s="205"/>
+      <c r="K53" s="205"/>
+      <c r="L53" s="206"/>
+      <c r="M53" s="207"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="72"/>
+      <c r="P53" s="102"/>
+      <c r="Q53" s="102"/>
+      <c r="R53" s="5"/>
+      <c r="S53" s="6"/>
+    </row>
+    <row r="54" spans="1:19" ht="15" customHeight="1">
+      <c r="A54" s="80" t="s">
         <v>87</v>
       </c>
-      <c r="B54" s="177"/>
-      <c r="C54" s="178"/>
-      <c r="D54" s="178"/>
-      <c r="E54" s="178"/>
-      <c r="F54" s="178"/>
-      <c r="G54" s="179"/>
-      <c r="H54" s="180"/>
-      <c r="I54" s="181"/>
-      <c r="J54" s="181"/>
-      <c r="K54" s="181"/>
-      <c r="L54" s="182"/>
-      <c r="M54" s="183"/>
-      <c r="N54" s="184"/>
-      <c r="O54" s="160"/>
-      <c r="P54" s="6"/>
-      <c r="Q54" s="6"/>
-      <c r="R54" s="6"/>
-      <c r="S54" s="7"/>
-    </row>
-    <row r="55" ht="15" customHeight="1">
-      <c r="A55" t="s" s="176">
+      <c r="B54" s="81"/>
+      <c r="C54" s="82"/>
+      <c r="D54" s="82"/>
+      <c r="E54" s="82"/>
+      <c r="F54" s="82"/>
+      <c r="G54" s="199"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="205"/>
+      <c r="J54" s="205"/>
+      <c r="K54" s="205"/>
+      <c r="L54" s="206"/>
+      <c r="M54" s="207"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="72"/>
+      <c r="P54" s="102"/>
+      <c r="Q54" s="102"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="6"/>
+    </row>
+    <row r="55" spans="1:19" ht="15" customHeight="1">
+      <c r="A55" s="80" t="s">
         <v>88</v>
       </c>
-      <c r="B55" s="177"/>
-      <c r="C55" s="178"/>
-      <c r="D55" s="178"/>
-      <c r="E55" s="178"/>
-      <c r="F55" s="178"/>
-      <c r="G55" s="179"/>
-      <c r="H55" s="180"/>
-      <c r="I55" s="181"/>
-      <c r="J55" s="181"/>
-      <c r="K55" s="181"/>
-      <c r="L55" s="182"/>
-      <c r="M55" s="183"/>
-      <c r="N55" s="184"/>
-      <c r="O55" s="160"/>
-      <c r="P55" s="6"/>
-      <c r="Q55" s="6"/>
-      <c r="R55" s="6"/>
-      <c r="S55" s="7"/>
-    </row>
-    <row r="56" ht="16" customHeight="1">
-      <c r="A56" t="s" s="185">
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="82"/>
+      <c r="E55" s="82"/>
+      <c r="F55" s="82"/>
+      <c r="G55" s="199"/>
+      <c r="H55" s="83"/>
+      <c r="I55" s="205"/>
+      <c r="J55" s="205"/>
+      <c r="K55" s="205"/>
+      <c r="L55" s="206"/>
+      <c r="M55" s="207"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="72"/>
+      <c r="P55" s="102"/>
+      <c r="Q55" s="102"/>
+      <c r="R55" s="5"/>
+      <c r="S55" s="6"/>
+    </row>
+    <row r="56" spans="1:19" ht="16.05" customHeight="1">
+      <c r="A56" s="85" t="s">
         <v>89</v>
       </c>
-      <c r="B56" s="186"/>
-      <c r="C56" s="187"/>
-      <c r="D56" s="187"/>
-      <c r="E56" s="187"/>
-      <c r="F56" s="187"/>
-      <c r="G56" s="188"/>
-      <c r="H56" s="189"/>
-      <c r="I56" s="190"/>
-      <c r="J56" s="190"/>
-      <c r="K56" s="190"/>
-      <c r="L56" s="191"/>
-      <c r="M56" s="192"/>
-      <c r="N56" s="193"/>
-      <c r="O56" s="160"/>
-      <c r="P56" s="6"/>
-      <c r="Q56" s="6"/>
-      <c r="R56" s="6"/>
-      <c r="S56" s="7"/>
-    </row>
-    <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" t="s" s="194">
+      <c r="B56" s="86"/>
+      <c r="C56" s="87"/>
+      <c r="D56" s="87"/>
+      <c r="E56" s="87"/>
+      <c r="F56" s="87"/>
+      <c r="G56" s="200"/>
+      <c r="H56" s="88"/>
+      <c r="I56" s="208"/>
+      <c r="J56" s="208"/>
+      <c r="K56" s="208"/>
+      <c r="L56" s="209"/>
+      <c r="M56" s="210"/>
+      <c r="N56" s="89"/>
+      <c r="O56" s="72"/>
+      <c r="P56" s="102"/>
+      <c r="Q56" s="102"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="6"/>
+    </row>
+    <row r="57" spans="1:19" ht="14.25" customHeight="1">
+      <c r="A57" s="90" t="s">
         <v>90</v>
       </c>
-      <c r="B57" s="195">
+      <c r="B57" s="91">
         <f>SUM(C57:G57)</f>
         <v>0</v>
       </c>
-      <c r="C57" s="196">
+      <c r="C57" s="92">
         <f>SUM(C51:C56)*-1</f>
         <v>0</v>
       </c>
-      <c r="D57" s="196">
+      <c r="D57" s="92">
         <f>SUM(D51:D56)*5</f>
         <v>0</v>
       </c>
-      <c r="E57" s="196">
+      <c r="E57" s="92">
         <f>SUM(E51:E56)*-1</f>
         <v>0</v>
       </c>
-      <c r="F57" s="196">
+      <c r="F57" s="92">
         <v>0</v>
       </c>
-      <c r="G57" s="197">
+      <c r="G57" s="93">
         <v>0</v>
       </c>
-      <c r="H57" t="s" s="198">
+      <c r="H57" s="221" t="s">
         <v>91</v>
       </c>
-      <c r="I57" s="199"/>
-      <c r="J57" s="199"/>
-      <c r="K57" s="200"/>
-      <c r="L57" s="201">
+      <c r="I57" s="222"/>
+      <c r="J57" s="222"/>
+      <c r="K57" s="223"/>
+      <c r="L57" s="224">
         <v>0</v>
       </c>
-      <c r="M57" s="202"/>
-      <c r="N57" s="203">
+      <c r="M57" s="225"/>
+      <c r="N57" s="94">
         <f>L57*3</f>
         <v>0</v>
       </c>
-      <c r="O57" s="160"/>
-      <c r="P57" s="6"/>
-      <c r="Q57" s="6"/>
-      <c r="R57" s="6"/>
-      <c r="S57" s="7"/>
-    </row>
-    <row r="58" ht="14.4" customHeight="1">
-      <c r="A58" s="204"/>
-      <c r="B58" s="205"/>
-      <c r="C58" s="205"/>
-      <c r="D58" s="205"/>
-      <c r="E58" s="205"/>
-      <c r="F58" s="205"/>
-      <c r="G58" s="205"/>
-      <c r="H58" s="205"/>
-      <c r="I58" s="205"/>
-      <c r="J58" s="205"/>
-      <c r="K58" s="205"/>
-      <c r="L58" s="205"/>
-      <c r="M58" s="205"/>
-      <c r="N58" s="205"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="7"/>
-    </row>
-    <row r="59" ht="14.4" customHeight="1">
-      <c r="A59" t="s" s="85">
+      <c r="O57" s="72"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="6"/>
+    </row>
+    <row r="58" spans="1:19" ht="14.4" customHeight="1">
+      <c r="A58" s="95"/>
+      <c r="B58" s="96"/>
+      <c r="C58" s="96"/>
+      <c r="D58" s="96"/>
+      <c r="E58" s="96"/>
+      <c r="F58" s="96"/>
+      <c r="G58" s="96"/>
+      <c r="H58" s="96"/>
+      <c r="I58" s="96"/>
+      <c r="J58" s="96"/>
+      <c r="K58" s="96"/>
+      <c r="L58" s="96"/>
+      <c r="M58" s="96"/>
+      <c r="N58" s="96"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="6"/>
+    </row>
+    <row r="59" spans="1:19" ht="14.4" customHeight="1">
+      <c r="A59" s="151" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="86"/>
-      <c r="C59" s="86"/>
-      <c r="D59" s="86"/>
-      <c r="E59" s="86"/>
-      <c r="F59" s="86"/>
-      <c r="G59" s="86"/>
-      <c r="H59" s="86"/>
-      <c r="I59" s="86"/>
-      <c r="J59" s="86"/>
-      <c r="K59" s="86"/>
-      <c r="L59" s="86"/>
-      <c r="M59" s="86"/>
-      <c r="N59" s="86"/>
-      <c r="O59" s="6"/>
-      <c r="P59" s="6"/>
-      <c r="Q59" s="6"/>
-      <c r="R59" s="6"/>
-      <c r="S59" s="7"/>
-    </row>
-    <row r="60" ht="16" customHeight="1">
-      <c r="A60" t="s" s="123">
+      <c r="B59" s="152"/>
+      <c r="C59" s="152"/>
+      <c r="D59" s="152"/>
+      <c r="E59" s="152"/>
+      <c r="F59" s="152"/>
+      <c r="G59" s="152"/>
+      <c r="H59" s="152"/>
+      <c r="I59" s="152"/>
+      <c r="J59" s="152"/>
+      <c r="K59" s="152"/>
+      <c r="L59" s="152"/>
+      <c r="M59" s="152"/>
+      <c r="N59" s="152"/>
+      <c r="O59" s="5"/>
+      <c r="P59" s="5"/>
+      <c r="Q59" s="5"/>
+      <c r="R59" s="5"/>
+      <c r="S59" s="6"/>
+    </row>
+    <row r="60" spans="1:19" ht="16.05" customHeight="1">
+      <c r="A60" s="226" t="s">
         <v>93</v>
       </c>
-      <c r="B60" t="s" s="206">
+      <c r="B60" s="227" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="207"/>
-      <c r="D60" s="207"/>
-      <c r="E60" s="207"/>
-      <c r="F60" s="207"/>
-      <c r="G60" s="207"/>
-      <c r="H60" s="207"/>
-      <c r="I60" s="207"/>
-      <c r="J60" s="207"/>
-      <c r="K60" s="208"/>
-      <c r="L60" t="s" s="127">
+      <c r="C60" s="228"/>
+      <c r="D60" s="228"/>
+      <c r="E60" s="228"/>
+      <c r="F60" s="228"/>
+      <c r="G60" s="228"/>
+      <c r="H60" s="228"/>
+      <c r="I60" s="228"/>
+      <c r="J60" s="228"/>
+      <c r="K60" s="229"/>
+      <c r="L60" s="179" t="s">
         <v>95</v>
       </c>
-      <c r="M60" s="128"/>
-      <c r="N60" s="129"/>
-      <c r="O60" s="16"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="7"/>
-    </row>
-    <row r="61" ht="16" customHeight="1">
-      <c r="A61" s="161"/>
-      <c r="B61" s="209"/>
-      <c r="C61" s="210"/>
-      <c r="D61" s="210"/>
-      <c r="E61" s="210"/>
-      <c r="F61" s="210"/>
-      <c r="G61" s="210"/>
-      <c r="H61" s="210"/>
-      <c r="I61" s="210"/>
-      <c r="J61" s="210"/>
-      <c r="K61" s="211"/>
-      <c r="L61" t="s" s="123">
+      <c r="M60" s="180"/>
+      <c r="N60" s="181"/>
+      <c r="O60" s="11"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="6"/>
+    </row>
+    <row r="61" spans="1:19" ht="16.05" customHeight="1">
+      <c r="A61" s="190"/>
+      <c r="B61" s="230"/>
+      <c r="C61" s="231"/>
+      <c r="D61" s="231"/>
+      <c r="E61" s="231"/>
+      <c r="F61" s="231"/>
+      <c r="G61" s="231"/>
+      <c r="H61" s="231"/>
+      <c r="I61" s="231"/>
+      <c r="J61" s="231"/>
+      <c r="K61" s="232"/>
+      <c r="L61" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="M61" t="s" s="123">
+      <c r="M61" s="53" t="s">
         <v>96</v>
       </c>
-      <c r="N61" t="s" s="130">
+      <c r="N61" s="54" t="s">
         <v>97</v>
       </c>
-      <c r="O61" s="16"/>
-      <c r="P61" s="6"/>
-      <c r="Q61" s="6"/>
-      <c r="R61" s="6"/>
-      <c r="S61" s="7"/>
-    </row>
-    <row r="62" ht="13.5" customHeight="1">
-      <c r="A62" t="s" s="123">
+      <c r="O61" s="11"/>
+      <c r="P61" s="5"/>
+      <c r="Q61" s="5"/>
+      <c r="R61" s="5"/>
+      <c r="S61" s="6"/>
+    </row>
+    <row r="62" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A62" s="226" t="s">
         <v>98</v>
       </c>
-      <c r="B62" t="s" s="212">
+      <c r="B62" s="233" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="213"/>
-      <c r="D62" s="213"/>
-      <c r="E62" s="213"/>
-      <c r="F62" s="213"/>
-      <c r="G62" s="213"/>
-      <c r="H62" s="213"/>
-      <c r="I62" s="213"/>
-      <c r="J62" s="213"/>
-      <c r="K62" s="214"/>
-      <c r="L62" t="s" s="131">
+      <c r="C62" s="234"/>
+      <c r="D62" s="234"/>
+      <c r="E62" s="234"/>
+      <c r="F62" s="234"/>
+      <c r="G62" s="234"/>
+      <c r="H62" s="234"/>
+      <c r="I62" s="234"/>
+      <c r="J62" s="234"/>
+      <c r="K62" s="235"/>
+      <c r="L62" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="M62" s="137">
+      <c r="M62" s="58">
         <v>5</v>
       </c>
-      <c r="N62" s="215">
+      <c r="N62" s="219">
         <f>IF(ISERROR(AVERAGE(M63:M64)),0,ROUNDUP(AVERAGE(M63:M64),1))</f>
         <v>0</v>
       </c>
-      <c r="O62" s="16"/>
-      <c r="P62" t="s" s="216">
+      <c r="O62" s="11"/>
+      <c r="P62" s="220" t="s">
         <v>101</v>
       </c>
-      <c r="Q62" s="6"/>
-      <c r="R62" s="6"/>
-      <c r="S62" s="7"/>
-    </row>
-    <row r="63" ht="14.4" customHeight="1">
-      <c r="A63" s="161"/>
-      <c r="B63" s="217"/>
-      <c r="C63" s="213"/>
-      <c r="D63" s="213"/>
-      <c r="E63" s="213"/>
-      <c r="F63" s="213"/>
-      <c r="G63" s="213"/>
-      <c r="H63" s="213"/>
-      <c r="I63" s="213"/>
-      <c r="J63" s="213"/>
-      <c r="K63" s="214"/>
-      <c r="L63" t="s" s="218">
+      <c r="Q62" s="102"/>
+      <c r="R62" s="102"/>
+      <c r="S62" s="239"/>
+    </row>
+    <row r="63" spans="1:19" ht="14.4" customHeight="1">
+      <c r="A63" s="190"/>
+      <c r="B63" s="236"/>
+      <c r="C63" s="234"/>
+      <c r="D63" s="234"/>
+      <c r="E63" s="234"/>
+      <c r="F63" s="234"/>
+      <c r="G63" s="234"/>
+      <c r="H63" s="234"/>
+      <c r="I63" s="234"/>
+      <c r="J63" s="234"/>
+      <c r="K63" s="235"/>
+      <c r="L63" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="M63" s="141"/>
-      <c r="N63" s="12"/>
-      <c r="O63" s="16"/>
-      <c r="P63" s="6"/>
-      <c r="Q63" s="6"/>
-      <c r="R63" s="6"/>
-      <c r="S63" s="7"/>
-    </row>
-    <row r="64" ht="14.4" customHeight="1">
-      <c r="A64" s="161"/>
-      <c r="B64" s="217"/>
-      <c r="C64" s="213"/>
-      <c r="D64" s="213"/>
-      <c r="E64" s="213"/>
-      <c r="F64" s="213"/>
-      <c r="G64" s="213"/>
-      <c r="H64" s="213"/>
-      <c r="I64" s="213"/>
-      <c r="J64" s="213"/>
-      <c r="K64" s="214"/>
-      <c r="L64" t="s" s="218">
+      <c r="M63" s="62"/>
+      <c r="N63" s="104"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="102"/>
+      <c r="Q63" s="102"/>
+      <c r="R63" s="102"/>
+      <c r="S63" s="239"/>
+    </row>
+    <row r="64" spans="1:19" ht="14.4" customHeight="1">
+      <c r="A64" s="190"/>
+      <c r="B64" s="236"/>
+      <c r="C64" s="234"/>
+      <c r="D64" s="234"/>
+      <c r="E64" s="234"/>
+      <c r="F64" s="234"/>
+      <c r="G64" s="234"/>
+      <c r="H64" s="234"/>
+      <c r="I64" s="234"/>
+      <c r="J64" s="234"/>
+      <c r="K64" s="235"/>
+      <c r="L64" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="M64" s="145"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="16"/>
-      <c r="P64" s="6"/>
-      <c r="Q64" s="6"/>
-      <c r="R64" s="6"/>
-      <c r="S64" s="7"/>
-    </row>
-    <row r="65" ht="13.5" customHeight="1">
-      <c r="A65" s="161"/>
-      <c r="B65" t="s" s="212">
+      <c r="M64" s="66"/>
+      <c r="N64" s="104"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="102"/>
+      <c r="Q64" s="102"/>
+      <c r="R64" s="102"/>
+      <c r="S64" s="239"/>
+    </row>
+    <row r="65" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A65" s="190"/>
+      <c r="B65" s="233" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="213"/>
-      <c r="D65" s="213"/>
-      <c r="E65" s="213"/>
-      <c r="F65" s="213"/>
-      <c r="G65" s="213"/>
-      <c r="H65" s="213"/>
-      <c r="I65" s="213"/>
-      <c r="J65" s="213"/>
-      <c r="K65" s="214"/>
-      <c r="L65" t="s" s="218">
+      <c r="C65" s="234"/>
+      <c r="D65" s="234"/>
+      <c r="E65" s="234"/>
+      <c r="F65" s="234"/>
+      <c r="G65" s="234"/>
+      <c r="H65" s="234"/>
+      <c r="I65" s="234"/>
+      <c r="J65" s="234"/>
+      <c r="K65" s="235"/>
+      <c r="L65" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="M65" s="137">
+      <c r="M65" s="58">
         <v>5</v>
       </c>
-      <c r="N65" s="215">
+      <c r="N65" s="219">
         <f>IF(ISERROR(AVERAGE(M66:M67)),0,ROUNDUP(AVERAGE(M66:M67),1))</f>
         <v>0</v>
       </c>
-      <c r="O65" s="16"/>
-      <c r="P65" t="s" s="216">
+      <c r="O65" s="11"/>
+      <c r="P65" s="220" t="s">
         <v>105</v>
       </c>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="7"/>
-    </row>
-    <row r="66" ht="18.75" customHeight="1">
-      <c r="A66" s="161"/>
-      <c r="B66" s="217"/>
-      <c r="C66" s="213"/>
-      <c r="D66" s="213"/>
-      <c r="E66" s="213"/>
-      <c r="F66" s="213"/>
-      <c r="G66" s="213"/>
-      <c r="H66" s="213"/>
-      <c r="I66" s="213"/>
-      <c r="J66" s="213"/>
-      <c r="K66" s="214"/>
-      <c r="L66" t="s" s="218">
+      <c r="Q65" s="102"/>
+      <c r="R65" s="102"/>
+      <c r="S65" s="239"/>
+    </row>
+    <row r="66" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A66" s="190"/>
+      <c r="B66" s="236"/>
+      <c r="C66" s="234"/>
+      <c r="D66" s="234"/>
+      <c r="E66" s="234"/>
+      <c r="F66" s="234"/>
+      <c r="G66" s="234"/>
+      <c r="H66" s="234"/>
+      <c r="I66" s="234"/>
+      <c r="J66" s="234"/>
+      <c r="K66" s="235"/>
+      <c r="L66" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="M66" s="141"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="16"/>
-      <c r="P66" s="6"/>
-      <c r="Q66" s="6"/>
-      <c r="R66" s="6"/>
-      <c r="S66" s="7"/>
-    </row>
-    <row r="67" ht="18.75" customHeight="1">
-      <c r="A67" s="161"/>
-      <c r="B67" s="217"/>
-      <c r="C67" s="213"/>
-      <c r="D67" s="213"/>
-      <c r="E67" s="213"/>
-      <c r="F67" s="213"/>
-      <c r="G67" s="213"/>
-      <c r="H67" s="213"/>
-      <c r="I67" s="213"/>
-      <c r="J67" s="213"/>
-      <c r="K67" s="214"/>
-      <c r="L67" t="s" s="219">
+      <c r="M66" s="62"/>
+      <c r="N66" s="104"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="102"/>
+      <c r="Q66" s="102"/>
+      <c r="R66" s="102"/>
+      <c r="S66" s="239"/>
+    </row>
+    <row r="67" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A67" s="190"/>
+      <c r="B67" s="236"/>
+      <c r="C67" s="234"/>
+      <c r="D67" s="234"/>
+      <c r="E67" s="234"/>
+      <c r="F67" s="234"/>
+      <c r="G67" s="234"/>
+      <c r="H67" s="234"/>
+      <c r="I67" s="234"/>
+      <c r="J67" s="234"/>
+      <c r="K67" s="235"/>
+      <c r="L67" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="M67" s="145"/>
-      <c r="N67" s="12"/>
-      <c r="O67" s="16"/>
-      <c r="P67" s="6"/>
-      <c r="Q67" s="6"/>
-      <c r="R67" s="6"/>
-      <c r="S67" s="7"/>
-    </row>
-    <row r="68" ht="18.75" customHeight="1">
-      <c r="A68" t="s" s="123">
+      <c r="M67" s="66"/>
+      <c r="N67" s="104"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="102"/>
+      <c r="S67" s="239"/>
+    </row>
+    <row r="68" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A68" s="226" t="s">
         <v>106</v>
       </c>
-      <c r="B68" t="s" s="212">
+      <c r="B68" s="233" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="213"/>
-      <c r="D68" s="213"/>
-      <c r="E68" s="213"/>
-      <c r="F68" s="213"/>
-      <c r="G68" s="213"/>
-      <c r="H68" s="213"/>
-      <c r="I68" s="213"/>
-      <c r="J68" s="213"/>
-      <c r="K68" s="214"/>
-      <c r="L68" t="s" s="131">
+      <c r="C68" s="234"/>
+      <c r="D68" s="234"/>
+      <c r="E68" s="234"/>
+      <c r="F68" s="234"/>
+      <c r="G68" s="234"/>
+      <c r="H68" s="234"/>
+      <c r="I68" s="234"/>
+      <c r="J68" s="234"/>
+      <c r="K68" s="235"/>
+      <c r="L68" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="M68" s="137">
+      <c r="M68" s="58">
         <v>5</v>
       </c>
-      <c r="N68" s="215">
+      <c r="N68" s="219">
         <f>IF(ISERROR(AVERAGE(M69:M70)),0,ROUNDUP(AVERAGE(M69:M70),1))</f>
         <v>0</v>
       </c>
-      <c r="O68" s="16"/>
-      <c r="P68" t="s" s="216">
+      <c r="O68" s="11"/>
+      <c r="P68" s="220" t="s">
         <v>108</v>
       </c>
-      <c r="Q68" s="6"/>
-      <c r="R68" s="6"/>
-      <c r="S68" s="7"/>
-    </row>
-    <row r="69" ht="18.75" customHeight="1">
-      <c r="A69" s="161"/>
-      <c r="B69" s="217"/>
-      <c r="C69" s="213"/>
-      <c r="D69" s="213"/>
-      <c r="E69" s="213"/>
-      <c r="F69" s="213"/>
-      <c r="G69" s="213"/>
-      <c r="H69" s="213"/>
-      <c r="I69" s="213"/>
-      <c r="J69" s="213"/>
-      <c r="K69" s="214"/>
-      <c r="L69" t="s" s="218">
+      <c r="Q68" s="102"/>
+      <c r="R68" s="102"/>
+      <c r="S68" s="239"/>
+    </row>
+    <row r="69" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A69" s="190"/>
+      <c r="B69" s="236"/>
+      <c r="C69" s="234"/>
+      <c r="D69" s="234"/>
+      <c r="E69" s="234"/>
+      <c r="F69" s="234"/>
+      <c r="G69" s="234"/>
+      <c r="H69" s="234"/>
+      <c r="I69" s="234"/>
+      <c r="J69" s="234"/>
+      <c r="K69" s="235"/>
+      <c r="L69" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="M69" s="141"/>
-      <c r="N69" s="12"/>
-      <c r="O69" s="16"/>
-      <c r="P69" s="6"/>
-      <c r="Q69" s="6"/>
-      <c r="R69" s="6"/>
-      <c r="S69" s="7"/>
-    </row>
-    <row r="70" ht="18.75" customHeight="1">
-      <c r="A70" s="161"/>
-      <c r="B70" s="217"/>
-      <c r="C70" s="213"/>
-      <c r="D70" s="213"/>
-      <c r="E70" s="213"/>
-      <c r="F70" s="213"/>
-      <c r="G70" s="213"/>
-      <c r="H70" s="213"/>
-      <c r="I70" s="213"/>
-      <c r="J70" s="213"/>
-      <c r="K70" s="214"/>
-      <c r="L70" t="s" s="218">
+      <c r="M69" s="62"/>
+      <c r="N69" s="104"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="102"/>
+      <c r="Q69" s="102"/>
+      <c r="R69" s="102"/>
+      <c r="S69" s="239"/>
+    </row>
+    <row r="70" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A70" s="190"/>
+      <c r="B70" s="236"/>
+      <c r="C70" s="234"/>
+      <c r="D70" s="234"/>
+      <c r="E70" s="234"/>
+      <c r="F70" s="234"/>
+      <c r="G70" s="234"/>
+      <c r="H70" s="234"/>
+      <c r="I70" s="234"/>
+      <c r="J70" s="234"/>
+      <c r="K70" s="235"/>
+      <c r="L70" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="M70" s="145"/>
-      <c r="N70" s="12"/>
-      <c r="O70" s="16"/>
-      <c r="P70" s="6"/>
-      <c r="Q70" s="6"/>
-      <c r="R70" s="6"/>
-      <c r="S70" s="7"/>
-    </row>
-    <row r="71" ht="18.75" customHeight="1">
-      <c r="A71" s="161"/>
-      <c r="B71" t="s" s="212">
+      <c r="M70" s="66"/>
+      <c r="N70" s="104"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="102"/>
+      <c r="Q70" s="102"/>
+      <c r="R70" s="102"/>
+      <c r="S70" s="239"/>
+    </row>
+    <row r="71" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A71" s="190"/>
+      <c r="B71" s="233" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="213"/>
-      <c r="D71" s="213"/>
-      <c r="E71" s="213"/>
-      <c r="F71" s="213"/>
-      <c r="G71" s="213"/>
-      <c r="H71" s="213"/>
-      <c r="I71" s="213"/>
-      <c r="J71" s="213"/>
-      <c r="K71" s="214"/>
-      <c r="L71" t="s" s="218">
+      <c r="C71" s="234"/>
+      <c r="D71" s="234"/>
+      <c r="E71" s="234"/>
+      <c r="F71" s="234"/>
+      <c r="G71" s="234"/>
+      <c r="H71" s="234"/>
+      <c r="I71" s="234"/>
+      <c r="J71" s="234"/>
+      <c r="K71" s="235"/>
+      <c r="L71" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="M71" s="137">
+      <c r="M71" s="58">
         <v>5</v>
       </c>
-      <c r="N71" s="215">
+      <c r="N71" s="219">
         <f>IF(ISERROR(AVERAGE(M72:M73)),0,ROUNDUP(AVERAGE(M72:M73),1))</f>
         <v>0</v>
       </c>
-      <c r="O71" s="16"/>
-      <c r="P71" t="s" s="216">
+      <c r="O71" s="11"/>
+      <c r="P71" s="220" t="s">
         <v>110</v>
       </c>
-      <c r="Q71" s="6"/>
-      <c r="R71" s="6"/>
-      <c r="S71" s="7"/>
-    </row>
-    <row r="72" ht="18.75" customHeight="1">
-      <c r="A72" s="161"/>
-      <c r="B72" s="217"/>
-      <c r="C72" s="213"/>
-      <c r="D72" s="213"/>
-      <c r="E72" s="213"/>
-      <c r="F72" s="213"/>
-      <c r="G72" s="213"/>
-      <c r="H72" s="213"/>
-      <c r="I72" s="213"/>
-      <c r="J72" s="213"/>
-      <c r="K72" s="214"/>
-      <c r="L72" t="s" s="218">
+      <c r="Q71" s="102"/>
+      <c r="R71" s="102"/>
+      <c r="S71" s="239"/>
+    </row>
+    <row r="72" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A72" s="190"/>
+      <c r="B72" s="236"/>
+      <c r="C72" s="234"/>
+      <c r="D72" s="234"/>
+      <c r="E72" s="234"/>
+      <c r="F72" s="234"/>
+      <c r="G72" s="234"/>
+      <c r="H72" s="234"/>
+      <c r="I72" s="234"/>
+      <c r="J72" s="234"/>
+      <c r="K72" s="235"/>
+      <c r="L72" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="M72" s="141"/>
-      <c r="N72" s="12"/>
-      <c r="O72" s="16"/>
-      <c r="P72" s="6"/>
-      <c r="Q72" s="6"/>
-      <c r="R72" s="6"/>
-      <c r="S72" s="7"/>
-    </row>
-    <row r="73" ht="18.75" customHeight="1">
-      <c r="A73" s="161"/>
-      <c r="B73" s="217"/>
-      <c r="C73" s="213"/>
-      <c r="D73" s="213"/>
-      <c r="E73" s="213"/>
-      <c r="F73" s="213"/>
-      <c r="G73" s="213"/>
-      <c r="H73" s="213"/>
-      <c r="I73" s="213"/>
-      <c r="J73" s="213"/>
-      <c r="K73" s="214"/>
-      <c r="L73" t="s" s="218">
+      <c r="M72" s="62"/>
+      <c r="N72" s="104"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="102"/>
+      <c r="Q72" s="102"/>
+      <c r="R72" s="102"/>
+      <c r="S72" s="239"/>
+    </row>
+    <row r="73" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A73" s="190"/>
+      <c r="B73" s="236"/>
+      <c r="C73" s="234"/>
+      <c r="D73" s="234"/>
+      <c r="E73" s="234"/>
+      <c r="F73" s="234"/>
+      <c r="G73" s="234"/>
+      <c r="H73" s="234"/>
+      <c r="I73" s="234"/>
+      <c r="J73" s="234"/>
+      <c r="K73" s="235"/>
+      <c r="L73" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="M73" s="145"/>
-      <c r="N73" s="12"/>
-      <c r="O73" s="16"/>
-      <c r="P73" s="6"/>
-      <c r="Q73" s="6"/>
-      <c r="R73" s="6"/>
-      <c r="S73" s="7"/>
-    </row>
-    <row r="74" ht="18.75" customHeight="1">
-      <c r="A74" s="161"/>
-      <c r="B74" t="s" s="212">
+      <c r="M73" s="66"/>
+      <c r="N73" s="104"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="102"/>
+      <c r="R73" s="102"/>
+      <c r="S73" s="239"/>
+    </row>
+    <row r="74" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A74" s="190"/>
+      <c r="B74" s="233" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="220"/>
-      <c r="D74" s="220"/>
-      <c r="E74" s="220"/>
-      <c r="F74" s="220"/>
-      <c r="G74" s="220"/>
-      <c r="H74" s="220"/>
-      <c r="I74" s="220"/>
-      <c r="J74" s="220"/>
-      <c r="K74" s="221"/>
-      <c r="L74" t="s" s="218">
+      <c r="C74" s="242"/>
+      <c r="D74" s="242"/>
+      <c r="E74" s="242"/>
+      <c r="F74" s="242"/>
+      <c r="G74" s="242"/>
+      <c r="H74" s="242"/>
+      <c r="I74" s="242"/>
+      <c r="J74" s="242"/>
+      <c r="K74" s="243"/>
+      <c r="L74" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="M74" s="137">
+      <c r="M74" s="58">
         <v>5</v>
       </c>
-      <c r="N74" s="215">
+      <c r="N74" s="219">
         <f>IF(ISERROR(AVERAGE(M75:M76)),0,ROUNDUP(AVERAGE(M75:M76),1))</f>
         <v>0</v>
       </c>
-      <c r="O74" s="16"/>
-      <c r="P74" t="s" s="216">
+      <c r="O74" s="11"/>
+      <c r="P74" s="220" t="s">
         <v>112</v>
       </c>
-      <c r="Q74" s="6"/>
-      <c r="R74" s="6"/>
-      <c r="S74" s="7"/>
-    </row>
-    <row r="75" ht="18.75" customHeight="1">
-      <c r="A75" s="161"/>
-      <c r="B75" s="222"/>
-      <c r="C75" s="220"/>
-      <c r="D75" s="220"/>
-      <c r="E75" s="220"/>
-      <c r="F75" s="220"/>
-      <c r="G75" s="220"/>
-      <c r="H75" s="220"/>
-      <c r="I75" s="220"/>
-      <c r="J75" s="220"/>
-      <c r="K75" s="221"/>
-      <c r="L75" t="s" s="218">
+      <c r="Q74" s="102"/>
+      <c r="R74" s="102"/>
+      <c r="S74" s="239"/>
+    </row>
+    <row r="75" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A75" s="190"/>
+      <c r="B75" s="244"/>
+      <c r="C75" s="242"/>
+      <c r="D75" s="242"/>
+      <c r="E75" s="242"/>
+      <c r="F75" s="242"/>
+      <c r="G75" s="242"/>
+      <c r="H75" s="242"/>
+      <c r="I75" s="242"/>
+      <c r="J75" s="242"/>
+      <c r="K75" s="243"/>
+      <c r="L75" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="M75" s="141"/>
-      <c r="N75" s="12"/>
-      <c r="O75" s="16"/>
-      <c r="P75" s="6"/>
-      <c r="Q75" s="6"/>
-      <c r="R75" s="6"/>
-      <c r="S75" s="7"/>
-    </row>
-    <row r="76" ht="18.75" customHeight="1">
-      <c r="A76" s="161"/>
-      <c r="B76" s="222"/>
-      <c r="C76" s="220"/>
-      <c r="D76" s="220"/>
-      <c r="E76" s="220"/>
-      <c r="F76" s="220"/>
-      <c r="G76" s="220"/>
-      <c r="H76" s="220"/>
-      <c r="I76" s="220"/>
-      <c r="J76" s="220"/>
-      <c r="K76" s="221"/>
-      <c r="L76" t="s" s="219">
+      <c r="M75" s="62"/>
+      <c r="N75" s="104"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="102"/>
+      <c r="Q75" s="102"/>
+      <c r="R75" s="102"/>
+      <c r="S75" s="239"/>
+    </row>
+    <row r="76" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A76" s="190"/>
+      <c r="B76" s="244"/>
+      <c r="C76" s="242"/>
+      <c r="D76" s="242"/>
+      <c r="E76" s="242"/>
+      <c r="F76" s="242"/>
+      <c r="G76" s="242"/>
+      <c r="H76" s="242"/>
+      <c r="I76" s="242"/>
+      <c r="J76" s="242"/>
+      <c r="K76" s="243"/>
+      <c r="L76" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="M76" s="145"/>
-      <c r="N76" s="12"/>
-      <c r="O76" s="16"/>
-      <c r="P76" s="6"/>
-      <c r="Q76" s="6"/>
-      <c r="R76" s="6"/>
-      <c r="S76" s="7"/>
-    </row>
-    <row r="77" ht="18.75" customHeight="1">
-      <c r="A77" t="s" s="223">
+      <c r="M76" s="66"/>
+      <c r="N76" s="104"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="102"/>
+      <c r="Q76" s="102"/>
+      <c r="R76" s="102"/>
+      <c r="S76" s="239"/>
+    </row>
+    <row r="77" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A77" s="245" t="s">
         <v>113</v>
       </c>
-      <c r="B77" t="s" s="224">
+      <c r="B77" s="211" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="20"/>
-      <c r="D77" s="20"/>
-      <c r="E77" s="20"/>
-      <c r="F77" s="20"/>
-      <c r="G77" s="20"/>
-      <c r="H77" s="20"/>
-      <c r="I77" s="20"/>
-      <c r="J77" s="20"/>
-      <c r="K77" s="225"/>
-      <c r="L77" t="s" s="131">
+      <c r="C77" s="212"/>
+      <c r="D77" s="212"/>
+      <c r="E77" s="212"/>
+      <c r="F77" s="212"/>
+      <c r="G77" s="212"/>
+      <c r="H77" s="212"/>
+      <c r="I77" s="212"/>
+      <c r="J77" s="212"/>
+      <c r="K77" s="213"/>
+      <c r="L77" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="M77" s="137">
+      <c r="M77" s="58">
         <v>3</v>
       </c>
-      <c r="N77" s="215">
+      <c r="N77" s="219">
         <f>IF(ISERROR(AVERAGE(M78:M79)),0,ROUNDUP(AVERAGE(M78:M79),1))</f>
         <v>0</v>
       </c>
-      <c r="O77" s="16"/>
-      <c r="P77" t="s" s="216">
+      <c r="O77" s="11"/>
+      <c r="P77" s="220" t="s">
         <v>115</v>
       </c>
-      <c r="Q77" s="6"/>
-      <c r="R77" s="6"/>
-      <c r="S77" s="7"/>
-    </row>
-    <row r="78" ht="18.75" customHeight="1">
-      <c r="A78" s="226"/>
-      <c r="B78" s="227"/>
-      <c r="C78" s="6"/>
-      <c r="D78" s="6"/>
-      <c r="E78" s="6"/>
-      <c r="F78" s="6"/>
-      <c r="G78" s="6"/>
-      <c r="H78" s="6"/>
-      <c r="I78" s="6"/>
-      <c r="J78" s="6"/>
-      <c r="K78" s="228"/>
-      <c r="L78" t="s" s="218">
+      <c r="Q77" s="102"/>
+      <c r="R77" s="102"/>
+      <c r="S77" s="239"/>
+    </row>
+    <row r="78" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A78" s="246"/>
+      <c r="B78" s="214"/>
+      <c r="C78" s="102"/>
+      <c r="D78" s="102"/>
+      <c r="E78" s="102"/>
+      <c r="F78" s="102"/>
+      <c r="G78" s="102"/>
+      <c r="H78" s="102"/>
+      <c r="I78" s="102"/>
+      <c r="J78" s="102"/>
+      <c r="K78" s="215"/>
+      <c r="L78" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="M78" s="141"/>
-      <c r="N78" s="12"/>
-      <c r="O78" s="16"/>
-      <c r="P78" s="6"/>
-      <c r="Q78" s="6"/>
-      <c r="R78" s="6"/>
-      <c r="S78" s="7"/>
-    </row>
-    <row r="79" ht="18.75" customHeight="1">
-      <c r="A79" s="226"/>
-      <c r="B79" s="229"/>
-      <c r="C79" s="230"/>
-      <c r="D79" s="230"/>
-      <c r="E79" s="230"/>
-      <c r="F79" s="230"/>
-      <c r="G79" s="230"/>
-      <c r="H79" s="230"/>
-      <c r="I79" s="230"/>
-      <c r="J79" s="230"/>
-      <c r="K79" s="231"/>
-      <c r="L79" t="s" s="219">
+      <c r="M78" s="62"/>
+      <c r="N78" s="104"/>
+      <c r="O78" s="11"/>
+      <c r="P78" s="102"/>
+      <c r="Q78" s="102"/>
+      <c r="R78" s="102"/>
+      <c r="S78" s="239"/>
+    </row>
+    <row r="79" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A79" s="246"/>
+      <c r="B79" s="216"/>
+      <c r="C79" s="217"/>
+      <c r="D79" s="217"/>
+      <c r="E79" s="217"/>
+      <c r="F79" s="217"/>
+      <c r="G79" s="217"/>
+      <c r="H79" s="217"/>
+      <c r="I79" s="217"/>
+      <c r="J79" s="217"/>
+      <c r="K79" s="218"/>
+      <c r="L79" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="M79" s="145"/>
-      <c r="N79" s="12"/>
-      <c r="O79" s="16"/>
-      <c r="P79" s="6"/>
-      <c r="Q79" s="6"/>
-      <c r="R79" s="6"/>
-      <c r="S79" s="7"/>
-    </row>
-    <row r="80" ht="18.75" customHeight="1">
-      <c r="A80" s="226"/>
-      <c r="B80" t="s" s="224">
+      <c r="M79" s="66"/>
+      <c r="N79" s="104"/>
+      <c r="O79" s="11"/>
+      <c r="P79" s="102"/>
+      <c r="Q79" s="102"/>
+      <c r="R79" s="102"/>
+      <c r="S79" s="239"/>
+    </row>
+    <row r="80" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A80" s="246"/>
+      <c r="B80" s="211" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="20"/>
-      <c r="D80" s="20"/>
-      <c r="E80" s="20"/>
-      <c r="F80" s="20"/>
-      <c r="G80" s="20"/>
-      <c r="H80" s="20"/>
-      <c r="I80" s="20"/>
-      <c r="J80" s="20"/>
-      <c r="K80" s="225"/>
-      <c r="L80" t="s" s="131">
+      <c r="C80" s="212"/>
+      <c r="D80" s="212"/>
+      <c r="E80" s="212"/>
+      <c r="F80" s="212"/>
+      <c r="G80" s="212"/>
+      <c r="H80" s="212"/>
+      <c r="I80" s="212"/>
+      <c r="J80" s="212"/>
+      <c r="K80" s="213"/>
+      <c r="L80" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="M80" s="137">
+      <c r="M80" s="58">
         <v>5</v>
       </c>
-      <c r="N80" s="215">
+      <c r="N80" s="219">
         <f>IF(ISERROR(AVERAGE(M81:M82)),0,ROUNDUP(AVERAGE(M81:M82),1))</f>
         <v>0</v>
       </c>
-      <c r="O80" s="16"/>
-      <c r="P80" t="s" s="216">
+      <c r="O80" s="11"/>
+      <c r="P80" s="220" t="s">
         <v>117</v>
       </c>
-      <c r="Q80" s="6"/>
-      <c r="R80" s="6"/>
-      <c r="S80" s="7"/>
-    </row>
-    <row r="81" ht="18.75" customHeight="1">
-      <c r="A81" s="226"/>
-      <c r="B81" s="227"/>
-      <c r="C81" s="6"/>
-      <c r="D81" s="6"/>
-      <c r="E81" s="6"/>
-      <c r="F81" s="6"/>
-      <c r="G81" s="6"/>
-      <c r="H81" s="6"/>
-      <c r="I81" s="6"/>
-      <c r="J81" s="6"/>
-      <c r="K81" s="228"/>
-      <c r="L81" t="s" s="218">
+      <c r="Q80" s="102"/>
+      <c r="R80" s="102"/>
+      <c r="S80" s="239"/>
+    </row>
+    <row r="81" spans="1:19" ht="18.75" customHeight="1">
+      <c r="A81" s="246"/>
+      <c r="B81" s="214"/>
+      <c r="C81" s="102"/>
+      <c r="D81" s="102"/>
+      <c r="E81" s="102"/>
+      <c r="F81" s="102"/>
+      <c r="G81" s="102"/>
+      <c r="H81" s="102"/>
+      <c r="I81" s="102"/>
+      <c r="J81" s="102"/>
+      <c r="K81" s="215"/>
+      <c r="L81" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="M81" s="141"/>
-      <c r="N81" s="232"/>
-      <c r="O81" s="16"/>
-      <c r="P81" s="6"/>
-      <c r="Q81" s="6"/>
-      <c r="R81" s="6"/>
-      <c r="S81" s="7"/>
-    </row>
-    <row r="82" ht="13.5" customHeight="1">
-      <c r="A82" s="226"/>
-      <c r="B82" s="229"/>
-      <c r="C82" s="230"/>
-      <c r="D82" s="230"/>
-      <c r="E82" s="230"/>
-      <c r="F82" s="230"/>
-      <c r="G82" s="230"/>
-      <c r="H82" s="230"/>
-      <c r="I82" s="230"/>
-      <c r="J82" s="230"/>
-      <c r="K82" s="231"/>
-      <c r="L82" t="s" s="219">
+      <c r="M81" s="62"/>
+      <c r="N81" s="248"/>
+      <c r="O81" s="11"/>
+      <c r="P81" s="102"/>
+      <c r="Q81" s="102"/>
+      <c r="R81" s="102"/>
+      <c r="S81" s="239"/>
+    </row>
+    <row r="82" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A82" s="246"/>
+      <c r="B82" s="216"/>
+      <c r="C82" s="217"/>
+      <c r="D82" s="217"/>
+      <c r="E82" s="217"/>
+      <c r="F82" s="217"/>
+      <c r="G82" s="217"/>
+      <c r="H82" s="217"/>
+      <c r="I82" s="217"/>
+      <c r="J82" s="217"/>
+      <c r="K82" s="218"/>
+      <c r="L82" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="M82" s="145"/>
-      <c r="N82" s="12"/>
-      <c r="O82" s="16"/>
-      <c r="P82" s="6"/>
-      <c r="Q82" s="6"/>
-      <c r="R82" s="6"/>
-      <c r="S82" s="7"/>
-    </row>
-    <row r="83" ht="13.5" customHeight="1">
-      <c r="A83" s="226"/>
-      <c r="B83" t="s" s="224">
+      <c r="M82" s="66"/>
+      <c r="N82" s="104"/>
+      <c r="O82" s="11"/>
+      <c r="P82" s="102"/>
+      <c r="Q82" s="102"/>
+      <c r="R82" s="102"/>
+      <c r="S82" s="239"/>
+    </row>
+    <row r="83" spans="1:19" ht="13.5" customHeight="1">
+      <c r="A83" s="246"/>
+      <c r="B83" s="211" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="20"/>
-      <c r="D83" s="20"/>
-      <c r="E83" s="20"/>
-      <c r="F83" s="20"/>
-      <c r="G83" s="20"/>
-      <c r="H83" s="20"/>
-      <c r="I83" s="20"/>
-      <c r="J83" s="20"/>
-      <c r="K83" s="225"/>
-      <c r="L83" t="s" s="131">
+      <c r="C83" s="212"/>
+      <c r="D83" s="212"/>
+      <c r="E83" s="212"/>
+      <c r="F83" s="212"/>
+      <c r="G83" s="212"/>
+      <c r="H83" s="212"/>
+      <c r="I83" s="212"/>
+      <c r="J83" s="212"/>
+      <c r="K83" s="213"/>
+      <c r="L83" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="M83" s="137">
+      <c r="M83" s="58">
         <v>5</v>
       </c>
-      <c r="N83" s="215">
+      <c r="N83" s="219">
         <f>IF(ISERROR(AVERAGE(M84:M85)),0,ROUNDUP(AVERAGE(M84:M85),1))</f>
         <v>0</v>
       </c>
-      <c r="O83" s="16"/>
-      <c r="P83" t="s" s="216">
+      <c r="O83" s="11"/>
+      <c r="P83" s="220" t="s">
         <v>119</v>
       </c>
-      <c r="Q83" s="6"/>
-      <c r="R83" s="6"/>
-      <c r="S83" s="7"/>
-    </row>
-    <row r="84" ht="14.4" customHeight="1">
-      <c r="A84" s="226"/>
-      <c r="B84" s="227"/>
-      <c r="C84" s="6"/>
-      <c r="D84" s="6"/>
-      <c r="E84" s="6"/>
-      <c r="F84" s="6"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="6"/>
-      <c r="I84" s="6"/>
-      <c r="J84" s="6"/>
-      <c r="K84" s="228"/>
-      <c r="L84" t="s" s="218">
+      <c r="Q83" s="102"/>
+      <c r="R83" s="102"/>
+      <c r="S83" s="239"/>
+    </row>
+    <row r="84" spans="1:19" ht="14.4" customHeight="1">
+      <c r="A84" s="246"/>
+      <c r="B84" s="214"/>
+      <c r="C84" s="102"/>
+      <c r="D84" s="102"/>
+      <c r="E84" s="102"/>
+      <c r="F84" s="102"/>
+      <c r="G84" s="102"/>
+      <c r="H84" s="102"/>
+      <c r="I84" s="102"/>
+      <c r="J84" s="102"/>
+      <c r="K84" s="215"/>
+      <c r="L84" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="M84" s="141"/>
-      <c r="N84" s="12"/>
-      <c r="O84" s="16"/>
-      <c r="P84" s="6"/>
-      <c r="Q84" s="6"/>
-      <c r="R84" s="6"/>
-      <c r="S84" s="7"/>
-    </row>
-    <row r="85" ht="14.4" customHeight="1">
-      <c r="A85" s="226"/>
-      <c r="B85" s="229"/>
-      <c r="C85" s="230"/>
-      <c r="D85" s="230"/>
-      <c r="E85" s="230"/>
-      <c r="F85" s="230"/>
-      <c r="G85" s="230"/>
-      <c r="H85" s="230"/>
-      <c r="I85" s="230"/>
-      <c r="J85" s="230"/>
-      <c r="K85" s="231"/>
-      <c r="L85" t="s" s="219">
+      <c r="M84" s="62"/>
+      <c r="N84" s="104"/>
+      <c r="O84" s="11"/>
+      <c r="P84" s="102"/>
+      <c r="Q84" s="102"/>
+      <c r="R84" s="102"/>
+      <c r="S84" s="239"/>
+    </row>
+    <row r="85" spans="1:19" ht="14.4" customHeight="1">
+      <c r="A85" s="246"/>
+      <c r="B85" s="216"/>
+      <c r="C85" s="217"/>
+      <c r="D85" s="217"/>
+      <c r="E85" s="217"/>
+      <c r="F85" s="217"/>
+      <c r="G85" s="217"/>
+      <c r="H85" s="217"/>
+      <c r="I85" s="217"/>
+      <c r="J85" s="217"/>
+      <c r="K85" s="218"/>
+      <c r="L85" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="M85" s="145"/>
-      <c r="N85" s="12"/>
-      <c r="O85" s="16"/>
-      <c r="P85" s="6"/>
-      <c r="Q85" s="6"/>
-      <c r="R85" s="6"/>
-      <c r="S85" s="7"/>
-    </row>
-    <row r="86" ht="15" customHeight="1">
-      <c r="A86" s="226"/>
-      <c r="B86" t="s" s="224">
+      <c r="M85" s="66"/>
+      <c r="N85" s="104"/>
+      <c r="O85" s="11"/>
+      <c r="P85" s="102"/>
+      <c r="Q85" s="102"/>
+      <c r="R85" s="102"/>
+      <c r="S85" s="239"/>
+    </row>
+    <row r="86" spans="1:19" ht="15" customHeight="1">
+      <c r="A86" s="246"/>
+      <c r="B86" s="211" t="s">
         <v>120</v>
       </c>
-      <c r="C86" s="20"/>
-      <c r="D86" s="20"/>
-      <c r="E86" s="20"/>
-      <c r="F86" s="20"/>
-      <c r="G86" s="20"/>
-      <c r="H86" s="20"/>
-      <c r="I86" s="20"/>
-      <c r="J86" s="20"/>
-      <c r="K86" s="225"/>
-      <c r="L86" t="s" s="131">
+      <c r="C86" s="212"/>
+      <c r="D86" s="212"/>
+      <c r="E86" s="212"/>
+      <c r="F86" s="212"/>
+      <c r="G86" s="212"/>
+      <c r="H86" s="212"/>
+      <c r="I86" s="212"/>
+      <c r="J86" s="212"/>
+      <c r="K86" s="213"/>
+      <c r="L86" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="M86" s="137">
+      <c r="M86" s="58">
         <v>5</v>
       </c>
-      <c r="N86" s="215">
+      <c r="N86" s="219">
         <f>IF(ISERROR(AVERAGE(M87:M88)),0,ROUNDUP(AVERAGE(M87:M88),1))</f>
         <v>0</v>
       </c>
-      <c r="O86" s="16"/>
-      <c r="P86" t="s" s="216">
+      <c r="O86" s="11"/>
+      <c r="P86" s="220" t="s">
         <v>121</v>
       </c>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="7"/>
-    </row>
-    <row r="87" ht="15" customHeight="1">
-      <c r="A87" s="226"/>
-      <c r="B87" s="227"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="6"/>
-      <c r="E87" s="6"/>
-      <c r="F87" s="6"/>
-      <c r="G87" s="6"/>
-      <c r="H87" s="6"/>
-      <c r="I87" s="6"/>
-      <c r="J87" s="6"/>
-      <c r="K87" s="228"/>
-      <c r="L87" t="s" s="218">
+      <c r="Q86" s="102"/>
+      <c r="R86" s="102"/>
+      <c r="S86" s="239"/>
+    </row>
+    <row r="87" spans="1:19" ht="15" customHeight="1">
+      <c r="A87" s="246"/>
+      <c r="B87" s="214"/>
+      <c r="C87" s="102"/>
+      <c r="D87" s="102"/>
+      <c r="E87" s="102"/>
+      <c r="F87" s="102"/>
+      <c r="G87" s="102"/>
+      <c r="H87" s="102"/>
+      <c r="I87" s="102"/>
+      <c r="J87" s="102"/>
+      <c r="K87" s="215"/>
+      <c r="L87" s="97" t="s">
         <v>102</v>
       </c>
-      <c r="M87" s="141"/>
-      <c r="N87" s="12"/>
-      <c r="O87" s="16"/>
-      <c r="P87" s="6"/>
-      <c r="Q87" s="6"/>
-      <c r="R87" s="6"/>
-      <c r="S87" s="7"/>
-    </row>
-    <row r="88" ht="15" customHeight="1">
-      <c r="A88" s="233"/>
-      <c r="B88" s="229"/>
-      <c r="C88" s="230"/>
-      <c r="D88" s="230"/>
-      <c r="E88" s="230"/>
-      <c r="F88" s="230"/>
-      <c r="G88" s="230"/>
-      <c r="H88" s="230"/>
-      <c r="I88" s="230"/>
-      <c r="J88" s="230"/>
-      <c r="K88" s="231"/>
-      <c r="L88" t="s" s="219">
+      <c r="M87" s="62"/>
+      <c r="N87" s="104"/>
+      <c r="O87" s="11"/>
+      <c r="P87" s="102"/>
+      <c r="Q87" s="102"/>
+      <c r="R87" s="102"/>
+      <c r="S87" s="239"/>
+    </row>
+    <row r="88" spans="1:19" ht="15" customHeight="1">
+      <c r="A88" s="247"/>
+      <c r="B88" s="216"/>
+      <c r="C88" s="217"/>
+      <c r="D88" s="217"/>
+      <c r="E88" s="217"/>
+      <c r="F88" s="217"/>
+      <c r="G88" s="217"/>
+      <c r="H88" s="217"/>
+      <c r="I88" s="217"/>
+      <c r="J88" s="217"/>
+      <c r="K88" s="218"/>
+      <c r="L88" s="98" t="s">
         <v>103</v>
       </c>
-      <c r="M88" s="145"/>
-      <c r="N88" s="12"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="6"/>
-      <c r="Q88" s="6"/>
-      <c r="R88" s="6"/>
-      <c r="S88" s="7"/>
-    </row>
-    <row r="89" ht="16" customHeight="1">
-      <c r="A89" t="s" s="130">
+      <c r="M88" s="66"/>
+      <c r="N88" s="104"/>
+      <c r="O88" s="11"/>
+      <c r="P88" s="102"/>
+      <c r="Q88" s="102"/>
+      <c r="R88" s="102"/>
+      <c r="S88" s="239"/>
+    </row>
+    <row r="89" spans="1:19" ht="16.05" customHeight="1">
+      <c r="A89" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B89" t="s" s="127">
+      <c r="B89" s="179" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="128"/>
-      <c r="D89" s="128"/>
-      <c r="E89" s="128"/>
-      <c r="F89" s="128"/>
-      <c r="G89" s="128"/>
-      <c r="H89" s="128"/>
-      <c r="I89" s="128"/>
-      <c r="J89" s="128"/>
-      <c r="K89" s="129"/>
-      <c r="L89" t="s" s="123">
+      <c r="C89" s="180"/>
+      <c r="D89" s="180"/>
+      <c r="E89" s="180"/>
+      <c r="F89" s="180"/>
+      <c r="G89" s="180"/>
+      <c r="H89" s="180"/>
+      <c r="I89" s="180"/>
+      <c r="J89" s="180"/>
+      <c r="K89" s="181"/>
+      <c r="L89" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="M89" s="234">
+      <c r="M89" s="237">
         <f>SUM(N62:N88)</f>
         <v>0</v>
       </c>
-      <c r="N89" s="235"/>
-      <c r="O89" s="236"/>
-      <c r="P89" s="237"/>
-      <c r="Q89" s="237"/>
-      <c r="R89" s="237"/>
-      <c r="S89" s="238"/>
+      <c r="N89" s="238"/>
+      <c r="O89" s="99"/>
+      <c r="P89" s="100"/>
+      <c r="Q89" s="100"/>
+      <c r="R89" s="240"/>
+      <c r="S89" s="241"/>
     </row>
   </sheetData>
   <mergeCells count="154">
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:J7"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="A26:N26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:N49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q56"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="B83:K85"/>
-    <mergeCell ref="N83:N85"/>
-    <mergeCell ref="P83:Q85"/>
-    <mergeCell ref="B86:K88"/>
-    <mergeCell ref="N86:N88"/>
-    <mergeCell ref="P86:Q88"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:K61"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:K64"/>
-    <mergeCell ref="N62:N64"/>
     <mergeCell ref="B89:K89"/>
     <mergeCell ref="M89:N89"/>
     <mergeCell ref="P62:Q64"/>
@@ -5803,14 +5810,145 @@
     <mergeCell ref="B80:K82"/>
     <mergeCell ref="N80:N82"/>
     <mergeCell ref="P80:Q82"/>
+    <mergeCell ref="B83:K85"/>
+    <mergeCell ref="N83:N85"/>
+    <mergeCell ref="P83:Q85"/>
+    <mergeCell ref="B86:K88"/>
+    <mergeCell ref="N86:N88"/>
+    <mergeCell ref="P86:Q88"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:K61"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:K64"/>
+    <mergeCell ref="N62:N64"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q56"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:J7"/>
   </mergeCells>
+  <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M62:M88">
       <formula1>"1,2,3,4,5"</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.314958" right="0.314958" top="0.354319" bottom="0.354319" header="0.314958" footer="0.275583"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageMargins left="0.31495800000000002" right="0.31495800000000002" top="0.354319" bottom="0.354319" header="0.31495800000000002" footer="0.27558300000000002"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"HY견고딕,Regular"&amp;9&amp;K000000(주)아스템즈</oddFooter>
   </headerFooter>

--- a/02.팀원관리/01.인사고과평가/2023 상반기 인사고과평가_개발사업부_개발2팀_백지혜.xlsx
+++ b/02.팀원관리/01.인사고과평가/2023 상반기 인사고과평가_개발사업부_개발2팀_백지혜.xlsx
@@ -1790,44 +1790,383 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1836,49 +2175,19 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="5" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="2" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1892,347 +2201,38 @@
     <xf numFmtId="2" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="5" fillId="5" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="3" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="6" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="3" fillId="6" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="69" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="4" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="66" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="4" borderId="68" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3399,23 +3399,23 @@
   </sheetPr>
   <dimension ref="A1:S89"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12:G13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
     <col min="3" max="4" width="6" style="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1796875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="5.453125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1796875" style="1" customWidth="1"/>
-    <col min="8" max="9" width="4.6328125" style="1" customWidth="1"/>
-    <col min="10" max="14" width="8.6328125" style="1" customWidth="1"/>
-    <col min="15" max="15" width="2.6328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="40.6328125" style="1" customWidth="1"/>
-    <col min="17" max="17" width="68.453125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="5.19921875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5.19921875" style="1" customWidth="1"/>
+    <col min="8" max="9" width="4.59765625" style="1" customWidth="1"/>
+    <col min="10" max="14" width="8.59765625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="2.59765625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="40.59765625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="68.5" style="1" customWidth="1"/>
     <col min="18" max="20" width="9" style="1" customWidth="1"/>
     <col min="21" max="16384" width="9" style="1"/>
   </cols>
@@ -3442,22 +3442,22 @@
       <c r="S1" s="4"/>
     </row>
     <row r="2" spans="1:19" ht="15.9" customHeight="1">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="238" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="102"/>
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="102"/>
-      <c r="L2" s="102"/>
-      <c r="M2" s="102"/>
-      <c r="N2" s="102"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
+      <c r="N2" s="107"/>
       <c r="O2" s="5"/>
       <c r="P2" s="5"/>
       <c r="Q2" s="5"/>
@@ -3489,33 +3489,33 @@
       <c r="A4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="103" t="s">
+      <c r="B4" s="239" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="104"/>
-      <c r="D4" s="104"/>
-      <c r="E4" s="105" t="s">
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="240" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="106"/>
-      <c r="G4" s="103" t="s">
+      <c r="F4" s="241"/>
+      <c r="G4" s="239" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="104"/>
-      <c r="I4" s="107" t="s">
+      <c r="H4" s="116"/>
+      <c r="I4" s="242" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="108"/>
+      <c r="J4" s="243"/>
       <c r="K4" s="10" t="s">
         <v>6</v>
       </c>
       <c r="L4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="103" t="s">
+      <c r="M4" s="239" t="s">
         <v>8</v>
       </c>
-      <c r="N4" s="104"/>
+      <c r="N4" s="116"/>
       <c r="O4" s="11"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -3544,22 +3544,22 @@
       <c r="S5" s="6"/>
     </row>
     <row r="6" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A6" s="109" t="s">
+      <c r="A6" s="244" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="107" t="s">
+      <c r="B6" s="242" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="110"/>
-      <c r="D6" s="110"/>
-      <c r="E6" s="108"/>
-      <c r="F6" s="107" t="s">
+      <c r="C6" s="245"/>
+      <c r="D6" s="245"/>
+      <c r="E6" s="243"/>
+      <c r="F6" s="242" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="110"/>
-      <c r="H6" s="110"/>
-      <c r="I6" s="110"/>
-      <c r="J6" s="108"/>
+      <c r="G6" s="245"/>
+      <c r="H6" s="245"/>
+      <c r="I6" s="245"/>
+      <c r="J6" s="243"/>
       <c r="K6" s="11"/>
       <c r="L6" s="5"/>
       <c r="M6" s="5"/>
@@ -3571,20 +3571,20 @@
       <c r="S6" s="6"/>
     </row>
     <row r="7" spans="1:19" ht="18" customHeight="1">
-      <c r="A7" s="106"/>
-      <c r="B7" s="111" t="s">
+      <c r="A7" s="241"/>
+      <c r="B7" s="246" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="112"/>
-      <c r="D7" s="112"/>
-      <c r="E7" s="113"/>
-      <c r="F7" s="111" t="s">
+      <c r="C7" s="247"/>
+      <c r="D7" s="247"/>
+      <c r="E7" s="248"/>
+      <c r="F7" s="246" t="s">
         <v>13</v>
       </c>
-      <c r="G7" s="112"/>
-      <c r="H7" s="112"/>
-      <c r="I7" s="112"/>
-      <c r="J7" s="113"/>
+      <c r="G7" s="247"/>
+      <c r="H7" s="247"/>
+      <c r="I7" s="247"/>
+      <c r="J7" s="248"/>
       <c r="K7" s="11"/>
       <c r="L7" s="5"/>
       <c r="M7" s="5"/>
@@ -3617,22 +3617,22 @@
       <c r="S8" s="6"/>
     </row>
     <row r="9" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A9" s="114" t="s">
+      <c r="A9" s="227" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="115"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="115"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
-      <c r="M9" s="115"/>
-      <c r="N9" s="115"/>
+      <c r="B9" s="228"/>
+      <c r="C9" s="228"/>
+      <c r="D9" s="228"/>
+      <c r="E9" s="228"/>
+      <c r="F9" s="228"/>
+      <c r="G9" s="228"/>
+      <c r="H9" s="228"/>
+      <c r="I9" s="228"/>
+      <c r="J9" s="228"/>
+      <c r="K9" s="228"/>
+      <c r="L9" s="228"/>
+      <c r="M9" s="228"/>
+      <c r="N9" s="228"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -3640,21 +3640,21 @@
       <c r="S9" s="6"/>
     </row>
     <row r="10" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A10" s="116" t="s">
+      <c r="A10" s="160" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="117"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="118"/>
-      <c r="F10" s="116" t="s">
+      <c r="B10" s="161"/>
+      <c r="C10" s="161"/>
+      <c r="D10" s="161"/>
+      <c r="E10" s="162"/>
+      <c r="F10" s="160" t="s">
         <v>16</v>
       </c>
-      <c r="G10" s="118"/>
-      <c r="H10" s="116" t="s">
+      <c r="G10" s="162"/>
+      <c r="H10" s="160" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="118"/>
+      <c r="I10" s="162"/>
       <c r="J10" s="17" t="s">
         <v>18</v>
       </c>
@@ -3664,10 +3664,10 @@
       <c r="L10" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="M10" s="119" t="s">
+      <c r="M10" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="120"/>
+      <c r="N10" s="230"/>
       <c r="O10" s="11"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -3675,12 +3675,12 @@
       <c r="S10" s="6"/>
     </row>
     <row r="11" spans="1:19" ht="15" customHeight="1">
-      <c r="A11" s="121" t="s">
+      <c r="A11" s="205" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
+      <c r="B11" s="206"/>
+      <c r="C11" s="206"/>
+      <c r="D11" s="206"/>
       <c r="E11" s="19">
         <v>0.3</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="M11" s="20"/>
       <c r="N11" s="21"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="123" t="s">
+      <c r="P11" s="231" t="s">
         <v>23</v>
       </c>
       <c r="Q11" s="5"/>
@@ -3702,21 +3702,21 @@
       <c r="S11" s="6"/>
     </row>
     <row r="12" spans="1:19" ht="15" customHeight="1">
-      <c r="A12" s="124" t="s">
+      <c r="A12" s="207" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="127">
+      <c r="B12" s="208"/>
+      <c r="C12" s="208"/>
+      <c r="D12" s="208"/>
+      <c r="E12" s="209"/>
+      <c r="F12" s="232">
         <v>30</v>
       </c>
-      <c r="G12" s="127"/>
-      <c r="H12" s="127">
+      <c r="G12" s="232"/>
+      <c r="H12" s="232">
         <v>6</v>
       </c>
-      <c r="I12" s="127"/>
+      <c r="I12" s="232"/>
       <c r="J12" s="22">
         <f>L34</f>
         <v>6</v>
@@ -3725,32 +3725,32 @@
         <f>$J$12*$F$12/$H$12</f>
         <v>30</v>
       </c>
-      <c r="L12" s="129">
+      <c r="L12" s="219">
         <f>IF(SUM(K12:K13)&gt;30,30,SUM(K12:K13))</f>
         <v>30</v>
       </c>
-      <c r="M12" s="131" t="s">
+      <c r="M12" s="234" t="s">
         <v>25</v>
       </c>
-      <c r="N12" s="132"/>
+      <c r="N12" s="235"/>
       <c r="O12" s="11"/>
-      <c r="P12" s="102"/>
+      <c r="P12" s="107"/>
       <c r="Q12" s="5"/>
       <c r="R12" s="5"/>
       <c r="S12" s="6"/>
     </row>
     <row r="13" spans="1:19" ht="15" customHeight="1">
-      <c r="A13" s="135" t="s">
+      <c r="A13" s="213" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="136"/>
-      <c r="C13" s="136"/>
-      <c r="D13" s="136"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="128"/>
-      <c r="G13" s="128"/>
-      <c r="H13" s="128"/>
-      <c r="I13" s="128"/>
+      <c r="B13" s="214"/>
+      <c r="C13" s="214"/>
+      <c r="D13" s="214"/>
+      <c r="E13" s="215"/>
+      <c r="F13" s="233"/>
+      <c r="G13" s="233"/>
+      <c r="H13" s="233"/>
+      <c r="I13" s="233"/>
       <c r="J13" s="24">
         <f>N45</f>
         <v>0</v>
@@ -3759,22 +3759,22 @@
         <f>$J$13*$F$12/$H$12</f>
         <v>0</v>
       </c>
-      <c r="L13" s="130"/>
-      <c r="M13" s="133"/>
-      <c r="N13" s="134"/>
+      <c r="L13" s="220"/>
+      <c r="M13" s="236"/>
+      <c r="N13" s="237"/>
       <c r="O13" s="11"/>
-      <c r="P13" s="102"/>
+      <c r="P13" s="107"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
       <c r="S13" s="6"/>
     </row>
     <row r="14" spans="1:19" ht="15" customHeight="1">
-      <c r="A14" s="121" t="s">
+      <c r="A14" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
+      <c r="B14" s="206"/>
+      <c r="C14" s="206"/>
+      <c r="D14" s="206"/>
       <c r="E14" s="19">
         <v>0.5</v>
       </c>
@@ -3794,21 +3794,21 @@
       <c r="S14" s="6"/>
     </row>
     <row r="15" spans="1:19" ht="15" customHeight="1">
-      <c r="A15" s="124" t="s">
+      <c r="A15" s="207" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="125"/>
-      <c r="C15" s="125"/>
-      <c r="D15" s="125"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="138">
+      <c r="B15" s="208"/>
+      <c r="C15" s="208"/>
+      <c r="D15" s="208"/>
+      <c r="E15" s="209"/>
+      <c r="F15" s="210">
         <v>20</v>
       </c>
-      <c r="G15" s="138"/>
-      <c r="H15" s="138">
+      <c r="G15" s="210"/>
+      <c r="H15" s="210">
         <v>20</v>
       </c>
-      <c r="I15" s="138"/>
+      <c r="I15" s="210"/>
       <c r="J15" s="26">
         <f>M34</f>
         <v>0</v>
@@ -3817,12 +3817,12 @@
         <f>J15/H15*F15</f>
         <v>0</v>
       </c>
-      <c r="L15" s="129">
+      <c r="L15" s="219">
         <f>SUM(K15:K16)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="139"/>
-      <c r="N15" s="140"/>
+      <c r="M15" s="223"/>
+      <c r="N15" s="224"/>
       <c r="O15" s="11"/>
       <c r="P15" s="5"/>
       <c r="Q15" s="5"/>
@@ -3830,21 +3830,21 @@
       <c r="S15" s="6"/>
     </row>
     <row r="16" spans="1:19" ht="15" customHeight="1">
-      <c r="A16" s="135" t="s">
+      <c r="A16" s="213" t="s">
         <v>29</v>
       </c>
-      <c r="B16" s="136"/>
-      <c r="C16" s="136"/>
-      <c r="D16" s="136"/>
-      <c r="E16" s="137"/>
-      <c r="F16" s="143">
+      <c r="B16" s="214"/>
+      <c r="C16" s="214"/>
+      <c r="D16" s="214"/>
+      <c r="E16" s="215"/>
+      <c r="F16" s="216">
         <v>30</v>
       </c>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143">
+      <c r="G16" s="216"/>
+      <c r="H16" s="216">
         <v>30</v>
       </c>
-      <c r="I16" s="143"/>
+      <c r="I16" s="216"/>
       <c r="J16" s="27">
         <f>N34</f>
         <v>0</v>
@@ -3853,9 +3853,9 @@
         <f>J16/H16*F16</f>
         <v>0</v>
       </c>
-      <c r="L16" s="130"/>
-      <c r="M16" s="141"/>
-      <c r="N16" s="142"/>
+      <c r="L16" s="220"/>
+      <c r="M16" s="225"/>
+      <c r="N16" s="226"/>
       <c r="O16" s="11"/>
       <c r="P16" s="5"/>
       <c r="Q16" s="5"/>
@@ -3863,12 +3863,12 @@
       <c r="S16" s="6"/>
     </row>
     <row r="17" spans="1:19" ht="15" customHeight="1">
-      <c r="A17" s="121" t="s">
+      <c r="A17" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="122"/>
-      <c r="C17" s="122"/>
-      <c r="D17" s="122"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="206"/>
+      <c r="D17" s="206"/>
       <c r="E17" s="19">
         <v>0.2</v>
       </c>
@@ -3888,17 +3888,17 @@
       <c r="S17" s="6"/>
     </row>
     <row r="18" spans="1:19" ht="15" customHeight="1">
-      <c r="A18" s="124" t="s">
+      <c r="A18" s="207" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="125"/>
-      <c r="C18" s="125"/>
-      <c r="D18" s="125"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="208"/>
+      <c r="D18" s="208"/>
       <c r="E18" s="28"/>
-      <c r="F18" s="138"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="138"/>
-      <c r="I18" s="138"/>
+      <c r="F18" s="210"/>
+      <c r="G18" s="210"/>
+      <c r="H18" s="210"/>
+      <c r="I18" s="210"/>
       <c r="J18" s="29">
         <f>B57+N57</f>
         <v>0</v>
@@ -3907,12 +3907,12 @@
         <f>J18</f>
         <v>0</v>
       </c>
-      <c r="L18" s="129">
+      <c r="L18" s="219">
         <f>K18+K19</f>
         <v>0</v>
       </c>
-      <c r="M18" s="144"/>
-      <c r="N18" s="145"/>
+      <c r="M18" s="211"/>
+      <c r="N18" s="212"/>
       <c r="O18" s="11"/>
       <c r="P18" s="5"/>
       <c r="Q18" s="5"/>
@@ -3920,21 +3920,21 @@
       <c r="S18" s="6"/>
     </row>
     <row r="19" spans="1:19" ht="15" customHeight="1">
-      <c r="A19" s="135" t="s">
+      <c r="A19" s="213" t="s">
         <v>32</v>
       </c>
-      <c r="B19" s="136"/>
-      <c r="C19" s="136"/>
-      <c r="D19" s="136"/>
+      <c r="B19" s="214"/>
+      <c r="C19" s="214"/>
+      <c r="D19" s="214"/>
       <c r="E19" s="30"/>
-      <c r="F19" s="143">
+      <c r="F19" s="216">
         <v>20</v>
       </c>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143">
+      <c r="G19" s="216"/>
+      <c r="H19" s="216">
         <v>45</v>
       </c>
-      <c r="I19" s="143"/>
+      <c r="I19" s="216"/>
       <c r="J19" s="31">
         <f>M89</f>
         <v>0</v>
@@ -3943,9 +3943,9 @@
         <f>J19*F19/H19</f>
         <v>0</v>
       </c>
-      <c r="L19" s="130"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="147"/>
+      <c r="L19" s="220"/>
+      <c r="M19" s="221"/>
+      <c r="N19" s="222"/>
       <c r="O19" s="11"/>
       <c r="P19" s="5"/>
       <c r="Q19" s="5"/>
@@ -3953,13 +3953,13 @@
       <c r="S19" s="6"/>
     </row>
     <row r="20" spans="1:19" ht="15" customHeight="1">
-      <c r="A20" s="121" t="s">
+      <c r="A20" s="205" t="s">
         <v>33</v>
       </c>
-      <c r="B20" s="122"/>
-      <c r="C20" s="122"/>
-      <c r="D20" s="122"/>
-      <c r="E20" s="122"/>
+      <c r="B20" s="206"/>
+      <c r="C20" s="206"/>
+      <c r="D20" s="206"/>
+      <c r="E20" s="206"/>
       <c r="F20" s="20"/>
       <c r="G20" s="20"/>
       <c r="H20" s="20"/>
@@ -3976,17 +3976,17 @@
       <c r="S20" s="6"/>
     </row>
     <row r="21" spans="1:19" ht="15" customHeight="1">
-      <c r="A21" s="124" t="s">
+      <c r="A21" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="125"/>
-      <c r="C21" s="125"/>
-      <c r="D21" s="125"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="138"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="138"/>
-      <c r="I21" s="138"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="208"/>
+      <c r="D21" s="208"/>
+      <c r="E21" s="209"/>
+      <c r="F21" s="210"/>
+      <c r="G21" s="210"/>
+      <c r="H21" s="210"/>
+      <c r="I21" s="210"/>
       <c r="J21" s="32">
         <f>K12+K13-L12</f>
         <v>0</v>
@@ -3999,8 +3999,8 @@
         <f>K21</f>
         <v>0</v>
       </c>
-      <c r="M21" s="144"/>
-      <c r="N21" s="145"/>
+      <c r="M21" s="211"/>
+      <c r="N21" s="212"/>
       <c r="O21" s="11"/>
       <c r="P21" s="5"/>
       <c r="Q21" s="5"/>
@@ -4008,21 +4008,21 @@
       <c r="S21" s="6"/>
     </row>
     <row r="22" spans="1:19" ht="15" customHeight="1">
-      <c r="A22" s="135" t="s">
+      <c r="A22" s="213" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="136"/>
-      <c r="C22" s="136"/>
-      <c r="D22" s="136"/>
-      <c r="E22" s="137"/>
-      <c r="F22" s="143">
+      <c r="B22" s="214"/>
+      <c r="C22" s="214"/>
+      <c r="D22" s="214"/>
+      <c r="E22" s="215"/>
+      <c r="F22" s="216">
         <v>0</v>
       </c>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143">
+      <c r="G22" s="216"/>
+      <c r="H22" s="216">
         <v>0</v>
       </c>
-      <c r="I22" s="143"/>
+      <c r="I22" s="216"/>
       <c r="J22" s="34">
         <v>0</v>
       </c>
@@ -4034,8 +4034,8 @@
         <f>K22</f>
         <v>0</v>
       </c>
-      <c r="M22" s="148"/>
-      <c r="N22" s="149"/>
+      <c r="M22" s="217"/>
+      <c r="N22" s="218"/>
       <c r="O22" s="11"/>
       <c r="P22" s="36" t="s">
         <v>36</v>
@@ -4045,25 +4045,25 @@
       <c r="S22" s="6"/>
     </row>
     <row r="23" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A23" s="116" t="s">
+      <c r="A23" s="160" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="117"/>
-      <c r="C23" s="117"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="117"/>
-      <c r="F23" s="117"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="117"/>
-      <c r="I23" s="117"/>
-      <c r="J23" s="117"/>
-      <c r="K23" s="118"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="161"/>
+      <c r="D23" s="161"/>
+      <c r="E23" s="161"/>
+      <c r="F23" s="161"/>
+      <c r="G23" s="161"/>
+      <c r="H23" s="161"/>
+      <c r="I23" s="161"/>
+      <c r="J23" s="161"/>
+      <c r="K23" s="162"/>
       <c r="L23" s="37">
         <f>IF(SUM(L12,L15,L18,L19,L21,L22)&gt;100,100,SUM(L12,L15,L18,L19,L21,L22))</f>
         <v>30</v>
       </c>
-      <c r="M23" s="150"/>
-      <c r="N23" s="118"/>
+      <c r="M23" s="198"/>
+      <c r="N23" s="162"/>
       <c r="O23" s="11"/>
       <c r="P23" s="5"/>
       <c r="Q23" s="5"/>
@@ -4115,22 +4115,22 @@
       <c r="S25" s="6"/>
     </row>
     <row r="26" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A26" s="151" t="s">
+      <c r="A26" s="139" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="152"/>
-      <c r="C26" s="152"/>
-      <c r="D26" s="152"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="152"/>
-      <c r="H26" s="152"/>
-      <c r="I26" s="152"/>
-      <c r="J26" s="152"/>
-      <c r="K26" s="152"/>
-      <c r="L26" s="152"/>
-      <c r="M26" s="152"/>
-      <c r="N26" s="152"/>
+      <c r="B26" s="140"/>
+      <c r="C26" s="140"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
+      <c r="K26" s="140"/>
+      <c r="L26" s="140"/>
+      <c r="M26" s="140"/>
+      <c r="N26" s="140"/>
       <c r="O26" s="5"/>
       <c r="P26" s="5"/>
       <c r="Q26" s="5"/>
@@ -4138,26 +4138,26 @@
       <c r="S26" s="6"/>
     </row>
     <row r="27" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A27" s="116" t="s">
+      <c r="A27" s="160" t="s">
         <v>40</v>
       </c>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="117"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="118"/>
-      <c r="K27" s="153" t="s">
+      <c r="B27" s="161"/>
+      <c r="C27" s="161"/>
+      <c r="D27" s="161"/>
+      <c r="E27" s="161"/>
+      <c r="F27" s="161"/>
+      <c r="G27" s="161"/>
+      <c r="H27" s="161"/>
+      <c r="I27" s="161"/>
+      <c r="J27" s="162"/>
+      <c r="K27" s="199" t="s">
         <v>41</v>
       </c>
-      <c r="L27" s="154"/>
-      <c r="M27" s="153" t="s">
+      <c r="L27" s="200"/>
+      <c r="M27" s="199" t="s">
         <v>42</v>
       </c>
-      <c r="N27" s="154"/>
+      <c r="N27" s="200"/>
       <c r="O27" s="11"/>
       <c r="P27" s="5"/>
       <c r="Q27" s="5"/>
@@ -4165,20 +4165,20 @@
       <c r="S27" s="6"/>
     </row>
     <row r="28" spans="1:19" ht="26.25" customHeight="1">
-      <c r="A28" s="155" t="s">
+      <c r="A28" s="201" t="s">
         <v>43</v>
       </c>
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="157"/>
-      <c r="G28" s="116" t="s">
+      <c r="B28" s="202"/>
+      <c r="C28" s="202"/>
+      <c r="D28" s="202"/>
+      <c r="E28" s="202"/>
+      <c r="F28" s="203"/>
+      <c r="G28" s="160" t="s">
         <v>44</v>
       </c>
-      <c r="H28" s="117"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="118"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="162"/>
       <c r="K28" s="17" t="s">
         <v>45</v>
       </c>
@@ -4198,20 +4198,20 @@
       <c r="S28" s="6"/>
     </row>
     <row r="29" spans="1:19" ht="15" customHeight="1">
-      <c r="A29" s="158" t="s">
+      <c r="A29" s="204" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="159"/>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
-      <c r="E29" s="159"/>
-      <c r="F29" s="160"/>
-      <c r="G29" s="161" t="s">
+      <c r="B29" s="176"/>
+      <c r="C29" s="176"/>
+      <c r="D29" s="176"/>
+      <c r="E29" s="176"/>
+      <c r="F29" s="177"/>
+      <c r="G29" s="195" t="s">
         <v>50</v>
       </c>
-      <c r="H29" s="162"/>
-      <c r="I29" s="162"/>
-      <c r="J29" s="163"/>
+      <c r="H29" s="196"/>
+      <c r="I29" s="196"/>
+      <c r="J29" s="197"/>
       <c r="K29" s="39">
         <v>5.81</v>
       </c>
@@ -4227,16 +4227,16 @@
       <c r="S29" s="6"/>
     </row>
     <row r="30" spans="1:19" ht="15" customHeight="1">
-      <c r="A30" s="164"/>
-      <c r="B30" s="159"/>
-      <c r="C30" s="159"/>
-      <c r="D30" s="159"/>
-      <c r="E30" s="159"/>
-      <c r="F30" s="160"/>
-      <c r="G30" s="165"/>
-      <c r="H30" s="166"/>
-      <c r="I30" s="166"/>
-      <c r="J30" s="167"/>
+      <c r="A30" s="175"/>
+      <c r="B30" s="176"/>
+      <c r="C30" s="176"/>
+      <c r="D30" s="176"/>
+      <c r="E30" s="176"/>
+      <c r="F30" s="177"/>
+      <c r="G30" s="178"/>
+      <c r="H30" s="179"/>
+      <c r="I30" s="179"/>
+      <c r="J30" s="180"/>
       <c r="K30" s="45"/>
       <c r="L30" s="46"/>
       <c r="M30" s="47"/>
@@ -4248,16 +4248,16 @@
       <c r="S30" s="6"/>
     </row>
     <row r="31" spans="1:19" ht="15" customHeight="1">
-      <c r="A31" s="164"/>
-      <c r="B31" s="159"/>
-      <c r="C31" s="159"/>
-      <c r="D31" s="159"/>
-      <c r="E31" s="159"/>
-      <c r="F31" s="160"/>
-      <c r="G31" s="165"/>
-      <c r="H31" s="166"/>
-      <c r="I31" s="166"/>
-      <c r="J31" s="167"/>
+      <c r="A31" s="175"/>
+      <c r="B31" s="176"/>
+      <c r="C31" s="176"/>
+      <c r="D31" s="176"/>
+      <c r="E31" s="176"/>
+      <c r="F31" s="177"/>
+      <c r="G31" s="178"/>
+      <c r="H31" s="179"/>
+      <c r="I31" s="179"/>
+      <c r="J31" s="180"/>
       <c r="K31" s="45"/>
       <c r="L31" s="46"/>
       <c r="M31" s="47"/>
@@ -4269,16 +4269,16 @@
       <c r="S31" s="6"/>
     </row>
     <row r="32" spans="1:19" ht="15" customHeight="1">
-      <c r="A32" s="164"/>
-      <c r="B32" s="159"/>
-      <c r="C32" s="159"/>
-      <c r="D32" s="159"/>
-      <c r="E32" s="159"/>
-      <c r="F32" s="160"/>
-      <c r="G32" s="165"/>
-      <c r="H32" s="166"/>
-      <c r="I32" s="166"/>
-      <c r="J32" s="167"/>
+      <c r="A32" s="175"/>
+      <c r="B32" s="176"/>
+      <c r="C32" s="176"/>
+      <c r="D32" s="176"/>
+      <c r="E32" s="176"/>
+      <c r="F32" s="177"/>
+      <c r="G32" s="178"/>
+      <c r="H32" s="179"/>
+      <c r="I32" s="179"/>
+      <c r="J32" s="180"/>
       <c r="K32" s="45"/>
       <c r="L32" s="46"/>
       <c r="M32" s="47"/>
@@ -4290,16 +4290,16 @@
       <c r="S32" s="6"/>
     </row>
     <row r="33" spans="1:19" ht="15" customHeight="1">
-      <c r="A33" s="168"/>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="170"/>
-      <c r="G33" s="171"/>
-      <c r="H33" s="172"/>
-      <c r="I33" s="172"/>
-      <c r="J33" s="173"/>
+      <c r="A33" s="181"/>
+      <c r="B33" s="182"/>
+      <c r="C33" s="182"/>
+      <c r="D33" s="182"/>
+      <c r="E33" s="182"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="184"/>
+      <c r="H33" s="185"/>
+      <c r="I33" s="185"/>
+      <c r="J33" s="186"/>
       <c r="K33" s="48"/>
       <c r="L33" s="49"/>
       <c r="M33" s="50"/>
@@ -4311,18 +4311,18 @@
       <c r="S33" s="6"/>
     </row>
     <row r="34" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A34" s="116" t="s">
+      <c r="A34" s="160" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="117"/>
-      <c r="C34" s="117"/>
-      <c r="D34" s="117"/>
-      <c r="E34" s="117"/>
-      <c r="F34" s="117"/>
-      <c r="G34" s="117"/>
-      <c r="H34" s="117"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="118"/>
+      <c r="B34" s="161"/>
+      <c r="C34" s="161"/>
+      <c r="D34" s="161"/>
+      <c r="E34" s="161"/>
+      <c r="F34" s="161"/>
+      <c r="G34" s="161"/>
+      <c r="H34" s="161"/>
+      <c r="I34" s="161"/>
+      <c r="J34" s="162"/>
       <c r="K34" s="51">
         <f>SUM(K29:K33)</f>
         <v>5.81</v>
@@ -4346,22 +4346,22 @@
       <c r="S34" s="6"/>
     </row>
     <row r="35" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A35" s="174" t="s">
+      <c r="A35" s="187" t="s">
         <v>51</v>
       </c>
-      <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
-      <c r="E35" s="175"/>
-      <c r="F35" s="175"/>
-      <c r="G35" s="175"/>
-      <c r="H35" s="175"/>
-      <c r="I35" s="175"/>
-      <c r="J35" s="175"/>
-      <c r="K35" s="175"/>
-      <c r="L35" s="175"/>
-      <c r="M35" s="175"/>
-      <c r="N35" s="175"/>
+      <c r="B35" s="188"/>
+      <c r="C35" s="188"/>
+      <c r="D35" s="188"/>
+      <c r="E35" s="188"/>
+      <c r="F35" s="188"/>
+      <c r="G35" s="188"/>
+      <c r="H35" s="188"/>
+      <c r="I35" s="188"/>
+      <c r="J35" s="188"/>
+      <c r="K35" s="188"/>
+      <c r="L35" s="188"/>
+      <c r="M35" s="188"/>
+      <c r="N35" s="188"/>
       <c r="O35" s="5"/>
       <c r="P35" s="5"/>
       <c r="Q35" s="5"/>
@@ -4369,24 +4369,24 @@
       <c r="S35" s="6"/>
     </row>
     <row r="36" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A36" s="116" t="s">
+      <c r="A36" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="B36" s="117"/>
-      <c r="C36" s="117"/>
-      <c r="D36" s="117"/>
-      <c r="E36" s="117"/>
-      <c r="F36" s="117"/>
-      <c r="G36" s="117"/>
-      <c r="H36" s="117"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="118"/>
-      <c r="L36" s="116" t="s">
+      <c r="B36" s="161"/>
+      <c r="C36" s="161"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="161"/>
+      <c r="F36" s="161"/>
+      <c r="G36" s="161"/>
+      <c r="H36" s="161"/>
+      <c r="I36" s="161"/>
+      <c r="J36" s="161"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="160" t="s">
         <v>41</v>
       </c>
-      <c r="M36" s="117"/>
-      <c r="N36" s="118"/>
+      <c r="M36" s="161"/>
+      <c r="N36" s="162"/>
       <c r="O36" s="11"/>
       <c r="P36" s="5"/>
       <c r="Q36" s="5"/>
@@ -4397,19 +4397,19 @@
       <c r="A37" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="B37" s="176" t="s">
+      <c r="B37" s="189" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="177"/>
-      <c r="D37" s="177"/>
-      <c r="E37" s="177"/>
-      <c r="F37" s="177"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="179" t="s">
+      <c r="C37" s="190"/>
+      <c r="D37" s="190"/>
+      <c r="E37" s="190"/>
+      <c r="F37" s="190"/>
+      <c r="G37" s="191"/>
+      <c r="H37" s="101" t="s">
         <v>44</v>
       </c>
-      <c r="I37" s="180"/>
-      <c r="J37" s="181"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="103"/>
       <c r="K37" s="54" t="s">
         <v>55</v>
       </c>
@@ -4434,19 +4434,19 @@
       <c r="A38" s="57">
         <v>7</v>
       </c>
-      <c r="B38" s="182" t="s">
+      <c r="B38" s="192" t="s">
         <v>60</v>
       </c>
-      <c r="C38" s="183"/>
-      <c r="D38" s="183"/>
-      <c r="E38" s="183"/>
-      <c r="F38" s="183"/>
-      <c r="G38" s="184"/>
-      <c r="H38" s="161" t="s">
+      <c r="C38" s="193"/>
+      <c r="D38" s="193"/>
+      <c r="E38" s="193"/>
+      <c r="F38" s="193"/>
+      <c r="G38" s="194"/>
+      <c r="H38" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="I38" s="162"/>
-      <c r="J38" s="163"/>
+      <c r="I38" s="196"/>
+      <c r="J38" s="197"/>
       <c r="K38" s="58">
         <v>4</v>
       </c>
@@ -4465,15 +4465,15 @@
     </row>
     <row r="39" spans="1:19" ht="15" customHeight="1">
       <c r="A39" s="62"/>
-      <c r="B39" s="164"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="160"/>
-      <c r="H39" s="165"/>
-      <c r="I39" s="166"/>
-      <c r="J39" s="167"/>
+      <c r="B39" s="175"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="176"/>
+      <c r="E39" s="176"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="177"/>
+      <c r="H39" s="178"/>
+      <c r="I39" s="179"/>
+      <c r="J39" s="180"/>
       <c r="K39" s="63"/>
       <c r="L39" s="64"/>
       <c r="M39" s="65"/>
@@ -4488,15 +4488,15 @@
     </row>
     <row r="40" spans="1:19" ht="15" customHeight="1">
       <c r="A40" s="62"/>
-      <c r="B40" s="164"/>
-      <c r="C40" s="159"/>
-      <c r="D40" s="159"/>
-      <c r="E40" s="159"/>
-      <c r="F40" s="159"/>
-      <c r="G40" s="160"/>
-      <c r="H40" s="165"/>
-      <c r="I40" s="166"/>
-      <c r="J40" s="167"/>
+      <c r="B40" s="175"/>
+      <c r="C40" s="176"/>
+      <c r="D40" s="176"/>
+      <c r="E40" s="176"/>
+      <c r="F40" s="176"/>
+      <c r="G40" s="177"/>
+      <c r="H40" s="178"/>
+      <c r="I40" s="179"/>
+      <c r="J40" s="180"/>
       <c r="K40" s="63"/>
       <c r="L40" s="64"/>
       <c r="M40" s="65"/>
@@ -4511,15 +4511,15 @@
     </row>
     <row r="41" spans="1:19" ht="15" customHeight="1">
       <c r="A41" s="62"/>
-      <c r="B41" s="164"/>
-      <c r="C41" s="159"/>
-      <c r="D41" s="159"/>
-      <c r="E41" s="159"/>
-      <c r="F41" s="159"/>
-      <c r="G41" s="160"/>
-      <c r="H41" s="165"/>
-      <c r="I41" s="166"/>
-      <c r="J41" s="167"/>
+      <c r="B41" s="175"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="176"/>
+      <c r="E41" s="176"/>
+      <c r="F41" s="176"/>
+      <c r="G41" s="177"/>
+      <c r="H41" s="178"/>
+      <c r="I41" s="179"/>
+      <c r="J41" s="180"/>
       <c r="K41" s="63"/>
       <c r="L41" s="64"/>
       <c r="M41" s="65"/>
@@ -4534,15 +4534,15 @@
     </row>
     <row r="42" spans="1:19" ht="15" customHeight="1">
       <c r="A42" s="62"/>
-      <c r="B42" s="164"/>
-      <c r="C42" s="159"/>
-      <c r="D42" s="159"/>
-      <c r="E42" s="159"/>
-      <c r="F42" s="159"/>
-      <c r="G42" s="160"/>
-      <c r="H42" s="165"/>
-      <c r="I42" s="166"/>
-      <c r="J42" s="167"/>
+      <c r="B42" s="175"/>
+      <c r="C42" s="176"/>
+      <c r="D42" s="176"/>
+      <c r="E42" s="176"/>
+      <c r="F42" s="176"/>
+      <c r="G42" s="177"/>
+      <c r="H42" s="178"/>
+      <c r="I42" s="179"/>
+      <c r="J42" s="180"/>
       <c r="K42" s="63"/>
       <c r="L42" s="64"/>
       <c r="M42" s="65"/>
@@ -4557,15 +4557,15 @@
     </row>
     <row r="43" spans="1:19" ht="15" customHeight="1">
       <c r="A43" s="62"/>
-      <c r="B43" s="164"/>
-      <c r="C43" s="159"/>
-      <c r="D43" s="159"/>
-      <c r="E43" s="159"/>
-      <c r="F43" s="159"/>
-      <c r="G43" s="160"/>
-      <c r="H43" s="165"/>
-      <c r="I43" s="166"/>
-      <c r="J43" s="167"/>
+      <c r="B43" s="175"/>
+      <c r="C43" s="176"/>
+      <c r="D43" s="176"/>
+      <c r="E43" s="176"/>
+      <c r="F43" s="176"/>
+      <c r="G43" s="177"/>
+      <c r="H43" s="178"/>
+      <c r="I43" s="179"/>
+      <c r="J43" s="180"/>
       <c r="K43" s="63"/>
       <c r="L43" s="64"/>
       <c r="M43" s="65"/>
@@ -4580,15 +4580,15 @@
     </row>
     <row r="44" spans="1:19" ht="15" customHeight="1">
       <c r="A44" s="66"/>
-      <c r="B44" s="168"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="169"/>
-      <c r="E44" s="169"/>
-      <c r="F44" s="169"/>
-      <c r="G44" s="170"/>
-      <c r="H44" s="171"/>
-      <c r="I44" s="172"/>
-      <c r="J44" s="173"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="182"/>
+      <c r="D44" s="182"/>
+      <c r="E44" s="182"/>
+      <c r="F44" s="182"/>
+      <c r="G44" s="183"/>
+      <c r="H44" s="184"/>
+      <c r="I44" s="185"/>
+      <c r="J44" s="186"/>
       <c r="K44" s="67"/>
       <c r="L44" s="68"/>
       <c r="M44" s="69"/>
@@ -4602,21 +4602,21 @@
       <c r="S44" s="6"/>
     </row>
     <row r="45" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A45" s="116" t="s">
+      <c r="A45" s="160" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="117"/>
-      <c r="C45" s="117"/>
-      <c r="D45" s="117"/>
-      <c r="E45" s="117"/>
-      <c r="F45" s="117"/>
-      <c r="G45" s="117"/>
-      <c r="H45" s="117"/>
-      <c r="I45" s="117"/>
-      <c r="J45" s="117"/>
-      <c r="K45" s="117"/>
-      <c r="L45" s="117"/>
-      <c r="M45" s="118"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="161"/>
+      <c r="D45" s="161"/>
+      <c r="E45" s="161"/>
+      <c r="F45" s="161"/>
+      <c r="G45" s="161"/>
+      <c r="H45" s="161"/>
+      <c r="I45" s="161"/>
+      <c r="J45" s="161"/>
+      <c r="K45" s="161"/>
+      <c r="L45" s="161"/>
+      <c r="M45" s="162"/>
       <c r="N45" s="37">
         <f>SUM(H38,H39,H40,H41,H43,H44,N38,N39,N40,N41,N43,N44)</f>
         <v>0</v>
@@ -4672,22 +4672,22 @@
       <c r="S47" s="6"/>
     </row>
     <row r="48" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A48" s="185" t="s">
+      <c r="A48" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="B48" s="186"/>
-      <c r="C48" s="186"/>
-      <c r="D48" s="186"/>
-      <c r="E48" s="186"/>
-      <c r="F48" s="186"/>
-      <c r="G48" s="186"/>
-      <c r="H48" s="186"/>
-      <c r="I48" s="186"/>
-      <c r="J48" s="186"/>
-      <c r="K48" s="186"/>
-      <c r="L48" s="186"/>
-      <c r="M48" s="186"/>
-      <c r="N48" s="186"/>
+      <c r="B48" s="164"/>
+      <c r="C48" s="164"/>
+      <c r="D48" s="164"/>
+      <c r="E48" s="164"/>
+      <c r="F48" s="164"/>
+      <c r="G48" s="164"/>
+      <c r="H48" s="164"/>
+      <c r="I48" s="164"/>
+      <c r="J48" s="164"/>
+      <c r="K48" s="164"/>
+      <c r="L48" s="164"/>
+      <c r="M48" s="164"/>
+      <c r="N48" s="164"/>
       <c r="O48" s="5"/>
       <c r="P48" s="5"/>
       <c r="Q48" s="5"/>
@@ -4695,34 +4695,34 @@
       <c r="S48" s="6"/>
     </row>
     <row r="49" spans="1:19" ht="16.5" customHeight="1">
-      <c r="A49" s="187" t="s">
+      <c r="A49" s="165" t="s">
         <v>71</v>
       </c>
-      <c r="B49" s="188"/>
-      <c r="C49" s="189" t="s">
+      <c r="B49" s="166"/>
+      <c r="C49" s="167" t="s">
         <v>72</v>
       </c>
-      <c r="D49" s="189" t="s">
+      <c r="D49" s="167" t="s">
         <v>73</v>
       </c>
-      <c r="E49" s="189" t="s">
+      <c r="E49" s="167" t="s">
         <v>74</v>
       </c>
-      <c r="F49" s="189" t="s">
+      <c r="F49" s="167" t="s">
         <v>75</v>
       </c>
-      <c r="G49" s="191" t="s">
+      <c r="G49" s="168" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="193" t="s">
+      <c r="H49" s="170" t="s">
         <v>77</v>
       </c>
-      <c r="I49" s="194"/>
-      <c r="J49" s="194"/>
-      <c r="K49" s="194"/>
-      <c r="L49" s="194"/>
-      <c r="M49" s="194"/>
-      <c r="N49" s="195"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="171"/>
+      <c r="K49" s="171"/>
+      <c r="L49" s="171"/>
+      <c r="M49" s="171"/>
+      <c r="N49" s="172"/>
       <c r="O49" s="72"/>
       <c r="P49" s="5"/>
       <c r="Q49" s="5"/>
@@ -4736,23 +4736,23 @@
       <c r="B50" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="190"/>
-      <c r="D50" s="190"/>
-      <c r="E50" s="190"/>
-      <c r="F50" s="190"/>
-      <c r="G50" s="192"/>
+      <c r="C50" s="118"/>
+      <c r="D50" s="118"/>
+      <c r="E50" s="118"/>
+      <c r="F50" s="118"/>
+      <c r="G50" s="169"/>
       <c r="H50" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="I50" s="179" t="s">
+      <c r="I50" s="101" t="s">
         <v>80</v>
       </c>
-      <c r="J50" s="180"/>
-      <c r="K50" s="181"/>
-      <c r="L50" s="196" t="s">
+      <c r="J50" s="102"/>
+      <c r="K50" s="103"/>
+      <c r="L50" s="173" t="s">
         <v>81</v>
       </c>
-      <c r="M50" s="197"/>
+      <c r="M50" s="174"/>
       <c r="N50" s="74" t="s">
         <v>82</v>
       </c>
@@ -4771,19 +4771,21 @@
       <c r="D51" s="77"/>
       <c r="E51" s="77"/>
       <c r="F51" s="77"/>
-      <c r="G51" s="198"/>
+      <c r="G51" s="147">
+        <v>7.5</v>
+      </c>
       <c r="H51" s="78"/>
-      <c r="I51" s="201"/>
-      <c r="J51" s="201"/>
-      <c r="K51" s="201"/>
-      <c r="L51" s="202"/>
-      <c r="M51" s="203"/>
+      <c r="I51" s="150"/>
+      <c r="J51" s="150"/>
+      <c r="K51" s="150"/>
+      <c r="L51" s="151"/>
+      <c r="M51" s="152"/>
       <c r="N51" s="79"/>
       <c r="O51" s="72"/>
-      <c r="P51" s="204" t="s">
+      <c r="P51" s="153" t="s">
         <v>84</v>
       </c>
-      <c r="Q51" s="102"/>
+      <c r="Q51" s="107"/>
       <c r="R51" s="5"/>
       <c r="S51" s="6"/>
     </row>
@@ -4796,17 +4798,17 @@
       <c r="D52" s="82"/>
       <c r="E52" s="82"/>
       <c r="F52" s="82"/>
-      <c r="G52" s="199"/>
+      <c r="G52" s="148"/>
       <c r="H52" s="83"/>
-      <c r="I52" s="205"/>
-      <c r="J52" s="205"/>
-      <c r="K52" s="205"/>
-      <c r="L52" s="206"/>
-      <c r="M52" s="207"/>
+      <c r="I52" s="154"/>
+      <c r="J52" s="154"/>
+      <c r="K52" s="154"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="156"/>
       <c r="N52" s="84"/>
       <c r="O52" s="72"/>
-      <c r="P52" s="102"/>
-      <c r="Q52" s="102"/>
+      <c r="P52" s="107"/>
+      <c r="Q52" s="107"/>
       <c r="R52" s="5"/>
       <c r="S52" s="6"/>
     </row>
@@ -4819,17 +4821,17 @@
       <c r="D53" s="82"/>
       <c r="E53" s="82"/>
       <c r="F53" s="82"/>
-      <c r="G53" s="199"/>
+      <c r="G53" s="148"/>
       <c r="H53" s="83"/>
-      <c r="I53" s="205"/>
-      <c r="J53" s="205"/>
-      <c r="K53" s="205"/>
-      <c r="L53" s="206"/>
-      <c r="M53" s="207"/>
+      <c r="I53" s="154"/>
+      <c r="J53" s="154"/>
+      <c r="K53" s="154"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="156"/>
       <c r="N53" s="84"/>
       <c r="O53" s="72"/>
-      <c r="P53" s="102"/>
-      <c r="Q53" s="102"/>
+      <c r="P53" s="107"/>
+      <c r="Q53" s="107"/>
       <c r="R53" s="5"/>
       <c r="S53" s="6"/>
     </row>
@@ -4842,17 +4844,17 @@
       <c r="D54" s="82"/>
       <c r="E54" s="82"/>
       <c r="F54" s="82"/>
-      <c r="G54" s="199"/>
+      <c r="G54" s="148"/>
       <c r="H54" s="83"/>
-      <c r="I54" s="205"/>
-      <c r="J54" s="205"/>
-      <c r="K54" s="205"/>
-      <c r="L54" s="206"/>
-      <c r="M54" s="207"/>
+      <c r="I54" s="154"/>
+      <c r="J54" s="154"/>
+      <c r="K54" s="154"/>
+      <c r="L54" s="155"/>
+      <c r="M54" s="156"/>
       <c r="N54" s="84"/>
       <c r="O54" s="72"/>
-      <c r="P54" s="102"/>
-      <c r="Q54" s="102"/>
+      <c r="P54" s="107"/>
+      <c r="Q54" s="107"/>
       <c r="R54" s="5"/>
       <c r="S54" s="6"/>
     </row>
@@ -4865,17 +4867,17 @@
       <c r="D55" s="82"/>
       <c r="E55" s="82"/>
       <c r="F55" s="82"/>
-      <c r="G55" s="199"/>
+      <c r="G55" s="148"/>
       <c r="H55" s="83"/>
-      <c r="I55" s="205"/>
-      <c r="J55" s="205"/>
-      <c r="K55" s="205"/>
-      <c r="L55" s="206"/>
-      <c r="M55" s="207"/>
+      <c r="I55" s="154"/>
+      <c r="J55" s="154"/>
+      <c r="K55" s="154"/>
+      <c r="L55" s="155"/>
+      <c r="M55" s="156"/>
       <c r="N55" s="84"/>
       <c r="O55" s="72"/>
-      <c r="P55" s="102"/>
-      <c r="Q55" s="102"/>
+      <c r="P55" s="107"/>
+      <c r="Q55" s="107"/>
       <c r="R55" s="5"/>
       <c r="S55" s="6"/>
     </row>
@@ -4888,17 +4890,17 @@
       <c r="D56" s="87"/>
       <c r="E56" s="87"/>
       <c r="F56" s="87"/>
-      <c r="G56" s="200"/>
+      <c r="G56" s="149"/>
       <c r="H56" s="88"/>
-      <c r="I56" s="208"/>
-      <c r="J56" s="208"/>
-      <c r="K56" s="208"/>
-      <c r="L56" s="209"/>
-      <c r="M56" s="210"/>
+      <c r="I56" s="157"/>
+      <c r="J56" s="157"/>
+      <c r="K56" s="157"/>
+      <c r="L56" s="158"/>
+      <c r="M56" s="159"/>
       <c r="N56" s="89"/>
       <c r="O56" s="72"/>
-      <c r="P56" s="102"/>
-      <c r="Q56" s="102"/>
+      <c r="P56" s="107"/>
+      <c r="Q56" s="107"/>
       <c r="R56" s="5"/>
       <c r="S56" s="6"/>
     </row>
@@ -4928,16 +4930,16 @@
       <c r="G57" s="93">
         <v>0</v>
       </c>
-      <c r="H57" s="221" t="s">
+      <c r="H57" s="134" t="s">
         <v>91</v>
       </c>
-      <c r="I57" s="222"/>
-      <c r="J57" s="222"/>
-      <c r="K57" s="223"/>
-      <c r="L57" s="224">
+      <c r="I57" s="135"/>
+      <c r="J57" s="135"/>
+      <c r="K57" s="136"/>
+      <c r="L57" s="137">
         <v>0</v>
       </c>
-      <c r="M57" s="225"/>
+      <c r="M57" s="138"/>
       <c r="N57" s="94">
         <f>L57*3</f>
         <v>0</v>
@@ -4970,22 +4972,22 @@
       <c r="S58" s="6"/>
     </row>
     <row r="59" spans="1:19" ht="14.4" customHeight="1">
-      <c r="A59" s="151" t="s">
+      <c r="A59" s="139" t="s">
         <v>92</v>
       </c>
-      <c r="B59" s="152"/>
-      <c r="C59" s="152"/>
-      <c r="D59" s="152"/>
-      <c r="E59" s="152"/>
-      <c r="F59" s="152"/>
-      <c r="G59" s="152"/>
-      <c r="H59" s="152"/>
-      <c r="I59" s="152"/>
-      <c r="J59" s="152"/>
-      <c r="K59" s="152"/>
-      <c r="L59" s="152"/>
-      <c r="M59" s="152"/>
-      <c r="N59" s="152"/>
+      <c r="B59" s="140"/>
+      <c r="C59" s="140"/>
+      <c r="D59" s="140"/>
+      <c r="E59" s="140"/>
+      <c r="F59" s="140"/>
+      <c r="G59" s="140"/>
+      <c r="H59" s="140"/>
+      <c r="I59" s="140"/>
+      <c r="J59" s="140"/>
+      <c r="K59" s="140"/>
+      <c r="L59" s="140"/>
+      <c r="M59" s="140"/>
+      <c r="N59" s="140"/>
       <c r="O59" s="5"/>
       <c r="P59" s="5"/>
       <c r="Q59" s="5"/>
@@ -4993,26 +4995,26 @@
       <c r="S59" s="6"/>
     </row>
     <row r="60" spans="1:19" ht="16.05" customHeight="1">
-      <c r="A60" s="226" t="s">
+      <c r="A60" s="117" t="s">
         <v>93</v>
       </c>
-      <c r="B60" s="227" t="s">
+      <c r="B60" s="141" t="s">
         <v>94</v>
       </c>
-      <c r="C60" s="228"/>
-      <c r="D60" s="228"/>
-      <c r="E60" s="228"/>
-      <c r="F60" s="228"/>
-      <c r="G60" s="228"/>
-      <c r="H60" s="228"/>
-      <c r="I60" s="228"/>
-      <c r="J60" s="228"/>
-      <c r="K60" s="229"/>
-      <c r="L60" s="179" t="s">
+      <c r="C60" s="142"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="142"/>
+      <c r="I60" s="142"/>
+      <c r="J60" s="142"/>
+      <c r="K60" s="143"/>
+      <c r="L60" s="101" t="s">
         <v>95</v>
       </c>
-      <c r="M60" s="180"/>
-      <c r="N60" s="181"/>
+      <c r="M60" s="102"/>
+      <c r="N60" s="103"/>
       <c r="O60" s="11"/>
       <c r="P60" s="5"/>
       <c r="Q60" s="5"/>
@@ -5020,17 +5022,17 @@
       <c r="S60" s="6"/>
     </row>
     <row r="61" spans="1:19" ht="16.05" customHeight="1">
-      <c r="A61" s="190"/>
-      <c r="B61" s="230"/>
-      <c r="C61" s="231"/>
-      <c r="D61" s="231"/>
-      <c r="E61" s="231"/>
-      <c r="F61" s="231"/>
-      <c r="G61" s="231"/>
-      <c r="H61" s="231"/>
-      <c r="I61" s="231"/>
-      <c r="J61" s="231"/>
-      <c r="K61" s="232"/>
+      <c r="A61" s="118"/>
+      <c r="B61" s="144"/>
+      <c r="C61" s="145"/>
+      <c r="D61" s="145"/>
+      <c r="E61" s="145"/>
+      <c r="F61" s="145"/>
+      <c r="G61" s="145"/>
+      <c r="H61" s="145"/>
+      <c r="I61" s="145"/>
+      <c r="J61" s="145"/>
+      <c r="K61" s="146"/>
       <c r="L61" s="53" t="s">
         <v>53</v>
       </c>
@@ -5047,745 +5049,875 @@
       <c r="S61" s="6"/>
     </row>
     <row r="62" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A62" s="226" t="s">
+      <c r="A62" s="117" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="233" t="s">
+      <c r="B62" s="111" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="234"/>
-      <c r="D62" s="234"/>
-      <c r="E62" s="234"/>
-      <c r="F62" s="234"/>
-      <c r="G62" s="234"/>
-      <c r="H62" s="234"/>
-      <c r="I62" s="234"/>
-      <c r="J62" s="234"/>
-      <c r="K62" s="235"/>
+      <c r="C62" s="112"/>
+      <c r="D62" s="112"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="112"/>
+      <c r="G62" s="112"/>
+      <c r="H62" s="112"/>
+      <c r="I62" s="112"/>
+      <c r="J62" s="112"/>
+      <c r="K62" s="113"/>
       <c r="L62" s="55" t="s">
         <v>100</v>
       </c>
       <c r="M62" s="58">
         <v>5</v>
       </c>
-      <c r="N62" s="219">
+      <c r="N62" s="115">
         <f>IF(ISERROR(AVERAGE(M63:M64)),0,ROUNDUP(AVERAGE(M63:M64),1))</f>
         <v>0</v>
       </c>
       <c r="O62" s="11"/>
-      <c r="P62" s="220" t="s">
+      <c r="P62" s="106" t="s">
         <v>101</v>
       </c>
-      <c r="Q62" s="102"/>
-      <c r="R62" s="102"/>
-      <c r="S62" s="239"/>
+      <c r="Q62" s="107"/>
+      <c r="R62" s="107"/>
+      <c r="S62" s="108"/>
     </row>
     <row r="63" spans="1:19" ht="14.4" customHeight="1">
-      <c r="A63" s="190"/>
-      <c r="B63" s="236"/>
-      <c r="C63" s="234"/>
-      <c r="D63" s="234"/>
-      <c r="E63" s="234"/>
-      <c r="F63" s="234"/>
-      <c r="G63" s="234"/>
-      <c r="H63" s="234"/>
-      <c r="I63" s="234"/>
-      <c r="J63" s="234"/>
-      <c r="K63" s="235"/>
+      <c r="A63" s="118"/>
+      <c r="B63" s="114"/>
+      <c r="C63" s="112"/>
+      <c r="D63" s="112"/>
+      <c r="E63" s="112"/>
+      <c r="F63" s="112"/>
+      <c r="G63" s="112"/>
+      <c r="H63" s="112"/>
+      <c r="I63" s="112"/>
+      <c r="J63" s="112"/>
+      <c r="K63" s="113"/>
       <c r="L63" s="97" t="s">
         <v>102</v>
       </c>
       <c r="M63" s="62"/>
-      <c r="N63" s="104"/>
+      <c r="N63" s="116"/>
       <c r="O63" s="11"/>
-      <c r="P63" s="102"/>
-      <c r="Q63" s="102"/>
-      <c r="R63" s="102"/>
-      <c r="S63" s="239"/>
+      <c r="P63" s="107"/>
+      <c r="Q63" s="107"/>
+      <c r="R63" s="107"/>
+      <c r="S63" s="108"/>
     </row>
     <row r="64" spans="1:19" ht="14.4" customHeight="1">
-      <c r="A64" s="190"/>
-      <c r="B64" s="236"/>
-      <c r="C64" s="234"/>
-      <c r="D64" s="234"/>
-      <c r="E64" s="234"/>
-      <c r="F64" s="234"/>
-      <c r="G64" s="234"/>
-      <c r="H64" s="234"/>
-      <c r="I64" s="234"/>
-      <c r="J64" s="234"/>
-      <c r="K64" s="235"/>
+      <c r="A64" s="118"/>
+      <c r="B64" s="114"/>
+      <c r="C64" s="112"/>
+      <c r="D64" s="112"/>
+      <c r="E64" s="112"/>
+      <c r="F64" s="112"/>
+      <c r="G64" s="112"/>
+      <c r="H64" s="112"/>
+      <c r="I64" s="112"/>
+      <c r="J64" s="112"/>
+      <c r="K64" s="113"/>
       <c r="L64" s="97" t="s">
         <v>103</v>
       </c>
       <c r="M64" s="66"/>
-      <c r="N64" s="104"/>
+      <c r="N64" s="116"/>
       <c r="O64" s="11"/>
-      <c r="P64" s="102"/>
-      <c r="Q64" s="102"/>
-      <c r="R64" s="102"/>
-      <c r="S64" s="239"/>
+      <c r="P64" s="107"/>
+      <c r="Q64" s="107"/>
+      <c r="R64" s="107"/>
+      <c r="S64" s="108"/>
     </row>
     <row r="65" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A65" s="190"/>
-      <c r="B65" s="233" t="s">
+      <c r="A65" s="118"/>
+      <c r="B65" s="111" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="234"/>
-      <c r="D65" s="234"/>
-      <c r="E65" s="234"/>
-      <c r="F65" s="234"/>
-      <c r="G65" s="234"/>
-      <c r="H65" s="234"/>
-      <c r="I65" s="234"/>
-      <c r="J65" s="234"/>
-      <c r="K65" s="235"/>
+      <c r="C65" s="112"/>
+      <c r="D65" s="112"/>
+      <c r="E65" s="112"/>
+      <c r="F65" s="112"/>
+      <c r="G65" s="112"/>
+      <c r="H65" s="112"/>
+      <c r="I65" s="112"/>
+      <c r="J65" s="112"/>
+      <c r="K65" s="113"/>
       <c r="L65" s="97" t="s">
         <v>100</v>
       </c>
       <c r="M65" s="58">
         <v>5</v>
       </c>
-      <c r="N65" s="219">
+      <c r="N65" s="115">
         <f>IF(ISERROR(AVERAGE(M66:M67)),0,ROUNDUP(AVERAGE(M66:M67),1))</f>
         <v>0</v>
       </c>
       <c r="O65" s="11"/>
-      <c r="P65" s="220" t="s">
+      <c r="P65" s="106" t="s">
         <v>105</v>
       </c>
-      <c r="Q65" s="102"/>
-      <c r="R65" s="102"/>
-      <c r="S65" s="239"/>
+      <c r="Q65" s="107"/>
+      <c r="R65" s="107"/>
+      <c r="S65" s="108"/>
     </row>
     <row r="66" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A66" s="190"/>
-      <c r="B66" s="236"/>
-      <c r="C66" s="234"/>
-      <c r="D66" s="234"/>
-      <c r="E66" s="234"/>
-      <c r="F66" s="234"/>
-      <c r="G66" s="234"/>
-      <c r="H66" s="234"/>
-      <c r="I66" s="234"/>
-      <c r="J66" s="234"/>
-      <c r="K66" s="235"/>
+      <c r="A66" s="118"/>
+      <c r="B66" s="114"/>
+      <c r="C66" s="112"/>
+      <c r="D66" s="112"/>
+      <c r="E66" s="112"/>
+      <c r="F66" s="112"/>
+      <c r="G66" s="112"/>
+      <c r="H66" s="112"/>
+      <c r="I66" s="112"/>
+      <c r="J66" s="112"/>
+      <c r="K66" s="113"/>
       <c r="L66" s="97" t="s">
         <v>102</v>
       </c>
       <c r="M66" s="62"/>
-      <c r="N66" s="104"/>
+      <c r="N66" s="116"/>
       <c r="O66" s="11"/>
-      <c r="P66" s="102"/>
-      <c r="Q66" s="102"/>
-      <c r="R66" s="102"/>
-      <c r="S66" s="239"/>
+      <c r="P66" s="107"/>
+      <c r="Q66" s="107"/>
+      <c r="R66" s="107"/>
+      <c r="S66" s="108"/>
     </row>
     <row r="67" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A67" s="190"/>
-      <c r="B67" s="236"/>
-      <c r="C67" s="234"/>
-      <c r="D67" s="234"/>
-      <c r="E67" s="234"/>
-      <c r="F67" s="234"/>
-      <c r="G67" s="234"/>
-      <c r="H67" s="234"/>
-      <c r="I67" s="234"/>
-      <c r="J67" s="234"/>
-      <c r="K67" s="235"/>
+      <c r="A67" s="118"/>
+      <c r="B67" s="114"/>
+      <c r="C67" s="112"/>
+      <c r="D67" s="112"/>
+      <c r="E67" s="112"/>
+      <c r="F67" s="112"/>
+      <c r="G67" s="112"/>
+      <c r="H67" s="112"/>
+      <c r="I67" s="112"/>
+      <c r="J67" s="112"/>
+      <c r="K67" s="113"/>
       <c r="L67" s="98" t="s">
         <v>103</v>
       </c>
       <c r="M67" s="66"/>
-      <c r="N67" s="104"/>
+      <c r="N67" s="116"/>
       <c r="O67" s="11"/>
-      <c r="P67" s="102"/>
-      <c r="Q67" s="102"/>
-      <c r="R67" s="102"/>
-      <c r="S67" s="239"/>
+      <c r="P67" s="107"/>
+      <c r="Q67" s="107"/>
+      <c r="R67" s="107"/>
+      <c r="S67" s="108"/>
     </row>
     <row r="68" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A68" s="226" t="s">
+      <c r="A68" s="117" t="s">
         <v>106</v>
       </c>
-      <c r="B68" s="233" t="s">
+      <c r="B68" s="111" t="s">
         <v>107</v>
       </c>
-      <c r="C68" s="234"/>
-      <c r="D68" s="234"/>
-      <c r="E68" s="234"/>
-      <c r="F68" s="234"/>
-      <c r="G68" s="234"/>
-      <c r="H68" s="234"/>
-      <c r="I68" s="234"/>
-      <c r="J68" s="234"/>
-      <c r="K68" s="235"/>
+      <c r="C68" s="112"/>
+      <c r="D68" s="112"/>
+      <c r="E68" s="112"/>
+      <c r="F68" s="112"/>
+      <c r="G68" s="112"/>
+      <c r="H68" s="112"/>
+      <c r="I68" s="112"/>
+      <c r="J68" s="112"/>
+      <c r="K68" s="113"/>
       <c r="L68" s="55" t="s">
         <v>100</v>
       </c>
       <c r="M68" s="58">
         <v>5</v>
       </c>
-      <c r="N68" s="219">
+      <c r="N68" s="115">
         <f>IF(ISERROR(AVERAGE(M69:M70)),0,ROUNDUP(AVERAGE(M69:M70),1))</f>
         <v>0</v>
       </c>
       <c r="O68" s="11"/>
-      <c r="P68" s="220" t="s">
+      <c r="P68" s="106" t="s">
         <v>108</v>
       </c>
-      <c r="Q68" s="102"/>
-      <c r="R68" s="102"/>
-      <c r="S68" s="239"/>
+      <c r="Q68" s="107"/>
+      <c r="R68" s="107"/>
+      <c r="S68" s="108"/>
     </row>
     <row r="69" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A69" s="190"/>
-      <c r="B69" s="236"/>
-      <c r="C69" s="234"/>
-      <c r="D69" s="234"/>
-      <c r="E69" s="234"/>
-      <c r="F69" s="234"/>
-      <c r="G69" s="234"/>
-      <c r="H69" s="234"/>
-      <c r="I69" s="234"/>
-      <c r="J69" s="234"/>
-      <c r="K69" s="235"/>
+      <c r="A69" s="118"/>
+      <c r="B69" s="114"/>
+      <c r="C69" s="112"/>
+      <c r="D69" s="112"/>
+      <c r="E69" s="112"/>
+      <c r="F69" s="112"/>
+      <c r="G69" s="112"/>
+      <c r="H69" s="112"/>
+      <c r="I69" s="112"/>
+      <c r="J69" s="112"/>
+      <c r="K69" s="113"/>
       <c r="L69" s="97" t="s">
         <v>102</v>
       </c>
       <c r="M69" s="62"/>
-      <c r="N69" s="104"/>
+      <c r="N69" s="116"/>
       <c r="O69" s="11"/>
-      <c r="P69" s="102"/>
-      <c r="Q69" s="102"/>
-      <c r="R69" s="102"/>
-      <c r="S69" s="239"/>
+      <c r="P69" s="107"/>
+      <c r="Q69" s="107"/>
+      <c r="R69" s="107"/>
+      <c r="S69" s="108"/>
     </row>
     <row r="70" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A70" s="190"/>
-      <c r="B70" s="236"/>
-      <c r="C70" s="234"/>
-      <c r="D70" s="234"/>
-      <c r="E70" s="234"/>
-      <c r="F70" s="234"/>
-      <c r="G70" s="234"/>
-      <c r="H70" s="234"/>
-      <c r="I70" s="234"/>
-      <c r="J70" s="234"/>
-      <c r="K70" s="235"/>
+      <c r="A70" s="118"/>
+      <c r="B70" s="114"/>
+      <c r="C70" s="112"/>
+      <c r="D70" s="112"/>
+      <c r="E70" s="112"/>
+      <c r="F70" s="112"/>
+      <c r="G70" s="112"/>
+      <c r="H70" s="112"/>
+      <c r="I70" s="112"/>
+      <c r="J70" s="112"/>
+      <c r="K70" s="113"/>
       <c r="L70" s="97" t="s">
         <v>103</v>
       </c>
       <c r="M70" s="66"/>
-      <c r="N70" s="104"/>
+      <c r="N70" s="116"/>
       <c r="O70" s="11"/>
-      <c r="P70" s="102"/>
-      <c r="Q70" s="102"/>
-      <c r="R70" s="102"/>
-      <c r="S70" s="239"/>
+      <c r="P70" s="107"/>
+      <c r="Q70" s="107"/>
+      <c r="R70" s="107"/>
+      <c r="S70" s="108"/>
     </row>
     <row r="71" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A71" s="190"/>
-      <c r="B71" s="233" t="s">
+      <c r="A71" s="118"/>
+      <c r="B71" s="111" t="s">
         <v>109</v>
       </c>
-      <c r="C71" s="234"/>
-      <c r="D71" s="234"/>
-      <c r="E71" s="234"/>
-      <c r="F71" s="234"/>
-      <c r="G71" s="234"/>
-      <c r="H71" s="234"/>
-      <c r="I71" s="234"/>
-      <c r="J71" s="234"/>
-      <c r="K71" s="235"/>
+      <c r="C71" s="112"/>
+      <c r="D71" s="112"/>
+      <c r="E71" s="112"/>
+      <c r="F71" s="112"/>
+      <c r="G71" s="112"/>
+      <c r="H71" s="112"/>
+      <c r="I71" s="112"/>
+      <c r="J71" s="112"/>
+      <c r="K71" s="113"/>
       <c r="L71" s="97" t="s">
         <v>100</v>
       </c>
       <c r="M71" s="58">
         <v>5</v>
       </c>
-      <c r="N71" s="219">
+      <c r="N71" s="115">
         <f>IF(ISERROR(AVERAGE(M72:M73)),0,ROUNDUP(AVERAGE(M72:M73),1))</f>
         <v>0</v>
       </c>
       <c r="O71" s="11"/>
-      <c r="P71" s="220" t="s">
+      <c r="P71" s="106" t="s">
         <v>110</v>
       </c>
-      <c r="Q71" s="102"/>
-      <c r="R71" s="102"/>
-      <c r="S71" s="239"/>
+      <c r="Q71" s="107"/>
+      <c r="R71" s="107"/>
+      <c r="S71" s="108"/>
     </row>
     <row r="72" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A72" s="190"/>
-      <c r="B72" s="236"/>
-      <c r="C72" s="234"/>
-      <c r="D72" s="234"/>
-      <c r="E72" s="234"/>
-      <c r="F72" s="234"/>
-      <c r="G72" s="234"/>
-      <c r="H72" s="234"/>
-      <c r="I72" s="234"/>
-      <c r="J72" s="234"/>
-      <c r="K72" s="235"/>
+      <c r="A72" s="118"/>
+      <c r="B72" s="114"/>
+      <c r="C72" s="112"/>
+      <c r="D72" s="112"/>
+      <c r="E72" s="112"/>
+      <c r="F72" s="112"/>
+      <c r="G72" s="112"/>
+      <c r="H72" s="112"/>
+      <c r="I72" s="112"/>
+      <c r="J72" s="112"/>
+      <c r="K72" s="113"/>
       <c r="L72" s="97" t="s">
         <v>102</v>
       </c>
       <c r="M72" s="62"/>
-      <c r="N72" s="104"/>
+      <c r="N72" s="116"/>
       <c r="O72" s="11"/>
-      <c r="P72" s="102"/>
-      <c r="Q72" s="102"/>
-      <c r="R72" s="102"/>
-      <c r="S72" s="239"/>
+      <c r="P72" s="107"/>
+      <c r="Q72" s="107"/>
+      <c r="R72" s="107"/>
+      <c r="S72" s="108"/>
     </row>
     <row r="73" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A73" s="190"/>
-      <c r="B73" s="236"/>
-      <c r="C73" s="234"/>
-      <c r="D73" s="234"/>
-      <c r="E73" s="234"/>
-      <c r="F73" s="234"/>
-      <c r="G73" s="234"/>
-      <c r="H73" s="234"/>
-      <c r="I73" s="234"/>
-      <c r="J73" s="234"/>
-      <c r="K73" s="235"/>
+      <c r="A73" s="118"/>
+      <c r="B73" s="114"/>
+      <c r="C73" s="112"/>
+      <c r="D73" s="112"/>
+      <c r="E73" s="112"/>
+      <c r="F73" s="112"/>
+      <c r="G73" s="112"/>
+      <c r="H73" s="112"/>
+      <c r="I73" s="112"/>
+      <c r="J73" s="112"/>
+      <c r="K73" s="113"/>
       <c r="L73" s="97" t="s">
         <v>103</v>
       </c>
       <c r="M73" s="66"/>
-      <c r="N73" s="104"/>
+      <c r="N73" s="116"/>
       <c r="O73" s="11"/>
-      <c r="P73" s="102"/>
-      <c r="Q73" s="102"/>
-      <c r="R73" s="102"/>
-      <c r="S73" s="239"/>
+      <c r="P73" s="107"/>
+      <c r="Q73" s="107"/>
+      <c r="R73" s="107"/>
+      <c r="S73" s="108"/>
     </row>
     <row r="74" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A74" s="190"/>
-      <c r="B74" s="233" t="s">
+      <c r="A74" s="118"/>
+      <c r="B74" s="111" t="s">
         <v>111</v>
       </c>
-      <c r="C74" s="242"/>
-      <c r="D74" s="242"/>
-      <c r="E74" s="242"/>
-      <c r="F74" s="242"/>
-      <c r="G74" s="242"/>
-      <c r="H74" s="242"/>
-      <c r="I74" s="242"/>
-      <c r="J74" s="242"/>
-      <c r="K74" s="243"/>
+      <c r="C74" s="119"/>
+      <c r="D74" s="119"/>
+      <c r="E74" s="119"/>
+      <c r="F74" s="119"/>
+      <c r="G74" s="119"/>
+      <c r="H74" s="119"/>
+      <c r="I74" s="119"/>
+      <c r="J74" s="119"/>
+      <c r="K74" s="120"/>
       <c r="L74" s="97" t="s">
         <v>100</v>
       </c>
       <c r="M74" s="58">
         <v>5</v>
       </c>
-      <c r="N74" s="219">
+      <c r="N74" s="115">
         <f>IF(ISERROR(AVERAGE(M75:M76)),0,ROUNDUP(AVERAGE(M75:M76),1))</f>
         <v>0</v>
       </c>
       <c r="O74" s="11"/>
-      <c r="P74" s="220" t="s">
+      <c r="P74" s="106" t="s">
         <v>112</v>
       </c>
-      <c r="Q74" s="102"/>
-      <c r="R74" s="102"/>
-      <c r="S74" s="239"/>
+      <c r="Q74" s="107"/>
+      <c r="R74" s="107"/>
+      <c r="S74" s="108"/>
     </row>
     <row r="75" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A75" s="190"/>
-      <c r="B75" s="244"/>
-      <c r="C75" s="242"/>
-      <c r="D75" s="242"/>
-      <c r="E75" s="242"/>
-      <c r="F75" s="242"/>
-      <c r="G75" s="242"/>
-      <c r="H75" s="242"/>
-      <c r="I75" s="242"/>
-      <c r="J75" s="242"/>
-      <c r="K75" s="243"/>
+      <c r="A75" s="118"/>
+      <c r="B75" s="121"/>
+      <c r="C75" s="119"/>
+      <c r="D75" s="119"/>
+      <c r="E75" s="119"/>
+      <c r="F75" s="119"/>
+      <c r="G75" s="119"/>
+      <c r="H75" s="119"/>
+      <c r="I75" s="119"/>
+      <c r="J75" s="119"/>
+      <c r="K75" s="120"/>
       <c r="L75" s="97" t="s">
         <v>102</v>
       </c>
       <c r="M75" s="62"/>
-      <c r="N75" s="104"/>
+      <c r="N75" s="116"/>
       <c r="O75" s="11"/>
-      <c r="P75" s="102"/>
-      <c r="Q75" s="102"/>
-      <c r="R75" s="102"/>
-      <c r="S75" s="239"/>
+      <c r="P75" s="107"/>
+      <c r="Q75" s="107"/>
+      <c r="R75" s="107"/>
+      <c r="S75" s="108"/>
     </row>
     <row r="76" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A76" s="190"/>
-      <c r="B76" s="244"/>
-      <c r="C76" s="242"/>
-      <c r="D76" s="242"/>
-      <c r="E76" s="242"/>
-      <c r="F76" s="242"/>
-      <c r="G76" s="242"/>
-      <c r="H76" s="242"/>
-      <c r="I76" s="242"/>
-      <c r="J76" s="242"/>
-      <c r="K76" s="243"/>
+      <c r="A76" s="118"/>
+      <c r="B76" s="121"/>
+      <c r="C76" s="119"/>
+      <c r="D76" s="119"/>
+      <c r="E76" s="119"/>
+      <c r="F76" s="119"/>
+      <c r="G76" s="119"/>
+      <c r="H76" s="119"/>
+      <c r="I76" s="119"/>
+      <c r="J76" s="119"/>
+      <c r="K76" s="120"/>
       <c r="L76" s="98" t="s">
         <v>103</v>
       </c>
       <c r="M76" s="66"/>
-      <c r="N76" s="104"/>
+      <c r="N76" s="116"/>
       <c r="O76" s="11"/>
-      <c r="P76" s="102"/>
-      <c r="Q76" s="102"/>
-      <c r="R76" s="102"/>
-      <c r="S76" s="239"/>
+      <c r="P76" s="107"/>
+      <c r="Q76" s="107"/>
+      <c r="R76" s="107"/>
+      <c r="S76" s="108"/>
     </row>
     <row r="77" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A77" s="245" t="s">
+      <c r="A77" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="B77" s="211" t="s">
+      <c r="B77" s="125" t="s">
         <v>114</v>
       </c>
-      <c r="C77" s="212"/>
-      <c r="D77" s="212"/>
-      <c r="E77" s="212"/>
-      <c r="F77" s="212"/>
-      <c r="G77" s="212"/>
-      <c r="H77" s="212"/>
-      <c r="I77" s="212"/>
-      <c r="J77" s="212"/>
-      <c r="K77" s="213"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
+      <c r="E77" s="126"/>
+      <c r="F77" s="126"/>
+      <c r="G77" s="126"/>
+      <c r="H77" s="126"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126"/>
+      <c r="K77" s="127"/>
       <c r="L77" s="55" t="s">
         <v>100</v>
       </c>
       <c r="M77" s="58">
         <v>3</v>
       </c>
-      <c r="N77" s="219">
+      <c r="N77" s="115">
         <f>IF(ISERROR(AVERAGE(M78:M79)),0,ROUNDUP(AVERAGE(M78:M79),1))</f>
         <v>0</v>
       </c>
       <c r="O77" s="11"/>
-      <c r="P77" s="220" t="s">
+      <c r="P77" s="106" t="s">
         <v>115</v>
       </c>
-      <c r="Q77" s="102"/>
-      <c r="R77" s="102"/>
-      <c r="S77" s="239"/>
+      <c r="Q77" s="107"/>
+      <c r="R77" s="107"/>
+      <c r="S77" s="108"/>
     </row>
     <row r="78" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A78" s="246"/>
-      <c r="B78" s="214"/>
-      <c r="C78" s="102"/>
-      <c r="D78" s="102"/>
-      <c r="E78" s="102"/>
-      <c r="F78" s="102"/>
-      <c r="G78" s="102"/>
-      <c r="H78" s="102"/>
-      <c r="I78" s="102"/>
-      <c r="J78" s="102"/>
-      <c r="K78" s="215"/>
+      <c r="A78" s="123"/>
+      <c r="B78" s="128"/>
+      <c r="C78" s="107"/>
+      <c r="D78" s="107"/>
+      <c r="E78" s="107"/>
+      <c r="F78" s="107"/>
+      <c r="G78" s="107"/>
+      <c r="H78" s="107"/>
+      <c r="I78" s="107"/>
+      <c r="J78" s="107"/>
+      <c r="K78" s="129"/>
       <c r="L78" s="97" t="s">
         <v>102</v>
       </c>
       <c r="M78" s="62"/>
-      <c r="N78" s="104"/>
+      <c r="N78" s="116"/>
       <c r="O78" s="11"/>
-      <c r="P78" s="102"/>
-      <c r="Q78" s="102"/>
-      <c r="R78" s="102"/>
-      <c r="S78" s="239"/>
+      <c r="P78" s="107"/>
+      <c r="Q78" s="107"/>
+      <c r="R78" s="107"/>
+      <c r="S78" s="108"/>
     </row>
     <row r="79" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A79" s="246"/>
-      <c r="B79" s="216"/>
-      <c r="C79" s="217"/>
-      <c r="D79" s="217"/>
-      <c r="E79" s="217"/>
-      <c r="F79" s="217"/>
-      <c r="G79" s="217"/>
-      <c r="H79" s="217"/>
-      <c r="I79" s="217"/>
-      <c r="J79" s="217"/>
-      <c r="K79" s="218"/>
+      <c r="A79" s="123"/>
+      <c r="B79" s="130"/>
+      <c r="C79" s="131"/>
+      <c r="D79" s="131"/>
+      <c r="E79" s="131"/>
+      <c r="F79" s="131"/>
+      <c r="G79" s="131"/>
+      <c r="H79" s="131"/>
+      <c r="I79" s="131"/>
+      <c r="J79" s="131"/>
+      <c r="K79" s="132"/>
       <c r="L79" s="98" t="s">
         <v>103</v>
       </c>
       <c r="M79" s="66"/>
-      <c r="N79" s="104"/>
+      <c r="N79" s="116"/>
       <c r="O79" s="11"/>
-      <c r="P79" s="102"/>
-      <c r="Q79" s="102"/>
-      <c r="R79" s="102"/>
-      <c r="S79" s="239"/>
+      <c r="P79" s="107"/>
+      <c r="Q79" s="107"/>
+      <c r="R79" s="107"/>
+      <c r="S79" s="108"/>
     </row>
     <row r="80" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A80" s="246"/>
-      <c r="B80" s="211" t="s">
+      <c r="A80" s="123"/>
+      <c r="B80" s="125" t="s">
         <v>116</v>
       </c>
-      <c r="C80" s="212"/>
-      <c r="D80" s="212"/>
-      <c r="E80" s="212"/>
-      <c r="F80" s="212"/>
-      <c r="G80" s="212"/>
-      <c r="H80" s="212"/>
-      <c r="I80" s="212"/>
-      <c r="J80" s="212"/>
-      <c r="K80" s="213"/>
+      <c r="C80" s="126"/>
+      <c r="D80" s="126"/>
+      <c r="E80" s="126"/>
+      <c r="F80" s="126"/>
+      <c r="G80" s="126"/>
+      <c r="H80" s="126"/>
+      <c r="I80" s="126"/>
+      <c r="J80" s="126"/>
+      <c r="K80" s="127"/>
       <c r="L80" s="55" t="s">
         <v>100</v>
       </c>
       <c r="M80" s="58">
         <v>5</v>
       </c>
-      <c r="N80" s="219">
+      <c r="N80" s="115">
         <f>IF(ISERROR(AVERAGE(M81:M82)),0,ROUNDUP(AVERAGE(M81:M82),1))</f>
         <v>0</v>
       </c>
       <c r="O80" s="11"/>
-      <c r="P80" s="220" t="s">
+      <c r="P80" s="106" t="s">
         <v>117</v>
       </c>
-      <c r="Q80" s="102"/>
-      <c r="R80" s="102"/>
-      <c r="S80" s="239"/>
+      <c r="Q80" s="107"/>
+      <c r="R80" s="107"/>
+      <c r="S80" s="108"/>
     </row>
     <row r="81" spans="1:19" ht="18.75" customHeight="1">
-      <c r="A81" s="246"/>
-      <c r="B81" s="214"/>
-      <c r="C81" s="102"/>
-      <c r="D81" s="102"/>
-      <c r="E81" s="102"/>
-      <c r="F81" s="102"/>
-      <c r="G81" s="102"/>
-      <c r="H81" s="102"/>
-      <c r="I81" s="102"/>
-      <c r="J81" s="102"/>
-      <c r="K81" s="215"/>
+      <c r="A81" s="123"/>
+      <c r="B81" s="128"/>
+      <c r="C81" s="107"/>
+      <c r="D81" s="107"/>
+      <c r="E81" s="107"/>
+      <c r="F81" s="107"/>
+      <c r="G81" s="107"/>
+      <c r="H81" s="107"/>
+      <c r="I81" s="107"/>
+      <c r="J81" s="107"/>
+      <c r="K81" s="129"/>
       <c r="L81" s="97" t="s">
         <v>102</v>
       </c>
       <c r="M81" s="62"/>
-      <c r="N81" s="248"/>
+      <c r="N81" s="133"/>
       <c r="O81" s="11"/>
-      <c r="P81" s="102"/>
-      <c r="Q81" s="102"/>
-      <c r="R81" s="102"/>
-      <c r="S81" s="239"/>
+      <c r="P81" s="107"/>
+      <c r="Q81" s="107"/>
+      <c r="R81" s="107"/>
+      <c r="S81" s="108"/>
     </row>
     <row r="82" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A82" s="246"/>
-      <c r="B82" s="216"/>
-      <c r="C82" s="217"/>
-      <c r="D82" s="217"/>
-      <c r="E82" s="217"/>
-      <c r="F82" s="217"/>
-      <c r="G82" s="217"/>
-      <c r="H82" s="217"/>
-      <c r="I82" s="217"/>
-      <c r="J82" s="217"/>
-      <c r="K82" s="218"/>
+      <c r="A82" s="123"/>
+      <c r="B82" s="130"/>
+      <c r="C82" s="131"/>
+      <c r="D82" s="131"/>
+      <c r="E82" s="131"/>
+      <c r="F82" s="131"/>
+      <c r="G82" s="131"/>
+      <c r="H82" s="131"/>
+      <c r="I82" s="131"/>
+      <c r="J82" s="131"/>
+      <c r="K82" s="132"/>
       <c r="L82" s="98" t="s">
         <v>103</v>
       </c>
       <c r="M82" s="66"/>
-      <c r="N82" s="104"/>
+      <c r="N82" s="116"/>
       <c r="O82" s="11"/>
-      <c r="P82" s="102"/>
-      <c r="Q82" s="102"/>
-      <c r="R82" s="102"/>
-      <c r="S82" s="239"/>
+      <c r="P82" s="107"/>
+      <c r="Q82" s="107"/>
+      <c r="R82" s="107"/>
+      <c r="S82" s="108"/>
     </row>
     <row r="83" spans="1:19" ht="13.5" customHeight="1">
-      <c r="A83" s="246"/>
-      <c r="B83" s="211" t="s">
+      <c r="A83" s="123"/>
+      <c r="B83" s="125" t="s">
         <v>118</v>
       </c>
-      <c r="C83" s="212"/>
-      <c r="D83" s="212"/>
-      <c r="E83" s="212"/>
-      <c r="F83" s="212"/>
-      <c r="G83" s="212"/>
-      <c r="H83" s="212"/>
-      <c r="I83" s="212"/>
-      <c r="J83" s="212"/>
-      <c r="K83" s="213"/>
+      <c r="C83" s="126"/>
+      <c r="D83" s="126"/>
+      <c r="E83" s="126"/>
+      <c r="F83" s="126"/>
+      <c r="G83" s="126"/>
+      <c r="H83" s="126"/>
+      <c r="I83" s="126"/>
+      <c r="J83" s="126"/>
+      <c r="K83" s="127"/>
       <c r="L83" s="55" t="s">
         <v>100</v>
       </c>
       <c r="M83" s="58">
         <v>5</v>
       </c>
-      <c r="N83" s="219">
+      <c r="N83" s="115">
         <f>IF(ISERROR(AVERAGE(M84:M85)),0,ROUNDUP(AVERAGE(M84:M85),1))</f>
         <v>0</v>
       </c>
       <c r="O83" s="11"/>
-      <c r="P83" s="220" t="s">
+      <c r="P83" s="106" t="s">
         <v>119</v>
       </c>
-      <c r="Q83" s="102"/>
-      <c r="R83" s="102"/>
-      <c r="S83" s="239"/>
+      <c r="Q83" s="107"/>
+      <c r="R83" s="107"/>
+      <c r="S83" s="108"/>
     </row>
     <row r="84" spans="1:19" ht="14.4" customHeight="1">
-      <c r="A84" s="246"/>
-      <c r="B84" s="214"/>
-      <c r="C84" s="102"/>
-      <c r="D84" s="102"/>
-      <c r="E84" s="102"/>
-      <c r="F84" s="102"/>
-      <c r="G84" s="102"/>
-      <c r="H84" s="102"/>
-      <c r="I84" s="102"/>
-      <c r="J84" s="102"/>
-      <c r="K84" s="215"/>
+      <c r="A84" s="123"/>
+      <c r="B84" s="128"/>
+      <c r="C84" s="107"/>
+      <c r="D84" s="107"/>
+      <c r="E84" s="107"/>
+      <c r="F84" s="107"/>
+      <c r="G84" s="107"/>
+      <c r="H84" s="107"/>
+      <c r="I84" s="107"/>
+      <c r="J84" s="107"/>
+      <c r="K84" s="129"/>
       <c r="L84" s="97" t="s">
         <v>102</v>
       </c>
       <c r="M84" s="62"/>
-      <c r="N84" s="104"/>
+      <c r="N84" s="116"/>
       <c r="O84" s="11"/>
-      <c r="P84" s="102"/>
-      <c r="Q84" s="102"/>
-      <c r="R84" s="102"/>
-      <c r="S84" s="239"/>
+      <c r="P84" s="107"/>
+      <c r="Q84" s="107"/>
+      <c r="R84" s="107"/>
+      <c r="S84" s="108"/>
     </row>
     <row r="85" spans="1:19" ht="14.4" customHeight="1">
-      <c r="A85" s="246"/>
-      <c r="B85" s="216"/>
-      <c r="C85" s="217"/>
-      <c r="D85" s="217"/>
-      <c r="E85" s="217"/>
-      <c r="F85" s="217"/>
-      <c r="G85" s="217"/>
-      <c r="H85" s="217"/>
-      <c r="I85" s="217"/>
-      <c r="J85" s="217"/>
-      <c r="K85" s="218"/>
+      <c r="A85" s="123"/>
+      <c r="B85" s="130"/>
+      <c r="C85" s="131"/>
+      <c r="D85" s="131"/>
+      <c r="E85" s="131"/>
+      <c r="F85" s="131"/>
+      <c r="G85" s="131"/>
+      <c r="H85" s="131"/>
+      <c r="I85" s="131"/>
+      <c r="J85" s="131"/>
+      <c r="K85" s="132"/>
       <c r="L85" s="98" t="s">
         <v>103</v>
       </c>
       <c r="M85" s="66"/>
-      <c r="N85" s="104"/>
+      <c r="N85" s="116"/>
       <c r="O85" s="11"/>
-      <c r="P85" s="102"/>
-      <c r="Q85" s="102"/>
-      <c r="R85" s="102"/>
-      <c r="S85" s="239"/>
+      <c r="P85" s="107"/>
+      <c r="Q85" s="107"/>
+      <c r="R85" s="107"/>
+      <c r="S85" s="108"/>
     </row>
     <row r="86" spans="1:19" ht="15" customHeight="1">
-      <c r="A86" s="246"/>
-      <c r="B86" s="211" t="s">
+      <c r="A86" s="123"/>
+      <c r="B86" s="125" t="s">
         <v>120</v>
       </c>
-      <c r="C86" s="212"/>
-      <c r="D86" s="212"/>
-      <c r="E86" s="212"/>
-      <c r="F86" s="212"/>
-      <c r="G86" s="212"/>
-      <c r="H86" s="212"/>
-      <c r="I86" s="212"/>
-      <c r="J86" s="212"/>
-      <c r="K86" s="213"/>
+      <c r="C86" s="126"/>
+      <c r="D86" s="126"/>
+      <c r="E86" s="126"/>
+      <c r="F86" s="126"/>
+      <c r="G86" s="126"/>
+      <c r="H86" s="126"/>
+      <c r="I86" s="126"/>
+      <c r="J86" s="126"/>
+      <c r="K86" s="127"/>
       <c r="L86" s="55" t="s">
         <v>100</v>
       </c>
       <c r="M86" s="58">
         <v>5</v>
       </c>
-      <c r="N86" s="219">
+      <c r="N86" s="115">
         <f>IF(ISERROR(AVERAGE(M87:M88)),0,ROUNDUP(AVERAGE(M87:M88),1))</f>
         <v>0</v>
       </c>
       <c r="O86" s="11"/>
-      <c r="P86" s="220" t="s">
+      <c r="P86" s="106" t="s">
         <v>121</v>
       </c>
-      <c r="Q86" s="102"/>
-      <c r="R86" s="102"/>
-      <c r="S86" s="239"/>
+      <c r="Q86" s="107"/>
+      <c r="R86" s="107"/>
+      <c r="S86" s="108"/>
     </row>
     <row r="87" spans="1:19" ht="15" customHeight="1">
-      <c r="A87" s="246"/>
-      <c r="B87" s="214"/>
-      <c r="C87" s="102"/>
-      <c r="D87" s="102"/>
-      <c r="E87" s="102"/>
-      <c r="F87" s="102"/>
-      <c r="G87" s="102"/>
-      <c r="H87" s="102"/>
-      <c r="I87" s="102"/>
-      <c r="J87" s="102"/>
-      <c r="K87" s="215"/>
+      <c r="A87" s="123"/>
+      <c r="B87" s="128"/>
+      <c r="C87" s="107"/>
+      <c r="D87" s="107"/>
+      <c r="E87" s="107"/>
+      <c r="F87" s="107"/>
+      <c r="G87" s="107"/>
+      <c r="H87" s="107"/>
+      <c r="I87" s="107"/>
+      <c r="J87" s="107"/>
+      <c r="K87" s="129"/>
       <c r="L87" s="97" t="s">
         <v>102</v>
       </c>
       <c r="M87" s="62"/>
-      <c r="N87" s="104"/>
+      <c r="N87" s="116"/>
       <c r="O87" s="11"/>
-      <c r="P87" s="102"/>
-      <c r="Q87" s="102"/>
-      <c r="R87" s="102"/>
-      <c r="S87" s="239"/>
+      <c r="P87" s="107"/>
+      <c r="Q87" s="107"/>
+      <c r="R87" s="107"/>
+      <c r="S87" s="108"/>
     </row>
     <row r="88" spans="1:19" ht="15" customHeight="1">
-      <c r="A88" s="247"/>
-      <c r="B88" s="216"/>
-      <c r="C88" s="217"/>
-      <c r="D88" s="217"/>
-      <c r="E88" s="217"/>
-      <c r="F88" s="217"/>
-      <c r="G88" s="217"/>
-      <c r="H88" s="217"/>
-      <c r="I88" s="217"/>
-      <c r="J88" s="217"/>
-      <c r="K88" s="218"/>
+      <c r="A88" s="124"/>
+      <c r="B88" s="130"/>
+      <c r="C88" s="131"/>
+      <c r="D88" s="131"/>
+      <c r="E88" s="131"/>
+      <c r="F88" s="131"/>
+      <c r="G88" s="131"/>
+      <c r="H88" s="131"/>
+      <c r="I88" s="131"/>
+      <c r="J88" s="131"/>
+      <c r="K88" s="132"/>
       <c r="L88" s="98" t="s">
         <v>103</v>
       </c>
       <c r="M88" s="66"/>
-      <c r="N88" s="104"/>
+      <c r="N88" s="116"/>
       <c r="O88" s="11"/>
-      <c r="P88" s="102"/>
-      <c r="Q88" s="102"/>
-      <c r="R88" s="102"/>
-      <c r="S88" s="239"/>
+      <c r="P88" s="107"/>
+      <c r="Q88" s="107"/>
+      <c r="R88" s="107"/>
+      <c r="S88" s="108"/>
     </row>
     <row r="89" spans="1:19" ht="16.05" customHeight="1">
       <c r="A89" s="54" t="s">
         <v>122</v>
       </c>
-      <c r="B89" s="179" t="s">
+      <c r="B89" s="101" t="s">
         <v>90</v>
       </c>
-      <c r="C89" s="180"/>
-      <c r="D89" s="180"/>
-      <c r="E89" s="180"/>
-      <c r="F89" s="180"/>
-      <c r="G89" s="180"/>
-      <c r="H89" s="180"/>
-      <c r="I89" s="180"/>
-      <c r="J89" s="180"/>
-      <c r="K89" s="181"/>
+      <c r="C89" s="102"/>
+      <c r="D89" s="102"/>
+      <c r="E89" s="102"/>
+      <c r="F89" s="102"/>
+      <c r="G89" s="102"/>
+      <c r="H89" s="102"/>
+      <c r="I89" s="102"/>
+      <c r="J89" s="102"/>
+      <c r="K89" s="103"/>
       <c r="L89" s="53" t="s">
         <v>18</v>
       </c>
-      <c r="M89" s="237">
+      <c r="M89" s="104">
         <f>SUM(N62:N88)</f>
         <v>0</v>
       </c>
-      <c r="N89" s="238"/>
+      <c r="N89" s="105"/>
       <c r="O89" s="99"/>
       <c r="P89" s="100"/>
       <c r="Q89" s="100"/>
-      <c r="R89" s="240"/>
-      <c r="S89" s="241"/>
+      <c r="R89" s="109"/>
+      <c r="S89" s="110"/>
     </row>
   </sheetData>
   <mergeCells count="154">
+    <mergeCell ref="A2:N2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="F6:J6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="F7:J7"/>
+    <mergeCell ref="A9:N9"/>
+    <mergeCell ref="A10:E10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="H10:I10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="A11:D11"/>
+    <mergeCell ref="P11:P13"/>
+    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="F12:G13"/>
+    <mergeCell ref="H12:I13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M12:N13"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="A15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="M15:N16"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="M19:N19"/>
+    <mergeCell ref="A20:E20"/>
+    <mergeCell ref="A21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="M21:N21"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="M22:N22"/>
+    <mergeCell ref="A23:K23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="A26:N26"/>
+    <mergeCell ref="A27:J27"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="A28:F28"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="G31:J31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="G32:J32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="G33:J33"/>
+    <mergeCell ref="A34:J34"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="A36:K36"/>
+    <mergeCell ref="L36:N36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="H38:J38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="H39:J39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="H40:J40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="H41:J41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="H42:J42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="H43:J43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="H44:J44"/>
+    <mergeCell ref="A45:M45"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="H49:N49"/>
+    <mergeCell ref="I50:K50"/>
+    <mergeCell ref="L50:M50"/>
+    <mergeCell ref="G51:G56"/>
+    <mergeCell ref="I51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="P51:Q56"/>
+    <mergeCell ref="I52:K52"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="I53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="I54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="I55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="I56:K56"/>
+    <mergeCell ref="L56:M56"/>
+    <mergeCell ref="B83:K85"/>
+    <mergeCell ref="N83:N85"/>
+    <mergeCell ref="P83:Q85"/>
+    <mergeCell ref="B86:K88"/>
+    <mergeCell ref="N86:N88"/>
+    <mergeCell ref="P86:Q88"/>
+    <mergeCell ref="H57:K57"/>
+    <mergeCell ref="L57:M57"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="B60:K61"/>
+    <mergeCell ref="L60:N60"/>
+    <mergeCell ref="A62:A67"/>
+    <mergeCell ref="B62:K64"/>
+    <mergeCell ref="N62:N64"/>
     <mergeCell ref="B89:K89"/>
     <mergeCell ref="M89:N89"/>
     <mergeCell ref="P62:Q64"/>
@@ -5810,136 +5942,6 @@
     <mergeCell ref="B80:K82"/>
     <mergeCell ref="N80:N82"/>
     <mergeCell ref="P80:Q82"/>
-    <mergeCell ref="B83:K85"/>
-    <mergeCell ref="N83:N85"/>
-    <mergeCell ref="P83:Q85"/>
-    <mergeCell ref="B86:K88"/>
-    <mergeCell ref="N86:N88"/>
-    <mergeCell ref="P86:Q88"/>
-    <mergeCell ref="H57:K57"/>
-    <mergeCell ref="L57:M57"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="B60:K61"/>
-    <mergeCell ref="L60:N60"/>
-    <mergeCell ref="A62:A67"/>
-    <mergeCell ref="B62:K64"/>
-    <mergeCell ref="N62:N64"/>
-    <mergeCell ref="G51:G56"/>
-    <mergeCell ref="I51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="P51:Q56"/>
-    <mergeCell ref="I52:K52"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="I53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="I54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="I55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="I56:K56"/>
-    <mergeCell ref="L56:M56"/>
-    <mergeCell ref="A45:M45"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="H49:N49"/>
-    <mergeCell ref="I50:K50"/>
-    <mergeCell ref="L50:M50"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="H40:J40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="H41:J41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="H42:J42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="H43:J43"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="H44:J44"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="A36:K36"/>
-    <mergeCell ref="L36:N36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="H37:J37"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="H38:J38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="H39:J39"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="G31:J31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="G32:J32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="G33:J33"/>
-    <mergeCell ref="A34:J34"/>
-    <mergeCell ref="A23:K23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="A26:N26"/>
-    <mergeCell ref="A27:J27"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="A28:F28"/>
-    <mergeCell ref="G28:J28"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="G29:J29"/>
-    <mergeCell ref="A20:E20"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="M21:N21"/>
-    <mergeCell ref="A22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="M22:N22"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="M19:N19"/>
-    <mergeCell ref="A14:D14"/>
-    <mergeCell ref="A15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M15:N16"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A9:N9"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="H10:I10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="A11:D11"/>
-    <mergeCell ref="P11:P13"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="F12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="M12:N13"/>
-    <mergeCell ref="A13:E13"/>
-    <mergeCell ref="A2:N2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="F6:J6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="F7:J7"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <dataValidations count="1">
@@ -5948,7 +5950,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.31495800000000002" right="0.31495800000000002" top="0.354319" bottom="0.354319" header="0.31495800000000002" footer="0.27558300000000002"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;R&amp;"HY견고딕,Regular"&amp;9&amp;K000000(주)아스템즈</oddFooter>
   </headerFooter>
